--- a/docs/HubSummaryFromAPI.xlsx
+++ b/docs/HubSummaryFromAPI.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Hub Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary'!$C$1:$C$521</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary'!$C$1:$C$525</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="1050">
   <si>
     <t>Technology</t>
   </si>
@@ -904,6 +904,12 @@
     <t xml:space="preserve"> Deploy web apps (web roles) and background services (worker roles) onto Azure virtual machines. </t>
   </si>
   <si>
+    <t xml:space="preserve">Azure Computer Vision </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AI service to boost content discoverability, automate text extraction, analyze video in real time, and more. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Azure Container Registries </t>
   </si>
   <si>
@@ -916,6 +922,18 @@
     <t xml:space="preserve"> Globally-distributed, multi-model database service "for managing data at planet-scale". </t>
   </si>
   <si>
+    <t xml:space="preserve">Azure Custom Vision Prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customize computer vision for specific domain. No machine learning expertise is required. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Data Lake Analytics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distributed, cloud-based data processing architecture offered by Microsoft in the Azure cloud. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Azure Database for Maria DB </t>
   </si>
   <si>
@@ -1210,6 +1228,15 @@
     <t xml:space="preserve"> Concourse is the automation engine for cloud native CI/CD. </t>
   </si>
   <si>
+    <t xml:space="preserve">Configuration as Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get Dynatrace observability and security configurations in a fully automated everything-as-code fashion - via YAML files. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Confluent Cloud (Kafka) </t>
   </si>
   <si>
@@ -1276,10 +1303,16 @@
     <t xml:space="preserve"> Extend Dynatrace with custom ingest APIs </t>
   </si>
   <si>
-    <t xml:space="preserve">Custom database queries </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Run generic database queries against Oracle, Postgres, MSSQL, MySQL, DB2, Informix, or SAP HANA databases and send the metrics to Dynatrace. </t>
+    <t xml:space="preserve">Custom Database Queries </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Make generic databases queries to your Oracle, Postgres, MSSQL, MySQL, DB2, Informix or SAP HANA databases and send the metrics to Dynatrace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom:wmi-extension </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> None </t>
   </si>
   <si>
     <t xml:space="preserve">Databricks </t>
@@ -1492,9 +1525,6 @@
     <t xml:space="preserve"> Enable monitoring on any front end (desktop app, ATM, bus ticketing machine,...) with our open-source OpenKit library. </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Generic Linux Commands </t>
   </si>
   <si>
@@ -1927,10 +1957,10 @@
     <t xml:space="preserve"> Enables the classification of data requests based on service and application-level information. </t>
   </si>
   <si>
-    <t xml:space="preserve">IBM DB2 LUW </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Extend IBM DB2 for Linux, UNIX and Windows (LUW) monitoring capabilities with a deeper look into performance metrics. </t>
+    <t xml:space="preserve">IBM DB2 for LUW (remote monitoring) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remotely monitor your DB2 instances to collect data on transactions, connections, buffer pools. tablespaces, and transaction logs. </t>
   </si>
   <si>
     <t xml:space="preserve">IBM DB2 </t>
@@ -2377,18 +2407,12 @@
     <t xml:space="preserve"> Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers </t>
   </si>
   <si>
-    <t xml:space="preserve">MySQL (remote monitoring v2) </t>
+    <t xml:space="preserve">MySQL (remote monitoring) </t>
   </si>
   <si>
     <t xml:space="preserve"> Remotely monitor your MySQL instances, collect connections, statements, throughput, waits, database metrics. </t>
   </si>
   <si>
-    <t xml:space="preserve">MySQL (remote monitoring) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expand visibility to improve the health and performance monitoring of your MySQL databases! </t>
-  </si>
-  <si>
     <t xml:space="preserve">MySQL </t>
   </si>
   <si>
@@ -2794,7 +2818,7 @@
     <t xml:space="preserve"> Automatic problem detection and visibility into every user transaction, and insight into the performance of RFC without changing any code. </t>
   </si>
   <si>
-    <t xml:space="preserve">SAP HANA Database </t>
+    <t xml:space="preserve">SAP HANA Database (remote monitoring) </t>
   </si>
   <si>
     <t xml:space="preserve"> Easily understand the health and performance of your SAP HANA databases! </t>
@@ -3502,14 +3526,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C520"/>
+  <dimension ref="A1:C524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="155" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5212,7 +5236,7 @@
         <v>321</v>
       </c>
       <c r="B155" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="C155" t="s">
         <v>280</v>
@@ -5220,10 +5244,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C156" t="s">
         <v>280</v>
@@ -5231,10 +5255,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C157" t="s">
         <v>280</v>
@@ -5242,10 +5266,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="C158" t="s">
         <v>280</v>
@@ -5325,15 +5349,15 @@
         <v>341</v>
       </c>
       <c r="C165" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" t="s">
         <v>343</v>
-      </c>
-      <c r="B166" t="s">
-        <v>344</v>
       </c>
       <c r="C166" t="s">
         <v>280</v>
@@ -5341,10 +5365,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" t="s">
         <v>345</v>
-      </c>
-      <c r="B167" t="s">
-        <v>346</v>
       </c>
       <c r="C167" t="s">
         <v>280</v>
@@ -5352,13 +5376,13 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" t="s">
         <v>347</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>348</v>
-      </c>
-      <c r="C168" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5446,7 +5470,7 @@
         <v>364</v>
       </c>
       <c r="C176" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5465,98 +5489,98 @@
         <v>367</v>
       </c>
       <c r="B178" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B179" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B181" t="s">
-        <v>373</v>
+        <v>47</v>
       </c>
       <c r="C181" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B182" t="s">
         <v>375</v>
       </c>
-      <c r="B182" t="s">
-        <v>376</v>
-      </c>
       <c r="C182" t="s">
-        <v>377</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B183" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C183" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B185" t="s">
+        <v>382</v>
+      </c>
+      <c r="C185" t="s">
         <v>383</v>
-      </c>
-      <c r="B185" t="s">
-        <v>384</v>
-      </c>
-      <c r="C185" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B186" t="s">
         <v>385</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>386</v>
-      </c>
-      <c r="C186" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5567,7 +5591,7 @@
         <v>388</v>
       </c>
       <c r="C187" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5578,7 +5602,7 @@
         <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5589,7 +5613,7 @@
         <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5600,7 +5624,7 @@
         <v>394</v>
       </c>
       <c r="C190" t="s">
-        <v>374</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5611,7 +5635,7 @@
         <v>396</v>
       </c>
       <c r="C191" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5622,7 +5646,7 @@
         <v>398</v>
       </c>
       <c r="C192" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5633,7 +5657,7 @@
         <v>400</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5641,73 +5665,73 @@
         <v>401</v>
       </c>
       <c r="B194" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B195" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B196" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C197" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B198" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C198" t="s">
-        <v>408</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199" t="s">
         <v>409</v>
       </c>
-      <c r="B199" t="s">
-        <v>410</v>
-      </c>
       <c r="C199" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B200" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C200" t="s">
         <v>10</v>
@@ -5721,7 +5745,7 @@
         <v>414</v>
       </c>
       <c r="C201" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5732,51 +5756,51 @@
         <v>416</v>
       </c>
       <c r="C202" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B203" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C203" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B204" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C204" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B205" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C205" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B206" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C206" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5787,51 +5811,51 @@
         <v>427</v>
       </c>
       <c r="C207" t="s">
-        <v>428</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B208" t="s">
         <v>429</v>
       </c>
-      <c r="B208" t="s">
-        <v>430</v>
-      </c>
       <c r="C208" t="s">
-        <v>5</v>
+        <v>405</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B209" t="s">
         <v>431</v>
       </c>
-      <c r="B209" t="s">
-        <v>432</v>
-      </c>
       <c r="C209" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B210" t="s">
         <v>433</v>
       </c>
-      <c r="B210" t="s">
-        <v>434</v>
-      </c>
       <c r="C210" t="s">
-        <v>408</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B211" t="s">
         <v>435</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>436</v>
-      </c>
-      <c r="C211" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5853,7 +5877,7 @@
         <v>441</v>
       </c>
       <c r="C213" t="s">
-        <v>439</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5864,7 +5888,7 @@
         <v>443</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5872,73 +5896,73 @@
         <v>444</v>
       </c>
       <c r="B215" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B216" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C216" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B217" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C217" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B218" t="s">
+        <v>452</v>
+      </c>
+      <c r="C218" t="s">
         <v>450</v>
-      </c>
-      <c r="B218" t="s">
-        <v>451</v>
-      </c>
-      <c r="C218" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B219" t="s">
-        <v>47</v>
+        <v>454</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>454</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B221" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C221" t="s">
         <v>168</v>
@@ -5946,32 +5970,32 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B222" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>460</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B223" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C223" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B224" t="s">
-        <v>461</v>
+        <v>47</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5979,21 +6003,21 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B225" t="s">
-        <v>463</v>
+        <v>47</v>
       </c>
       <c r="C225" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B226" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C226" t="s">
         <v>168</v>
@@ -6001,10 +6025,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B227" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -6012,10 +6036,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B228" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C228" t="s">
         <v>168</v>
@@ -6023,134 +6047,134 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B229" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C229" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B230" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C230" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B231" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B232" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C232" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B233" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B234" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B235" t="s">
-        <v>47</v>
+        <v>484</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B236" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C236" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B237" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C237" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B238" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C238" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B239" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C239" t="s">
-        <v>491</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B240" t="s">
-        <v>493</v>
+        <v>47</v>
       </c>
       <c r="C240" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6161,7 +6185,7 @@
         <v>495</v>
       </c>
       <c r="C241" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6169,32 +6193,32 @@
         <v>496</v>
       </c>
       <c r="B242" t="s">
-        <v>193</v>
+        <v>497</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B243" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C243" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B244" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C244" t="s">
-        <v>501</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6205,7 +6229,7 @@
         <v>503</v>
       </c>
       <c r="C245" t="s">
-        <v>501</v>
+        <v>168</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6216,7 +6240,7 @@
         <v>505</v>
       </c>
       <c r="C246" t="s">
-        <v>501</v>
+        <v>168</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6224,32 +6248,32 @@
         <v>506</v>
       </c>
       <c r="B247" t="s">
-        <v>507</v>
+        <v>193</v>
       </c>
       <c r="C247" t="s">
-        <v>501</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B248" t="s">
         <v>508</v>
       </c>
-      <c r="B248" t="s">
-        <v>509</v>
-      </c>
       <c r="C248" t="s">
-        <v>501</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B249" t="s">
         <v>510</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>511</v>
-      </c>
-      <c r="C249" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6260,7 +6284,7 @@
         <v>513</v>
       </c>
       <c r="C250" t="s">
-        <v>149</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6271,7 +6295,7 @@
         <v>515</v>
       </c>
       <c r="C251" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6282,7 +6306,7 @@
         <v>517</v>
       </c>
       <c r="C252" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6293,7 +6317,7 @@
         <v>519</v>
       </c>
       <c r="C253" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6304,7 +6328,7 @@
         <v>521</v>
       </c>
       <c r="C254" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6315,7 +6339,7 @@
         <v>523</v>
       </c>
       <c r="C255" t="s">
-        <v>501</v>
+        <v>149</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6326,7 +6350,7 @@
         <v>525</v>
       </c>
       <c r="C256" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6337,7 +6361,7 @@
         <v>527</v>
       </c>
       <c r="C257" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6348,7 +6372,7 @@
         <v>529</v>
       </c>
       <c r="C258" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6359,7 +6383,7 @@
         <v>531</v>
       </c>
       <c r="C259" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6370,7 +6394,7 @@
         <v>533</v>
       </c>
       <c r="C260" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6381,7 +6405,7 @@
         <v>535</v>
       </c>
       <c r="C261" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6392,7 +6416,7 @@
         <v>537</v>
       </c>
       <c r="C262" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6403,7 +6427,7 @@
         <v>539</v>
       </c>
       <c r="C263" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6414,7 +6438,7 @@
         <v>541</v>
       </c>
       <c r="C264" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6425,7 +6449,7 @@
         <v>543</v>
       </c>
       <c r="C265" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6436,7 +6460,7 @@
         <v>545</v>
       </c>
       <c r="C266" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6447,7 +6471,7 @@
         <v>547</v>
       </c>
       <c r="C267" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6458,7 +6482,7 @@
         <v>549</v>
       </c>
       <c r="C268" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6469,7 +6493,7 @@
         <v>551</v>
       </c>
       <c r="C269" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6480,7 +6504,7 @@
         <v>553</v>
       </c>
       <c r="C270" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6491,7 +6515,7 @@
         <v>555</v>
       </c>
       <c r="C271" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6502,7 +6526,7 @@
         <v>557</v>
       </c>
       <c r="C272" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6513,7 +6537,7 @@
         <v>559</v>
       </c>
       <c r="C273" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6524,7 +6548,7 @@
         <v>561</v>
       </c>
       <c r="C274" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6535,7 +6559,7 @@
         <v>563</v>
       </c>
       <c r="C275" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6546,7 +6570,7 @@
         <v>565</v>
       </c>
       <c r="C276" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6557,7 +6581,7 @@
         <v>567</v>
       </c>
       <c r="C277" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6568,7 +6592,7 @@
         <v>569</v>
       </c>
       <c r="C278" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6579,7 +6603,7 @@
         <v>571</v>
       </c>
       <c r="C279" t="s">
-        <v>501</v>
+        <v>417</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6590,7 +6614,7 @@
         <v>573</v>
       </c>
       <c r="C280" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6598,65 +6622,65 @@
         <v>574</v>
       </c>
       <c r="B281" t="s">
-        <v>72</v>
+        <v>575</v>
       </c>
       <c r="C281" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B282" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C282" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B283" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C283" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B284" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C284" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B285" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C285" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B286" t="s">
-        <v>584</v>
+        <v>72</v>
       </c>
       <c r="C286" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6667,7 +6691,7 @@
         <v>586</v>
       </c>
       <c r="C287" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6678,7 +6702,7 @@
         <v>588</v>
       </c>
       <c r="C288" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6689,7 +6713,7 @@
         <v>590</v>
       </c>
       <c r="C289" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6700,7 +6724,7 @@
         <v>592</v>
       </c>
       <c r="C290" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6708,54 +6732,54 @@
         <v>593</v>
       </c>
       <c r="B291" t="s">
-        <v>47</v>
+        <v>594</v>
       </c>
       <c r="C291" t="s">
-        <v>5</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B292" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C292" t="s">
-        <v>161</v>
+        <v>511</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B293" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C293" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B294" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C294" t="s">
-        <v>5</v>
+        <v>511</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B295" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C295" t="s">
-        <v>602</v>
+        <v>511</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6763,18 +6787,18 @@
         <v>603</v>
       </c>
       <c r="B296" t="s">
-        <v>604</v>
+        <v>47</v>
       </c>
       <c r="C296" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B297" t="s">
         <v>605</v>
-      </c>
-      <c r="B297" t="s">
-        <v>606</v>
       </c>
       <c r="C297" t="s">
         <v>161</v>
@@ -6782,43 +6806,43 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B298" t="s">
         <v>607</v>
       </c>
-      <c r="B298" t="s">
-        <v>608</v>
-      </c>
       <c r="C298" t="s">
-        <v>609</v>
+        <v>405</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B299" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B300" t="s">
+        <v>611</v>
+      </c>
+      <c r="C300" t="s">
         <v>612</v>
-      </c>
-      <c r="B300" t="s">
-        <v>613</v>
-      </c>
-      <c r="C300" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B301" t="s">
         <v>614</v>
-      </c>
-      <c r="B301" t="s">
-        <v>615</v>
       </c>
       <c r="C301" t="s">
         <v>161</v>
@@ -6826,10 +6850,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B302" t="s">
         <v>616</v>
-      </c>
-      <c r="B302" t="s">
-        <v>617</v>
       </c>
       <c r="C302" t="s">
         <v>161</v>
@@ -6837,54 +6861,54 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B303" t="s">
         <v>618</v>
       </c>
-      <c r="B303" t="s">
-        <v>47</v>
-      </c>
       <c r="C303" t="s">
-        <v>5</v>
+        <v>619</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B304" t="s">
-        <v>47</v>
+        <v>621</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B305" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B306" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B307" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C307" t="s">
         <v>161</v>
@@ -6892,13 +6916,13 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B308" t="s">
-        <v>627</v>
+        <v>47</v>
       </c>
       <c r="C308" t="s">
-        <v>628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -6906,32 +6930,32 @@
         <v>629</v>
       </c>
       <c r="B309" t="s">
-        <v>630</v>
+        <v>47</v>
       </c>
       <c r="C309" t="s">
-        <v>628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B310" t="s">
         <v>631</v>
       </c>
-      <c r="B310" t="s">
-        <v>632</v>
-      </c>
       <c r="C310" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B311" t="s">
         <v>633</v>
       </c>
-      <c r="B311" t="s">
-        <v>72</v>
-      </c>
       <c r="C311" t="s">
-        <v>408</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6942,7 +6966,7 @@
         <v>635</v>
       </c>
       <c r="C312" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6953,40 +6977,40 @@
         <v>637</v>
       </c>
       <c r="C313" t="s">
-        <v>168</v>
+        <v>638</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B314" t="s">
+        <v>640</v>
+      </c>
+      <c r="C314" t="s">
         <v>638</v>
-      </c>
-      <c r="B314" t="s">
-        <v>639</v>
-      </c>
-      <c r="C314" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B315" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C315" t="s">
-        <v>168</v>
+        <v>380</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B316" t="s">
-        <v>643</v>
+        <v>72</v>
       </c>
       <c r="C316" t="s">
-        <v>149</v>
+        <v>417</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -7008,7 +7032,7 @@
         <v>647</v>
       </c>
       <c r="C318" t="s">
-        <v>628</v>
+        <v>405</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -7019,7 +7043,7 @@
         <v>649</v>
       </c>
       <c r="C319" t="s">
-        <v>628</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -7041,7 +7065,7 @@
         <v>653</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -7049,62 +7073,62 @@
         <v>654</v>
       </c>
       <c r="B322" t="s">
-        <v>47</v>
+        <v>655</v>
       </c>
       <c r="C322" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B323" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C323" t="s">
-        <v>168</v>
+        <v>638</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B324" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C324" t="s">
-        <v>168</v>
+        <v>638</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B325" t="s">
-        <v>47</v>
+        <v>661</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B326" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C326" t="s">
-        <v>628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B327" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -7112,32 +7136,32 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B328" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C328" t="s">
-        <v>628</v>
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B329" t="s">
-        <v>193</v>
+        <v>668</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B330" t="s">
-        <v>666</v>
+        <v>47</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -7145,101 +7169,101 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B331" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C331" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B332" t="s">
-        <v>670</v>
+        <v>193</v>
       </c>
       <c r="C332" t="s">
-        <v>628</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B333" t="s">
         <v>671</v>
       </c>
-      <c r="B333" t="s">
-        <v>672</v>
-      </c>
       <c r="C333" t="s">
-        <v>168</v>
+        <v>638</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B334" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C334" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B335" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B336" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C336" t="s">
-        <v>168</v>
+        <v>638</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B337" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C337" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B338" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C338" t="s">
-        <v>408</v>
+        <v>168</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B339" t="s">
-        <v>683</v>
+        <v>198</v>
       </c>
       <c r="C339" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -7250,7 +7274,7 @@
         <v>685</v>
       </c>
       <c r="C340" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -7261,7 +7285,7 @@
         <v>687</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -7269,51 +7293,51 @@
         <v>688</v>
       </c>
       <c r="B342" t="s">
-        <v>193</v>
+        <v>689</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>619</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B343" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B344" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C344" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B345" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C345" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B346" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -7321,13 +7345,13 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B347" t="s">
-        <v>698</v>
+        <v>193</v>
       </c>
       <c r="C347" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -7349,7 +7373,7 @@
         <v>702</v>
       </c>
       <c r="C349" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -7371,7 +7395,7 @@
         <v>706</v>
       </c>
       <c r="C351" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -7382,7 +7406,7 @@
         <v>708</v>
       </c>
       <c r="C352" t="s">
-        <v>408</v>
+        <v>181</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -7426,106 +7450,106 @@
         <v>716</v>
       </c>
       <c r="C356" t="s">
-        <v>717</v>
+        <v>168</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B357" t="s">
         <v>718</v>
       </c>
-      <c r="B357" t="s">
-        <v>719</v>
-      </c>
       <c r="C357" t="s">
-        <v>720</v>
+        <v>417</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B358" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C358" t="s">
-        <v>609</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B359" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C359" t="s">
-        <v>408</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B360" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C360" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B361" t="s">
+        <v>726</v>
+      </c>
+      <c r="C361" t="s">
         <v>727</v>
-      </c>
-      <c r="B361" t="s">
-        <v>728</v>
-      </c>
-      <c r="C361" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B362" t="s">
         <v>729</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>730</v>
-      </c>
-      <c r="C362" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B363" t="s">
         <v>732</v>
       </c>
-      <c r="B363" t="s">
-        <v>733</v>
-      </c>
       <c r="C363" t="s">
-        <v>161</v>
+        <v>619</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B364" t="s">
         <v>734</v>
       </c>
-      <c r="B364" t="s">
-        <v>735</v>
-      </c>
       <c r="C364" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B365" t="s">
         <v>736</v>
       </c>
-      <c r="B365" t="s">
-        <v>735</v>
-      </c>
       <c r="C365" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -7536,7 +7560,7 @@
         <v>738</v>
       </c>
       <c r="C366" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -7547,73 +7571,73 @@
         <v>740</v>
       </c>
       <c r="C367" t="s">
-        <v>491</v>
+        <v>741</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B368" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C368" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B369" t="s">
-        <v>170</v>
+        <v>745</v>
       </c>
       <c r="C369" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B370" t="s">
         <v>745</v>
       </c>
       <c r="C370" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B371" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C371" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B372" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C372" t="s">
-        <v>161</v>
+        <v>405</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B373" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C373" t="s">
-        <v>752</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7621,54 +7645,54 @@
         <v>753</v>
       </c>
       <c r="B374" t="s">
-        <v>754</v>
+        <v>170</v>
       </c>
       <c r="C374" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B375" t="s">
         <v>755</v>
       </c>
-      <c r="B375" t="s">
-        <v>756</v>
-      </c>
       <c r="C375" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B376" t="s">
         <v>757</v>
       </c>
-      <c r="B376" t="s">
-        <v>758</v>
-      </c>
       <c r="C376" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B377" t="s">
         <v>759</v>
       </c>
-      <c r="B377" t="s">
-        <v>760</v>
-      </c>
       <c r="C377" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B378" t="s">
         <v>761</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>762</v>
-      </c>
-      <c r="C378" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7679,7 +7703,7 @@
         <v>764</v>
       </c>
       <c r="C379" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7701,7 +7725,7 @@
         <v>768</v>
       </c>
       <c r="C381" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7712,7 +7736,7 @@
         <v>770</v>
       </c>
       <c r="C382" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -7723,7 +7747,7 @@
         <v>772</v>
       </c>
       <c r="C383" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7734,7 +7758,7 @@
         <v>774</v>
       </c>
       <c r="C384" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7745,7 +7769,7 @@
         <v>776</v>
       </c>
       <c r="C385" t="s">
-        <v>491</v>
+        <v>149</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7756,7 +7780,7 @@
         <v>778</v>
       </c>
       <c r="C386" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7767,7 +7791,7 @@
         <v>780</v>
       </c>
       <c r="C387" t="s">
-        <v>609</v>
+        <v>171</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7775,59 +7799,59 @@
         <v>781</v>
       </c>
       <c r="B388" t="s">
-        <v>170</v>
+        <v>782</v>
       </c>
       <c r="C388" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B389" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C389" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B390" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C390" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B391" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C391" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B392" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C392" t="s">
-        <v>168</v>
+        <v>619</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B393" t="s">
         <v>170</v>
@@ -7838,46 +7862,46 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B394" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C394" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B395" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C395" t="s">
-        <v>720</v>
+        <v>168</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B396" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C396" t="s">
-        <v>501</v>
+        <v>168</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B397" t="s">
-        <v>798</v>
+        <v>170</v>
       </c>
       <c r="C397" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7888,7 +7912,7 @@
         <v>800</v>
       </c>
       <c r="C398" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7899,7 +7923,7 @@
         <v>802</v>
       </c>
       <c r="C399" t="s">
-        <v>149</v>
+        <v>730</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7910,7 +7934,7 @@
         <v>804</v>
       </c>
       <c r="C400" t="s">
-        <v>5</v>
+        <v>511</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -7921,7 +7945,7 @@
         <v>806</v>
       </c>
       <c r="C401" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7932,7 +7956,7 @@
         <v>808</v>
       </c>
       <c r="C402" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7943,7 +7967,7 @@
         <v>810</v>
       </c>
       <c r="C403" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -7965,7 +7989,7 @@
         <v>814</v>
       </c>
       <c r="C405" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7984,7 +8008,7 @@
         <v>817</v>
       </c>
       <c r="B407" t="s">
-        <v>47</v>
+        <v>818</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7992,46 +8016,46 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B408" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C408" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B409" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C409" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B410" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C410" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B411" t="s">
-        <v>825</v>
+        <v>47</v>
       </c>
       <c r="C411" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -8042,7 +8066,7 @@
         <v>827</v>
       </c>
       <c r="C412" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8053,7 +8077,7 @@
         <v>829</v>
       </c>
       <c r="C413" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -8064,7 +8088,7 @@
         <v>831</v>
       </c>
       <c r="C414" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -8075,7 +8099,7 @@
         <v>833</v>
       </c>
       <c r="C415" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -8086,7 +8110,7 @@
         <v>835</v>
       </c>
       <c r="C416" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -8094,29 +8118,29 @@
         <v>836</v>
       </c>
       <c r="B417" t="s">
-        <v>47</v>
+        <v>837</v>
       </c>
       <c r="C417" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B418" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C418" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B419" t="s">
-        <v>47</v>
+        <v>841</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -8124,21 +8148,21 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B420" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C420" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B421" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -8146,32 +8170,32 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B422" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C422" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B423" t="s">
-        <v>846</v>
+        <v>47</v>
       </c>
       <c r="C423" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B424" t="s">
-        <v>193</v>
+        <v>849</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -8179,46 +8203,46 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B425" t="s">
-        <v>849</v>
+        <v>193</v>
       </c>
       <c r="C425" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B426" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C426" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B427" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C427" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B428" t="s">
-        <v>855</v>
+        <v>193</v>
       </c>
       <c r="C428" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -8229,7 +8253,7 @@
         <v>857</v>
       </c>
       <c r="C429" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -8237,98 +8261,98 @@
         <v>858</v>
       </c>
       <c r="B430" t="s">
-        <v>170</v>
+        <v>859</v>
       </c>
       <c r="C430" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B431" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C431" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B432" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C432" t="s">
-        <v>609</v>
+        <v>380</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B433" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C433" t="s">
-        <v>609</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B434" t="s">
-        <v>866</v>
+        <v>170</v>
       </c>
       <c r="C434" t="s">
-        <v>867</v>
+        <v>171</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B435" t="s">
         <v>868</v>
       </c>
-      <c r="B435" t="s">
-        <v>869</v>
-      </c>
       <c r="C435" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B436" t="s">
         <v>870</v>
       </c>
-      <c r="B436" t="s">
-        <v>871</v>
-      </c>
       <c r="C436" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B437" t="s">
         <v>872</v>
       </c>
-      <c r="B437" t="s">
-        <v>873</v>
-      </c>
       <c r="C437" t="s">
-        <v>10</v>
+        <v>619</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B438" t="s">
         <v>874</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C438" t="s">
         <v>875</v>
-      </c>
-      <c r="C438" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -8339,7 +8363,7 @@
         <v>877</v>
       </c>
       <c r="C439" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -8350,7 +8374,7 @@
         <v>879</v>
       </c>
       <c r="C440" t="s">
-        <v>5</v>
+        <v>619</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -8361,7 +8385,7 @@
         <v>881</v>
       </c>
       <c r="C441" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -8372,7 +8396,7 @@
         <v>883</v>
       </c>
       <c r="C442" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -8383,7 +8407,7 @@
         <v>885</v>
       </c>
       <c r="C443" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -8394,7 +8418,7 @@
         <v>887</v>
       </c>
       <c r="C444" t="s">
-        <v>408</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -8427,7 +8451,7 @@
         <v>893</v>
       </c>
       <c r="C447" t="s">
-        <v>609</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -8438,7 +8462,7 @@
         <v>895</v>
       </c>
       <c r="C448" t="s">
-        <v>720</v>
+        <v>417</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -8449,51 +8473,51 @@
         <v>897</v>
       </c>
       <c r="C449" t="s">
-        <v>898</v>
+        <v>5</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B450" t="s">
         <v>899</v>
       </c>
-      <c r="B450" t="s">
-        <v>900</v>
-      </c>
       <c r="C450" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B451" t="s">
         <v>901</v>
       </c>
-      <c r="B451" t="s">
-        <v>902</v>
-      </c>
       <c r="C451" t="s">
-        <v>168</v>
+        <v>619</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B452" t="s">
         <v>903</v>
       </c>
-      <c r="B452" t="s">
-        <v>904</v>
-      </c>
       <c r="C452" t="s">
-        <v>168</v>
+        <v>730</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B453" t="s">
         <v>905</v>
       </c>
-      <c r="B453" t="s">
+      <c r="C453" t="s">
         <v>906</v>
-      </c>
-      <c r="C453" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -8504,7 +8528,7 @@
         <v>908</v>
       </c>
       <c r="C454" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -8515,62 +8539,62 @@
         <v>910</v>
       </c>
       <c r="C455" t="s">
-        <v>911</v>
+        <v>168</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B456" t="s">
         <v>912</v>
       </c>
-      <c r="B456" t="s">
-        <v>913</v>
-      </c>
       <c r="C456" t="s">
-        <v>914</v>
+        <v>168</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B457" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C457" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B458" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C458" t="s">
-        <v>491</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B459" t="s">
+        <v>918</v>
+      </c>
+      <c r="C459" t="s">
         <v>919</v>
-      </c>
-      <c r="B459" t="s">
-        <v>920</v>
-      </c>
-      <c r="C459" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B460" t="s">
         <v>921</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>922</v>
-      </c>
-      <c r="C460" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -8592,7 +8616,7 @@
         <v>926</v>
       </c>
       <c r="C462" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8600,7 +8624,7 @@
         <v>927</v>
       </c>
       <c r="B463" t="s">
-        <v>47</v>
+        <v>928</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8608,10 +8632,10 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B464" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8619,79 +8643,79 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B465" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C465" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B466" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C466" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B467" t="s">
-        <v>935</v>
+        <v>47</v>
       </c>
       <c r="C467" t="s">
-        <v>936</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B468" t="s">
         <v>937</v>
       </c>
-      <c r="B468" t="s">
-        <v>938</v>
-      </c>
       <c r="C468" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B469" t="s">
         <v>939</v>
       </c>
-      <c r="B469" t="s">
-        <v>940</v>
-      </c>
       <c r="C469" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B470" t="s">
         <v>941</v>
       </c>
-      <c r="B470" t="s">
-        <v>942</v>
-      </c>
       <c r="C470" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B471" t="s">
         <v>943</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>944</v>
-      </c>
-      <c r="C471" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8702,37 +8726,37 @@
         <v>946</v>
       </c>
       <c r="C472" t="s">
-        <v>947</v>
+        <v>168</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B473" t="s">
         <v>948</v>
       </c>
-      <c r="B473" t="s">
-        <v>949</v>
-      </c>
       <c r="C473" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B474" t="s">
         <v>950</v>
       </c>
-      <c r="B474" t="s">
-        <v>951</v>
-      </c>
       <c r="C474" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B475" t="s">
         <v>952</v>
-      </c>
-      <c r="B475" t="s">
-        <v>953</v>
       </c>
       <c r="C475" t="s">
         <v>168</v>
@@ -8740,13 +8764,13 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B476" t="s">
         <v>954</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>955</v>
-      </c>
-      <c r="C476" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8757,7 +8781,7 @@
         <v>957</v>
       </c>
       <c r="C477" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8790,7 +8814,7 @@
         <v>963</v>
       </c>
       <c r="C480" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8801,7 +8825,7 @@
         <v>965</v>
       </c>
       <c r="C481" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -8812,7 +8836,7 @@
         <v>967</v>
       </c>
       <c r="C482" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8823,7 +8847,7 @@
         <v>969</v>
       </c>
       <c r="C483" t="s">
-        <v>491</v>
+        <v>168</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8845,7 +8869,7 @@
         <v>973</v>
       </c>
       <c r="C485" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -8856,7 +8880,7 @@
         <v>975</v>
       </c>
       <c r="C486" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8867,7 +8891,7 @@
         <v>977</v>
       </c>
       <c r="C487" t="s">
-        <v>161</v>
+        <v>405</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8878,7 +8902,7 @@
         <v>979</v>
       </c>
       <c r="C488" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8889,7 +8913,7 @@
         <v>981</v>
       </c>
       <c r="C489" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -8900,7 +8924,7 @@
         <v>983</v>
       </c>
       <c r="C490" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8911,7 +8935,7 @@
         <v>985</v>
       </c>
       <c r="C491" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8919,40 +8943,40 @@
         <v>986</v>
       </c>
       <c r="B492" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C492" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B493" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C493" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B494" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C494" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B495" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8960,10 +8984,10 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B496" t="s">
         <v>993</v>
-      </c>
-      <c r="B496" t="s">
-        <v>994</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8977,7 +9001,7 @@
         <v>996</v>
       </c>
       <c r="C497" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8988,7 +9012,7 @@
         <v>998</v>
       </c>
       <c r="C498" t="s">
-        <v>374</v>
+        <v>158</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8999,7 +9023,7 @@
         <v>1000</v>
       </c>
       <c r="C499" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9010,7 +9034,7 @@
         <v>1002</v>
       </c>
       <c r="C500" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9021,7 +9045,7 @@
         <v>1004</v>
       </c>
       <c r="C501" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9032,7 +9056,7 @@
         <v>1006</v>
       </c>
       <c r="C502" t="s">
-        <v>168</v>
+        <v>380</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9043,7 +9067,7 @@
         <v>1008</v>
       </c>
       <c r="C503" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9054,7 +9078,7 @@
         <v>1010</v>
       </c>
       <c r="C504" t="s">
-        <v>491</v>
+        <v>168</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9065,7 +9089,7 @@
         <v>1012</v>
       </c>
       <c r="C505" t="s">
-        <v>491</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9076,7 +9100,7 @@
         <v>1014</v>
       </c>
       <c r="C506" t="s">
-        <v>491</v>
+        <v>168</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9087,7 +9111,7 @@
         <v>1016</v>
       </c>
       <c r="C507" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9098,7 +9122,7 @@
         <v>1018</v>
       </c>
       <c r="C508" t="s">
-        <v>720</v>
+        <v>405</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9106,51 +9130,51 @@
         <v>1019</v>
       </c>
       <c r="B509" t="s">
-        <v>193</v>
+        <v>1020</v>
       </c>
       <c r="C509" t="s">
-        <v>5</v>
+        <v>405</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B510" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C510" t="s">
-        <v>5</v>
+        <v>405</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B511" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C511" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B512" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C512" t="s">
-        <v>168</v>
+        <v>730</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B513" t="s">
-        <v>1027</v>
+        <v>193</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -9175,7 +9199,7 @@
         <v>1031</v>
       </c>
       <c r="C515" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -9186,7 +9210,7 @@
         <v>1033</v>
       </c>
       <c r="C516" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9197,7 +9221,7 @@
         <v>1035</v>
       </c>
       <c r="C517" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -9219,7 +9243,7 @@
         <v>1039</v>
       </c>
       <c r="C519" t="s">
-        <v>275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -9230,11 +9254,55 @@
         <v>1041</v>
       </c>
       <c r="C520" t="s">
-        <v>720</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C521" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C523" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C524" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C521"/>
+  <autoFilter ref="C1:C525"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
@@ -9415,10 +9483,10 @@
     <hyperlink ref="A178" r:id="rId177"/>
     <hyperlink ref="A179" r:id="rId178"/>
     <hyperlink ref="A180" r:id="rId179"/>
-    <hyperlink ref="A181" r:id="rId180" location="containers"/>
+    <hyperlink ref="A181" r:id="rId180"/>
     <hyperlink ref="A182" r:id="rId181"/>
     <hyperlink ref="A183" r:id="rId182"/>
-    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A184" r:id="rId183" location="containers"/>
     <hyperlink ref="A185" r:id="rId184"/>
     <hyperlink ref="A186" r:id="rId185"/>
     <hyperlink ref="A187" r:id="rId186"/>
@@ -9432,7 +9500,7 @@
     <hyperlink ref="A195" r:id="rId194"/>
     <hyperlink ref="A196" r:id="rId195"/>
     <hyperlink ref="A197" r:id="rId196"/>
-    <hyperlink ref="A198" r:id="rId197" location="containers"/>
+    <hyperlink ref="A198" r:id="rId197"/>
     <hyperlink ref="A199" r:id="rId198"/>
     <hyperlink ref="A200" r:id="rId199"/>
     <hyperlink ref="A201" r:id="rId200"/>
@@ -9440,23 +9508,23 @@
     <hyperlink ref="A203" r:id="rId202"/>
     <hyperlink ref="A204" r:id="rId203"/>
     <hyperlink ref="A205" r:id="rId204"/>
-    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A206" r:id="rId205" location="containers"/>
     <hyperlink ref="A207" r:id="rId206"/>
     <hyperlink ref="A208" r:id="rId207"/>
     <hyperlink ref="A209" r:id="rId208"/>
-    <hyperlink ref="A210" r:id="rId209" location="containers"/>
+    <hyperlink ref="A210" r:id="rId209"/>
     <hyperlink ref="A211" r:id="rId210"/>
-    <hyperlink ref="A212" r:id="rId211" location="/esa-api-gateway/README.md"/>
+    <hyperlink ref="A212" r:id="rId211"/>
     <hyperlink ref="A213" r:id="rId212"/>
     <hyperlink ref="A214" r:id="rId213"/>
-    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A215" r:id="rId214" location="containers"/>
     <hyperlink ref="A216" r:id="rId215"/>
-    <hyperlink ref="A217" r:id="rId216" location="/esa-solution-server/README.md"/>
+    <hyperlink ref="A217" r:id="rId216" location="/esa-api-gateway/README.md"/>
     <hyperlink ref="A218" r:id="rId217"/>
     <hyperlink ref="A219" r:id="rId218"/>
     <hyperlink ref="A220" r:id="rId219"/>
     <hyperlink ref="A221" r:id="rId220"/>
-    <hyperlink ref="A222" r:id="rId221"/>
+    <hyperlink ref="A222" r:id="rId221" location="/esa-solution-server/README.md"/>
     <hyperlink ref="A223" r:id="rId222"/>
     <hyperlink ref="A224" r:id="rId223"/>
     <hyperlink ref="A225" r:id="rId224"/>
@@ -9467,15 +9535,15 @@
     <hyperlink ref="A230" r:id="rId229"/>
     <hyperlink ref="A231" r:id="rId230"/>
     <hyperlink ref="A232" r:id="rId231"/>
-    <hyperlink ref="A233" r:id="rId232" location="java-and-scala"/>
-    <hyperlink ref="A234" r:id="rId233" location="java-and-scala"/>
+    <hyperlink ref="A233" r:id="rId232"/>
+    <hyperlink ref="A234" r:id="rId233"/>
     <hyperlink ref="A235" r:id="rId234"/>
-    <hyperlink ref="A236" r:id="rId235" location="containers"/>
+    <hyperlink ref="A236" r:id="rId235"/>
     <hyperlink ref="A237" r:id="rId236"/>
-    <hyperlink ref="A238" r:id="rId237"/>
-    <hyperlink ref="A239" r:id="rId238"/>
+    <hyperlink ref="A238" r:id="rId237" location="java-and-scala"/>
+    <hyperlink ref="A239" r:id="rId238" location="java-and-scala"/>
     <hyperlink ref="A240" r:id="rId239"/>
-    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A241" r:id="rId240" location="containers"/>
     <hyperlink ref="A242" r:id="rId241"/>
     <hyperlink ref="A243" r:id="rId242"/>
     <hyperlink ref="A244" r:id="rId243"/>
@@ -9484,12 +9552,12 @@
     <hyperlink ref="A247" r:id="rId246"/>
     <hyperlink ref="A248" r:id="rId247"/>
     <hyperlink ref="A249" r:id="rId248"/>
-    <hyperlink ref="A250" r:id="rId249" location="real-user-monitoring"/>
+    <hyperlink ref="A250" r:id="rId249"/>
     <hyperlink ref="A251" r:id="rId250"/>
     <hyperlink ref="A252" r:id="rId251"/>
     <hyperlink ref="A253" r:id="rId252"/>
     <hyperlink ref="A254" r:id="rId253"/>
-    <hyperlink ref="A255" r:id="rId254"/>
+    <hyperlink ref="A255" r:id="rId254" location="real-user-monitoring"/>
     <hyperlink ref="A256" r:id="rId255"/>
     <hyperlink ref="A257" r:id="rId256"/>
     <hyperlink ref="A258" r:id="rId257"/>
@@ -9530,12 +9598,12 @@
     <hyperlink ref="A293" r:id="rId292"/>
     <hyperlink ref="A294" r:id="rId293"/>
     <hyperlink ref="A295" r:id="rId294"/>
-    <hyperlink ref="A296" r:id="rId295" location="enhanced-insights-for-hdfs"/>
+    <hyperlink ref="A296" r:id="rId295"/>
     <hyperlink ref="A297" r:id="rId296"/>
     <hyperlink ref="A298" r:id="rId297"/>
     <hyperlink ref="A299" r:id="rId298"/>
     <hyperlink ref="A300" r:id="rId299"/>
-    <hyperlink ref="A301" r:id="rId300"/>
+    <hyperlink ref="A301" r:id="rId300" location="enhanced-insights-for-hdfs"/>
     <hyperlink ref="A302" r:id="rId301"/>
     <hyperlink ref="A303" r:id="rId302"/>
     <hyperlink ref="A304" r:id="rId303"/>
@@ -9548,12 +9616,12 @@
     <hyperlink ref="A311" r:id="rId310"/>
     <hyperlink ref="A312" r:id="rId311"/>
     <hyperlink ref="A313" r:id="rId312"/>
-    <hyperlink ref="A314" r:id="rId313" location="ibm-zos"/>
+    <hyperlink ref="A314" r:id="rId313"/>
     <hyperlink ref="A315" r:id="rId314"/>
     <hyperlink ref="A316" r:id="rId315"/>
     <hyperlink ref="A317" r:id="rId316"/>
     <hyperlink ref="A318" r:id="rId317"/>
-    <hyperlink ref="A319" r:id="rId318"/>
+    <hyperlink ref="A319" r:id="rId318" location="ibm-zos"/>
     <hyperlink ref="A320" r:id="rId319"/>
     <hyperlink ref="A321" r:id="rId320"/>
     <hyperlink ref="A322" r:id="rId321"/>
@@ -9568,12 +9636,12 @@
     <hyperlink ref="A331" r:id="rId330"/>
     <hyperlink ref="A332" r:id="rId331"/>
     <hyperlink ref="A333" r:id="rId332"/>
-    <hyperlink ref="A334" r:id="rId333" location="real-user-monitoring"/>
+    <hyperlink ref="A334" r:id="rId333"/>
     <hyperlink ref="A335" r:id="rId334"/>
     <hyperlink ref="A336" r:id="rId335"/>
     <hyperlink ref="A337" r:id="rId336"/>
     <hyperlink ref="A338" r:id="rId337"/>
-    <hyperlink ref="A339" r:id="rId338"/>
+    <hyperlink ref="A339" r:id="rId338" location="real-user-monitoring"/>
     <hyperlink ref="A340" r:id="rId339"/>
     <hyperlink ref="A341" r:id="rId340"/>
     <hyperlink ref="A342" r:id="rId341"/>
@@ -9609,26 +9677,26 @@
     <hyperlink ref="A372" r:id="rId371"/>
     <hyperlink ref="A373" r:id="rId372"/>
     <hyperlink ref="A374" r:id="rId373"/>
-    <hyperlink ref="A375" r:id="rId374" location="real-user-monitoring"/>
+    <hyperlink ref="A375" r:id="rId374"/>
     <hyperlink ref="A376" r:id="rId375"/>
     <hyperlink ref="A377" r:id="rId376"/>
     <hyperlink ref="A378" r:id="rId377"/>
     <hyperlink ref="A379" r:id="rId378"/>
     <hyperlink ref="A380" r:id="rId379" location="real-user-monitoring"/>
     <hyperlink ref="A381" r:id="rId380"/>
-    <hyperlink ref="A382" r:id="rId381" location="expand-2438example-add-new-endpoint-page"/>
+    <hyperlink ref="A382" r:id="rId381"/>
     <hyperlink ref="A383" r:id="rId382"/>
     <hyperlink ref="A384" r:id="rId383"/>
-    <hyperlink ref="A385" r:id="rId384"/>
+    <hyperlink ref="A385" r:id="rId384" location="real-user-monitoring"/>
     <hyperlink ref="A386" r:id="rId385"/>
-    <hyperlink ref="A387" r:id="rId386"/>
+    <hyperlink ref="A387" r:id="rId386" location="expand-2438example-add-new-endpoint-page"/>
     <hyperlink ref="A388" r:id="rId387"/>
-    <hyperlink ref="A389" r:id="rId388" location="real-user-monitoring"/>
+    <hyperlink ref="A389" r:id="rId388"/>
     <hyperlink ref="A390" r:id="rId389"/>
     <hyperlink ref="A391" r:id="rId390"/>
     <hyperlink ref="A392" r:id="rId391"/>
     <hyperlink ref="A393" r:id="rId392"/>
-    <hyperlink ref="A394" r:id="rId393"/>
+    <hyperlink ref="A394" r:id="rId393" location="real-user-monitoring"/>
     <hyperlink ref="A395" r:id="rId394"/>
     <hyperlink ref="A396" r:id="rId395"/>
     <hyperlink ref="A397" r:id="rId396"/>
@@ -9647,11 +9715,11 @@
     <hyperlink ref="A410" r:id="rId409"/>
     <hyperlink ref="A411" r:id="rId410"/>
     <hyperlink ref="A412" r:id="rId411"/>
-    <hyperlink ref="A413" r:id="rId412" location="real-user-monitoring"/>
+    <hyperlink ref="A413" r:id="rId412"/>
     <hyperlink ref="A414" r:id="rId413"/>
     <hyperlink ref="A415" r:id="rId414"/>
     <hyperlink ref="A416" r:id="rId415"/>
-    <hyperlink ref="A417" r:id="rId416"/>
+    <hyperlink ref="A417" r:id="rId416" location="real-user-monitoring"/>
     <hyperlink ref="A418" r:id="rId417"/>
     <hyperlink ref="A419" r:id="rId418"/>
     <hyperlink ref="A420" r:id="rId419"/>
@@ -9753,8 +9821,12 @@
     <hyperlink ref="A516" r:id="rId515"/>
     <hyperlink ref="A517" r:id="rId516"/>
     <hyperlink ref="A518" r:id="rId517"/>
-    <hyperlink ref="A519" r:id="rId518" location="cshid=Dynatrace"/>
+    <hyperlink ref="A519" r:id="rId518"/>
     <hyperlink ref="A520" r:id="rId519"/>
+    <hyperlink ref="A521" r:id="rId520"/>
+    <hyperlink ref="A522" r:id="rId521"/>
+    <hyperlink ref="A523" r:id="rId522" location="cshid=Dynatrace"/>
+    <hyperlink ref="A524" r:id="rId523"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/HubSummaryFromAPI.xlsx
+++ b/docs/HubSummaryFromAPI.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Hub Summary from API" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary from API'!$A$1:$D$526</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary from API'!$A$1:$D$536</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1069">
   <si>
     <t>Technology</t>
   </si>
@@ -46,451 +46,451 @@
     <t>Install ActiveGate(s) for specific use cases: executing synthetics on the local network, running ActiveGate extensions or routing agent traffic more effectively.</t>
   </si>
   <si>
-    <t>ActiveMQ</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent observability for ActiveMQ with end-to-end traces of connected producers and consumers.</t>
+    <t>Adobe PhoneGap</t>
+  </si>
+  <si>
+    <t>Monitor hybrid mobile apps built with Adobe PhoneGap running on iOS or Android.</t>
+  </si>
+  <si>
+    <t>Install OneAgent on web/application servers and configure mobile RUM.</t>
+  </si>
+  <si>
+    <t>Akka</t>
+  </si>
+  <si>
+    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Akka.</t>
   </si>
   <si>
     <t>Install the OneAgent.</t>
   </si>
   <si>
-    <t>ActiveMQ Artemis</t>
+    <t>Amazon API Gateway</t>
+  </si>
+  <si>
+    <t>Service for developers to create, publish, maintain, monitor, and secure APIs.</t>
+  </si>
+  <si>
+    <t>Perform AWS Integration and add this service to monitoring.</t>
+  </si>
+  <si>
+    <t>Amazon AppStream 2.0</t>
+  </si>
+  <si>
+    <t>Fully managed application streaming service that provides users with instant access to their desktop applications from anywhere.</t>
+  </si>
+  <si>
+    <t>Amazon Athena</t>
+  </si>
+  <si>
+    <t>Interactive query service that makes it easy to analyze data directly in Amazon S3 using standard SQL.</t>
+  </si>
+  <si>
+    <t>Amazon Aurora</t>
+  </si>
+  <si>
+    <t>Relational database service developed and offered by Amazon Web Services.</t>
+  </si>
+  <si>
+    <t>Amazon CloudFront</t>
+  </si>
+  <si>
+    <t>Content delivery network offered by Amazon Web Services.</t>
+  </si>
+  <si>
+    <t>Amazon CloudSearch</t>
+  </si>
+  <si>
+    <t>Set up, manage, and scale a search solution for your website or application using CloudSearch.</t>
+  </si>
+  <si>
+    <t>Amazon Cloudwatch</t>
+  </si>
+  <si>
+    <t>Monitoring service for AWS cloud resources and the applications you run on AWS.</t>
+  </si>
+  <si>
+    <t>Amazon CloudWatch Logs</t>
+  </si>
+  <si>
+    <t>Monitor, store, and access your log files from instances, AWS CloudTrail, Route 53, and other sources.</t>
+  </si>
+  <si>
+    <t>Amazon Cognito</t>
+  </si>
+  <si>
+    <t>Add user sign-up, sign-in, and access control to your web and mobile apps quickly and easily.</t>
+  </si>
+  <si>
+    <t>Amazon Connect</t>
+  </si>
+  <si>
+    <t>Easy to use omnichannel cloud contact center that helps you to provide superior customer service at a lower cost.</t>
+  </si>
+  <si>
+    <t>Amazon Corretto</t>
+  </si>
+  <si>
+    <t>Automatically and intelligently monitor, analyze, and optimize the performance of your virtual machine.</t>
+  </si>
+  <si>
+    <t>Amazon DocumentDB</t>
+  </si>
+  <si>
+    <t>Amazon DocumentDB (with MongoDB compatibility) is a fast, reliable, and fully managed database service.</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB</t>
+  </si>
+  <si>
+    <t>Fully managed NoSQL database service that supports key-value and document data structures.</t>
+  </si>
+  <si>
+    <t>Perform AWS Integration.</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB Accelerator (DAX)</t>
+  </si>
+  <si>
+    <t>Fully managed, highly available, in-memory cache for your Amazon DynamoDB.</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web service that provides secure, resizable compute capacity in the cloud. </t>
+  </si>
+  <si>
+    <t>Perform AWS Integration and install a OneAgent on the EC2 instance, typically with "User Data".</t>
+  </si>
+  <si>
+    <t>Amazon EC2 Auto Scaling</t>
+  </si>
+  <si>
+    <t>Amazon EC2 Auto Scaling helps you ensure that you have the correct number of Amazon EC2 instances available.</t>
+  </si>
+  <si>
+    <t>Perform AWS Integration and add this service to monitoring. Install a OneAgent on the EC2 instance, typically with "User Data".</t>
+  </si>
+  <si>
+    <t>Amazon EC2 Spot Fleet</t>
+  </si>
+  <si>
+    <t>Spot Instances and On-Demand Instances to meet the target capacity that you specified.</t>
+  </si>
+  <si>
+    <t>Amazon ElastiCache</t>
+  </si>
+  <si>
+    <t>Fully managed, Redis- and Memcached-compatible service delivering real-time performance for modern applications by Amazon Web Services.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Block Store (EBS)</t>
+  </si>
+  <si>
+    <t>Raw block-level storage that can be attached to Amazon EC2 instances.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Container Service (ECS)</t>
+  </si>
+  <si>
+    <t>Fully managed container orchestration service.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic File Service (EFS)</t>
+  </si>
+  <si>
+    <t>Cloud storage service provided by Amazon Web Services.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Inference</t>
+  </si>
+  <si>
+    <t>Accelerate deep learning inference workloads by attaching to your Amazon EC2 CPU instances.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Kubernetes Service (EKS)</t>
+  </si>
+  <si>
+    <t>Harness automation and AI to simplify Kubernetes observability at scale.</t>
+  </si>
+  <si>
+    <t>Amazon Elasticsearch Service</t>
+  </si>
+  <si>
+    <t>Fully managed service to deploy, secure, and run Elasticsearch cost effectively at scale, without the operational overhead.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Transcoder</t>
+  </si>
+  <si>
+    <t>Convert and transcode media files stored in Amazon S3.</t>
+  </si>
+  <si>
+    <t>Amazon EMR</t>
+  </si>
+  <si>
+    <t>Cloud big data platform for processing vast amounts of data using open source tools.</t>
+  </si>
+  <si>
+    <t>Amazon EventBridge</t>
+  </si>
+  <si>
+    <t>Serverless event bus to connect applications together using data from your own applications, integrated SaaS applications, and AWS services.</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Lustre</t>
+  </si>
+  <si>
+    <t>Makes it easy and cost-effective to launch and run the popular, high-performance Lustre file system.</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Windows File Server</t>
+  </si>
+  <si>
+    <t>Provides a managed Microsoft Windows file servers, backed by a native Windows file system.</t>
+  </si>
+  <si>
+    <t>Amazon GameLift</t>
+  </si>
+  <si>
+    <t>Enables developers to deploy, operate, and scale dedicated, low-cost servers in the cloud for session-based, multiplayer games.</t>
+  </si>
+  <si>
+    <t>Amazon Inspector</t>
+  </si>
+  <si>
+    <t>Tests the network accessibility of your EC2 instances and the security state of your applications that run on those instances.</t>
+  </si>
+  <si>
+    <t>Amazon Keyspaces for Apache Cassandra</t>
+  </si>
+  <si>
+    <t>Scalable, highly available, and managed Apache Cassandra–compatible database service.</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis Data Analytics</t>
+  </si>
+  <si>
+    <t>Transform and analyze streaming data in real time with open source framework and engine for processing data streams (Apache Flink).</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis Data Firehose</t>
+  </si>
+  <si>
+    <t>Fully managed service for delivering real-time streaming data.</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis Data Streams</t>
+  </si>
+  <si>
+    <t>Collect log and event data from sources such as servers, desktops, and mobile devices.</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis Video Streams</t>
+  </si>
+  <si>
+    <t>Provides you SDKs to install on your devices to make it easy to stream media.</t>
+  </si>
+  <si>
+    <t>Amazon Lex</t>
+  </si>
+  <si>
+    <t>Service for building conversational interfaces for applications using voice and text.</t>
+  </si>
+  <si>
+    <t>Amazon Managed Service for Prometheus</t>
+  </si>
+  <si>
+    <t>Ingest metrics from Amazon Managed Prometheus to Dynatrace.</t>
+  </si>
+  <si>
+    <t>Amazon MQ</t>
+  </si>
+  <si>
+    <t>Managed message broker service for Apache ActiveMQ that makes it easy to migrate to a message broker in the cloud.</t>
+  </si>
+  <si>
+    <t>Amazon MSK</t>
+  </si>
+  <si>
+    <t>Fully managed service that enables you to build and run applications that use Apache Kafka to process streaming data.</t>
+  </si>
+  <si>
+    <t>Amazon Neptune</t>
+  </si>
+  <si>
+    <t>Fast, reliable, fully managed graph database built for highly connected datasets.</t>
+  </si>
+  <si>
+    <t>Amazon Polly</t>
+  </si>
+  <si>
+    <t>Cloud service that converts text into lifelike speech.</t>
+  </si>
+  <si>
+    <t>Amazon Quantum Ledger Database (QLDB)</t>
+  </si>
+  <si>
+    <t>Ledger by a central trusted authority that provides an immutable, and cryptographically verifiable transaction log.</t>
+  </si>
+  <si>
+    <t>Amazon Redshift</t>
+  </si>
+  <si>
+    <t>Data warehouse product which forms part of the larger cloud-computing platform AWS.</t>
+  </si>
+  <si>
+    <t>Amazon Rekognition</t>
+  </si>
+  <si>
+    <t>Amazon Rekognition makes it easy to add image and video analysis to your applications.</t>
+  </si>
+  <si>
+    <t>Amazon Relational Database Service (RDS)</t>
+  </si>
+  <si>
+    <t>Cloud web service designed to simplify the setup, operation, and scaling of a relational database.</t>
+  </si>
+  <si>
+    <t>Amazon Route 53</t>
+  </si>
+  <si>
+    <t>Effectively connects user requests to infrastructure running in AWS.</t>
+  </si>
+  <si>
+    <t>Amazon S3</t>
+  </si>
+  <si>
+    <t>Provides object storage through a web service interface.</t>
+  </si>
+  <si>
+    <t>Amazon SageMaker</t>
+  </si>
+  <si>
+    <t>Build, train, and deploy machine learning (ML) models quickly.</t>
+  </si>
+  <si>
+    <t>Amazon Simple Email Service (SES)</t>
+  </si>
+  <si>
+    <t>Cloud-based service that helps developers send marketing, notification, and transactional emails.</t>
+  </si>
+  <si>
+    <t>Amazon Simple Notification Service (SNS)</t>
+  </si>
+  <si>
+    <t>Provides a simple web services interface that can be used to create topics you want to notify apps.</t>
+  </si>
+  <si>
+    <t>Amazon Simple Queue Service (SQS)</t>
+  </si>
+  <si>
+    <t>Programmatic sending of messages via web service applications.</t>
+  </si>
+  <si>
+    <t>Amazon Simple Workflow Service (SWF)</t>
+  </si>
+  <si>
+    <t>Makes it easy to build applications that coordinate work across distributed components.</t>
+  </si>
+  <si>
+    <t>Amazon Textract</t>
+  </si>
+  <si>
+    <t>Makes it easy to add document text detection and analysis to your applications.</t>
+  </si>
+  <si>
+    <t>Amazon Transfer Family</t>
+  </si>
+  <si>
+    <t>Provides fully managed support for file transfers directly into and out of Amazon S3 using SFTP, FTPS, and FTP.</t>
+  </si>
+  <si>
+    <t>Amazon Translate</t>
+  </si>
+  <si>
+    <t>Text translation service using machine learning to provide high-quality translation on demand.</t>
+  </si>
+  <si>
+    <t>Amazon VPC (NAT Gateway)</t>
+  </si>
+  <si>
+    <t>Connect to the Internet from instances within a private subnet in an AWS Virtual Private Cloud.</t>
+  </si>
+  <si>
+    <t>Amazon WorkMail</t>
+  </si>
+  <si>
+    <t>Secure, managed business email and calendaring service with support for existing desktop and mobile email clients.</t>
+  </si>
+  <si>
+    <t>Amazon WorkSpaces</t>
+  </si>
+  <si>
+    <t>Enables you to provision virtual, cloud-based Microsoft Windows or Amazon Linux desktops, known as WorkSpaces.</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Accelerated Mobile Pages performance monitoring to ensure perfect user experience.</t>
+  </si>
+  <si>
+    <t>Install OneAgent on web/application servers and configure RUM.</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Monitor mobile applications that are running on the popular Android operating system.</t>
+  </si>
+  <si>
+    <t>Android Webkit</t>
+  </si>
+  <si>
+    <t>Provides tools for browsing the web.</t>
+  </si>
+  <si>
+    <t>AngularJS</t>
+  </si>
+  <si>
+    <t>JavaScript-based open-source front-end web framework mainly maintained by Google.</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>The simplest way to automate apps and IT infrastructure.</t>
+  </si>
+  <si>
+    <t>See Hub link for more details.</t>
+  </si>
+  <si>
+    <t>Ansible Tower</t>
+  </si>
+  <si>
+    <t>Way to automate apps and IT infrastructure.</t>
+  </si>
+  <si>
+    <t>Configure problem notification integration under Settings &gt; Integration &gt; Problem notifications.</t>
+  </si>
+  <si>
+    <t>Anypoint MQ</t>
+  </si>
+  <si>
+    <t>Gather metrics about your Anypoint MQ Queues</t>
+  </si>
+  <si>
+    <t>Apache ActiveMQ Artemis</t>
   </si>
   <si>
     <t>Automatic and intelligent observability for ActiveMQ Artemis with end-to-end traces of connected producers and consumers.</t>
   </si>
   <si>
-    <t>Adobe PhoneGap</t>
-  </si>
-  <si>
-    <t>Monitor hybrid mobile apps built with Adobe PhoneGap running on iOS or Android</t>
-  </si>
-  <si>
-    <t>Install OneAgent on web/application servers and configure mobile RUM.</t>
-  </si>
-  <si>
-    <t>ADO.NET</t>
-  </si>
-  <si>
-    <t>Solve ADO.NET performance problems at code level.</t>
-  </si>
-  <si>
-    <t>Akka</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Akka.</t>
-  </si>
-  <si>
-    <t>Amazon API Gateway</t>
-  </si>
-  <si>
-    <t>Service for developers to create, publish, maintain, monitor, and secure APIs.</t>
-  </si>
-  <si>
-    <t>Perform AWS Integration and add this service to monitoring.</t>
-  </si>
-  <si>
-    <t>Amazon AppStream 2.0</t>
-  </si>
-  <si>
-    <t>Fully managed application streaming service that provides users with instant access to their desktop applications from anywhere.</t>
-  </si>
-  <si>
-    <t>Amazon Athena</t>
-  </si>
-  <si>
-    <t>Interactive query service that makes it easy to analyze data directly in Amazon S3 using standard SQL.</t>
-  </si>
-  <si>
-    <t>Amazon Aurora</t>
-  </si>
-  <si>
-    <t>Relational database service developed and offered by Amazon Web Services.</t>
-  </si>
-  <si>
-    <t>Amazon CloudFront</t>
-  </si>
-  <si>
-    <t>Content delivery network offered by Amazon Web Services.</t>
-  </si>
-  <si>
-    <t>Amazon CloudSearch</t>
-  </si>
-  <si>
-    <t>Set up, manage, and scale a search solution for your website or application using CloudSearch.</t>
-  </si>
-  <si>
-    <t>Amazon Cloudwatch</t>
-  </si>
-  <si>
-    <t>Monitoring service for AWS cloud resources and the applications you run on AWS.</t>
-  </si>
-  <si>
-    <t>Amazon CloudWatch Logs</t>
-  </si>
-  <si>
-    <t>Monitor, store, and access your log files from instances, AWS CloudTrail, Route 53, and other sources.</t>
-  </si>
-  <si>
-    <t>Amazon Cognito</t>
-  </si>
-  <si>
-    <t>Add user sign-up, sign-in, and access control to your web and mobile apps quickly and easily.</t>
-  </si>
-  <si>
-    <t>Amazon Connect</t>
-  </si>
-  <si>
-    <t>Easy to use omnichannel cloud contact center that helps you to provide superior customer service at a lower cost.</t>
-  </si>
-  <si>
-    <t>Amazon Corretto</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize the performance of your virtual machine.</t>
-  </si>
-  <si>
-    <t>Amazon DocumentDB</t>
-  </si>
-  <si>
-    <t>Amazon DocumentDB (with MongoDB compatibility) is a fast, reliable, and fully managed database service.</t>
-  </si>
-  <si>
-    <t>Amazon DynamoDB</t>
-  </si>
-  <si>
-    <t>Fully managed NoSQL database service that supports key-value and document data structures.</t>
-  </si>
-  <si>
-    <t>Perform AWS Integration.</t>
-  </si>
-  <si>
-    <t>Amazon DynamoDB Accelerator (DAX)</t>
-  </si>
-  <si>
-    <t>Fully managed, highly available, in-memory cache for your Amazon DynamoDB.</t>
-  </si>
-  <si>
-    <t>Amazon EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web service that provides secure, resizable compute capacity in the cloud. </t>
-  </si>
-  <si>
-    <t>Perform AWS Integration and install a OneAgent on the EC2 instance, typically with "User Data".</t>
-  </si>
-  <si>
-    <t>Amazon EC2 Auto Scaling</t>
-  </si>
-  <si>
-    <t>Amazon EC2 Auto Scaling helps you ensure that you have the correct number of Amazon EC2 instances available.</t>
-  </si>
-  <si>
-    <t>Perform AWS Integration and add this service to monitoring. Install a OneAgent on the EC2 instance, typically with "User Data".</t>
-  </si>
-  <si>
-    <t>Amazon EC2 Spot Fleet</t>
-  </si>
-  <si>
-    <t>Spot Instances and On-Demand Instances to meet the target capacity that you specified.</t>
-  </si>
-  <si>
-    <t>Amazon ElastiCache</t>
-  </si>
-  <si>
-    <t>Fully managed in-memory data store and cache service by Amazon Web Services.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Block Store (EBS)</t>
-  </si>
-  <si>
-    <t>Raw block-level storage that can be attached to Amazon EC2 instances.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Container Service (ECS)</t>
-  </si>
-  <si>
-    <t>Fully managed container orchestration service.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic File Service (EFS)</t>
-  </si>
-  <si>
-    <t>Cloud storage service provided by Amazon Web Services.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Inference</t>
-  </si>
-  <si>
-    <t>Accelerate deep learning inference workloads by attaching to your Amazon EC2 CPU instances.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Kubernetes Service (EKS)</t>
-  </si>
-  <si>
-    <t>Harness automation and AI to simplify Kubernetes observability at scale.</t>
-  </si>
-  <si>
-    <t>Amazon Elasticsearch Service</t>
-  </si>
-  <si>
-    <t>Fully managed service to deploy, secure, and run Elasticsearch cost effectively at scale, without the operational overhead.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Transcoder</t>
-  </si>
-  <si>
-    <t>Convert and transcode media files stored in Amazon S3.</t>
-  </si>
-  <si>
-    <t>Amazon EMR</t>
-  </si>
-  <si>
-    <t>Cloud big data platform for processing vast amounts of data using open source tools.</t>
-  </si>
-  <si>
-    <t>Amazon EventBridge</t>
-  </si>
-  <si>
-    <t>Serverless event bus to connect applications together using data from your own applications, integrated SaaS applications, and AWS services.</t>
-  </si>
-  <si>
-    <t>Amazon FSx for Lustre</t>
-  </si>
-  <si>
-    <t>Makes it easy and cost-effective to launch and run the popular, high-performance Lustre file system.</t>
-  </si>
-  <si>
-    <t>Amazon FSx for Windows File Server</t>
-  </si>
-  <si>
-    <t>Provides a managed Microsoft Windows file servers, backed by a native Windows file system.</t>
-  </si>
-  <si>
-    <t>Amazon GameLift</t>
-  </si>
-  <si>
-    <t>Enables developers to deploy, operate, and scale dedicated, low-cost servers in the cloud for session-based, multiplayer games.</t>
-  </si>
-  <si>
-    <t>Amazon Inspector</t>
-  </si>
-  <si>
-    <t>Tests the network accessibility of your EC2 instances and the security state of your applications that run on those instances.</t>
-  </si>
-  <si>
-    <t>Amazon Keyspaces for Apache Cassandra</t>
-  </si>
-  <si>
-    <t>Scalable, highly available, and managed Apache Cassandra–compatible database service.</t>
-  </si>
-  <si>
-    <t>Amazon Kinesis Data Analytics</t>
-  </si>
-  <si>
-    <t>Transform and analyze streaming data in real time with open source framework and engine for processing data streams (Apache Flink).</t>
-  </si>
-  <si>
-    <t>Amazon Kinesis Data Firehose</t>
-  </si>
-  <si>
-    <t>Fully managed service for delivering real-time streaming data.</t>
-  </si>
-  <si>
-    <t>Amazon Kinesis Data Streams</t>
-  </si>
-  <si>
-    <t>Collect log and event data from sources such as servers, desktops, and mobile devices.</t>
-  </si>
-  <si>
-    <t>Amazon Kinesis Video Streams</t>
-  </si>
-  <si>
-    <t>Provides you SDKs to install on your devices to make it easy to stream media.</t>
-  </si>
-  <si>
-    <t>Amazon Lex</t>
-  </si>
-  <si>
-    <t>Service for building conversational interfaces for applications using voice and text.</t>
-  </si>
-  <si>
-    <t>Amazon Managed Service for Prometheus</t>
-  </si>
-  <si>
-    <t>Ingest metrics from Amazon Managed Prometheus to Dynatrace.</t>
-  </si>
-  <si>
-    <t>Amazon MQ</t>
-  </si>
-  <si>
-    <t>Managed message broker service for Apache ActiveMQ that makes it easy to migrate to a message broker in the cloud.</t>
-  </si>
-  <si>
-    <t>Amazon MSK</t>
-  </si>
-  <si>
-    <t>Fully managed service that enables you to build and run applications that use Apache Kafka to process streaming data.</t>
-  </si>
-  <si>
-    <t>Amazon Neptune</t>
-  </si>
-  <si>
-    <t>Fast, reliable, fully managed graph database built for highly connected datasets.</t>
-  </si>
-  <si>
-    <t>Amazon Polly</t>
-  </si>
-  <si>
-    <t>Cloud service that converts text into lifelike speech.</t>
-  </si>
-  <si>
-    <t>Amazon Quantum Ledger Database (QLDB)</t>
-  </si>
-  <si>
-    <t>Ledger by a central trusted authority that provides an immutable, and cryptographically verifiable transaction log.</t>
-  </si>
-  <si>
-    <t>Amazon Redshift</t>
-  </si>
-  <si>
-    <t>Data warehouse product which forms part of the larger cloud-computing platform AWS.</t>
-  </si>
-  <si>
-    <t>Amazon Rekognition</t>
-  </si>
-  <si>
-    <t>Amazon Rekognition makes it easy to add image and video analysis to your applications.</t>
-  </si>
-  <si>
-    <t>Amazon Relational Database Service (RDS)</t>
-  </si>
-  <si>
-    <t>Cloud web service designed to simplify the setup, operation, and scaling of a relational database.</t>
-  </si>
-  <si>
-    <t>Amazon Route 53</t>
-  </si>
-  <si>
-    <t>Effectively connects user requests to infrastructure running in AWS.</t>
-  </si>
-  <si>
-    <t>Amazon S3</t>
-  </si>
-  <si>
-    <t>Provides object storage through a web service interface.</t>
-  </si>
-  <si>
-    <t>Amazon SageMaker</t>
-  </si>
-  <si>
-    <t>Build, train, and deploy machine learning (ML) models quickly.</t>
-  </si>
-  <si>
-    <t>Amazon Simple Email Service (SES)</t>
-  </si>
-  <si>
-    <t>Cloud-based service that helps developers send marketing, notification, and transactional emails.</t>
-  </si>
-  <si>
-    <t>Amazon Simple Notification Service (SNS)</t>
-  </si>
-  <si>
-    <t>Provides a simple web services interface that can be used to create topics you want to notify apps.</t>
-  </si>
-  <si>
-    <t>Amazon Simple Queue Service (SQS)</t>
-  </si>
-  <si>
-    <t>Programmatic sending of messages via web service applications.</t>
-  </si>
-  <si>
-    <t>Amazon Simple Workflow Service (SWF)</t>
-  </si>
-  <si>
-    <t>Makes it easy to build applications that coordinate work across distributed components.</t>
-  </si>
-  <si>
-    <t>Amazon Textract</t>
-  </si>
-  <si>
-    <t>Makes it easy to add document text detection and analysis to your applications.</t>
-  </si>
-  <si>
-    <t>Amazon Transfer Family</t>
-  </si>
-  <si>
-    <t>Provides fully managed support for file transfers directly into and out of Amazon S3 using SFTP, FTPS, and FTP</t>
-  </si>
-  <si>
-    <t>Amazon Translate</t>
-  </si>
-  <si>
-    <t>Text translation service using machine learning to provide high-quality translation on demand.</t>
-  </si>
-  <si>
-    <t>Amazon VPC (NAT Gateway)</t>
-  </si>
-  <si>
-    <t>Connect to the Internet from instances within a private subnet in an AWS Virtual Private Cloud.</t>
-  </si>
-  <si>
-    <t>Amazon WorkMail</t>
-  </si>
-  <si>
-    <t>Secure, managed business email and calendaring service with support for existing desktop and mobile email clients.</t>
-  </si>
-  <si>
-    <t>Amazon WorkSpaces</t>
-  </si>
-  <si>
-    <t>Enables you to provision virtual, cloud-based Microsoft Windows or Amazon Linux desktops, known as WorkSpaces.</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>Accelerated Mobile Pages performance monitoring to ensure perfect user experience.</t>
-  </si>
-  <si>
-    <t>Install OneAgent on web/application servers and configure RUM.</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Monitor mobile applications that are running on the popular Android operating system.</t>
-  </si>
-  <si>
-    <t>Android Webkit</t>
-  </si>
-  <si>
-    <t>Provides tools for browsing the web.</t>
-  </si>
-  <si>
-    <t>AngularJS</t>
-  </si>
-  <si>
-    <t>JavaScript-based open-source front-end web framework mainly maintained by Google.</t>
-  </si>
-  <si>
-    <t>Ansible</t>
-  </si>
-  <si>
-    <t>The simplest way to automate apps and IT infrastructure.</t>
-  </si>
-  <si>
-    <t>See Hub link for more details.</t>
-  </si>
-  <si>
-    <t>Ansible Tower</t>
-  </si>
-  <si>
-    <t>Way to automate apps and IT infrastructure.</t>
-  </si>
-  <si>
-    <t>Configure problem notification integration under Settings &gt; Integration &gt; Problem notifications.</t>
+    <t>Apache ActiveMQ Classic</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent observability for ActiveMQ with trace and metric insights.</t>
   </si>
   <si>
     <t>Apache Axis2</t>
@@ -526,7 +526,7 @@
     <t>Apache Cordova</t>
   </si>
   <si>
-    <t>Monitor hybrid mobile apps built with Cordova running on iOS or Android</t>
+    <t>Monitor hybrid mobile apps built with Cordova running on iOS or Android.</t>
   </si>
   <si>
     <t>Apache CouchDB</t>
@@ -556,13 +556,13 @@
     <t>Apache Kafka</t>
   </si>
   <si>
-    <t>Automatic and intelligent observability for Apache Kafka with end-to-end traces of connected producers and consumers.</t>
+    <t>Automatic and intelligent observability for Apache Kafka with trace and metric insights.</t>
   </si>
   <si>
     <t>Apache OpenEJB</t>
   </si>
   <si>
-    <t>Automatically and intelligently monitor, analyze and optimize your applications based on Apache OpenEJB</t>
+    <t>Automatically and intelligently monitor, analyze and optimize your applications based on Apache OpenEJB.</t>
   </si>
   <si>
     <t>Apache Solr</t>
@@ -592,10 +592,10 @@
     <t>Apache TomEE</t>
   </si>
   <si>
-    <t>Apigee Edge</t>
-  </si>
-  <si>
-    <t>Design, secure, and analyze APIs across the entire API lifecycle.</t>
+    <t>Apigee</t>
+  </si>
+  <si>
+    <t>Remotely monitor your Apigee Edge, Apigee X or Apigee Private Cloud proxies.</t>
   </si>
   <si>
     <t>Apple Safari</t>
@@ -604,18 +604,6 @@
     <t>Graphical web browser developed by Apple, based on the WebKit engine.</t>
   </si>
   <si>
-    <t>ASP.NET / ASP.NET Core</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze and optimize your ASP.NET / ASP.NET Core apps.</t>
-  </si>
-  <si>
-    <t>ASP.NET Owin/Katana</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with ASP.NET Owin/Katana.</t>
-  </si>
-  <si>
     <t>Atlassian Bamboo</t>
   </si>
   <si>
@@ -628,6 +616,12 @@
     <t>Issue tracking product that allows bug tracking and agile project management.</t>
   </si>
   <si>
+    <t>Attacks</t>
+  </si>
+  <si>
+    <t>Get a real-time overview of all the attacks on your environment.</t>
+  </si>
+  <si>
     <t>AWS</t>
   </si>
   <si>
@@ -730,7 +724,7 @@
     <t>AWS Fargate</t>
   </si>
   <si>
-    <t>Intelligent end-to-end observability for serverless and hybrid environments using AWS Fargate</t>
+    <t>Intelligent end-to-end observability for serverless and hybrid environments using AWS Fargate.</t>
   </si>
   <si>
     <t>AWS Glue</t>
@@ -907,7 +901,7 @@
     <t>Azure Cosmos DB</t>
   </si>
   <si>
-    <t>Globally-distributed, multi-model database service "for managing data at planet-scale".</t>
+    <t>Fully managed and serverless distributed database supporting open-source PostgreSQL, MongoDB, and Apache Cassandra.</t>
   </si>
   <si>
     <t>Azure Custom Vision Prediction</t>
@@ -925,7 +919,7 @@
     <t>Azure Database for MySQL</t>
   </si>
   <si>
-    <t>Full observability of MYSQL servers and database instances to ensure database health and performance.</t>
+    <t>Full observability of MySQL servers and database instances to ensure database health and performance.</t>
   </si>
   <si>
     <t>Azure Database for PostgreSQL</t>
@@ -1012,7 +1006,7 @@
     <t>Azure NetApp Capacity Pool</t>
   </si>
   <si>
-    <t>Enterprise-class, high-performance, metered file storage service</t>
+    <t>Enterprise-class, high-performance, metered file storage service.</t>
   </si>
   <si>
     <t>Azure NetApp files</t>
@@ -1195,7 +1189,7 @@
     <t>Citrix Virtual Apps and Desktops</t>
   </si>
   <si>
-    <t>Complete virtual app and desktop solution to meet all your business needs.</t>
+    <t>Gain insight into your Citrix Virtual Apps and Desktops environments</t>
   </si>
   <si>
     <t>Cloud Automation Control Plane</t>
@@ -1210,6 +1204,12 @@
     <t>Harness automation and AI to simplify observability on Cloud Foundry at scale.</t>
   </si>
   <si>
+    <t>Code-level vulnerabilities</t>
+  </si>
+  <si>
+    <t>Detect vulnerabilities in your code in real time.</t>
+  </si>
+  <si>
     <t>Concourse</t>
   </si>
   <si>
@@ -1267,7 +1267,7 @@
     <t>CoreDNS</t>
   </si>
   <si>
-    <t>Detailed visibility of CoreDNS server health state and throughput</t>
+    <t>Detailed visibility of CoreDNS server health state and throughput.</t>
   </si>
   <si>
     <t>Couchbase</t>
@@ -1276,6 +1276,12 @@
     <t>Automatically and intelligently observe, analyze and optimize how your the usage, health and performance of your NoSQL database.</t>
   </si>
   <si>
+    <t>Credential vault</t>
+  </si>
+  <si>
+    <t>Secure and central storage for credentials used in Synthetic &amp; Extensions 2.0.</t>
+  </si>
+  <si>
     <t>cri-o</t>
   </si>
   <si>
@@ -1291,10 +1297,13 @@
     <t>Custom Data ingest via API</t>
   </si>
   <si>
-    <t>Extend Dynatrace with custom ingest APIs</t>
-  </si>
-  <si>
-    <t>custom:wmi-extension</t>
+    <t>Extend Dynatrace with custom ingest APIs.</t>
+  </si>
+  <si>
+    <t>Custom frontend monitoring</t>
+  </si>
+  <si>
+    <t>Monitor your custom frontend applications with our OpenKit library.</t>
   </si>
   <si>
     <t>Databricks</t>
@@ -1303,15 +1312,6 @@
     <t>Use this extension to ingest metrics from your Databricks Clusters via the embedded Ganglia metric repository.</t>
   </si>
   <si>
-    <t>Davis Assistant</t>
-  </si>
-  <si>
-    <t>Immediate actionable answers to complex Dynatrace questions with a simple conversation.</t>
-  </si>
-  <si>
-    <t>Deprecated: do not use.</t>
-  </si>
-  <si>
     <t>DC/OS</t>
   </si>
   <si>
@@ -1327,10 +1327,16 @@
     <t xml:space="preserve">Association of individuals who have made common cause to create a free operating system. </t>
   </si>
   <si>
+    <t>Dell EMC Isilon</t>
+  </si>
+  <si>
+    <t>Monitor your Dell EMC Isilon clusters through the OneFS API</t>
+  </si>
+  <si>
     <t>Disk Analytics</t>
   </si>
   <si>
-    <t>This extension allows more detailed visibility on Linux hosts' local datastores where OneAgent is installed. DDUs required.</t>
+    <t>This extension allows more detailed visibility on Linux hosts' local datastores where OneAgent is installed.</t>
   </si>
   <si>
     <t>Docker</t>
@@ -1387,7 +1393,7 @@
     <t>Eclipse Jetty</t>
   </si>
   <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Jetty</t>
+    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Jetty.</t>
   </si>
   <si>
     <t>Eclipse OpenJ9</t>
@@ -1399,7 +1405,13 @@
     <t>Elasticsearch</t>
   </si>
   <si>
-    <t>Monitor your Elasticsearch Clusters, Nodes, and Indexes to identify the root cause of potential performance issues</t>
+    <t>Monitor your Elasticsearch Clusters, Nodes, and Indexes to identify the root cause of potential performance issues.</t>
+  </si>
+  <si>
+    <t>Envoy</t>
+  </si>
+  <si>
+    <t>Automated distributed tracing and metrics for Envoy proxies.</t>
   </si>
   <si>
     <t>Erlang</t>
@@ -1465,7 +1477,7 @@
     <t>Fortinet Fortigate</t>
   </si>
   <si>
-    <t>Monitor your Fortigate devices via the REST API</t>
+    <t>Monitor your Fortigate devices via the REST API.</t>
   </si>
   <si>
     <t>Fujitsu Interstage</t>
@@ -1525,7 +1537,7 @@
     <t>Go</t>
   </si>
   <si>
-    <t>Automatic and intelligent end-to-end observability for Go applications</t>
+    <t>Automatic and intelligent end-to-end observability for Go applications.</t>
   </si>
   <si>
     <t>Google AI Platform</t>
@@ -1564,7 +1576,7 @@
     <t>Google Assistant Smart Home</t>
   </si>
   <si>
-    <t>Get insights into Google Assistant Smart Home metrics collected from the Google Operations API to ensure health of your cloud infrastructure</t>
+    <t>Get insights into Google Assistant Smart Home metrics collected from the Google Operations API to ensure health of the cloud infrastructure.</t>
   </si>
   <si>
     <t>Google Big Query</t>
@@ -1600,7 +1612,7 @@
     <t>Google Cloud Data Loss Prevention</t>
   </si>
   <si>
-    <t>Get insights into Google Data Loss Prevention metrics collected from the Google Operations API to ensure health of your cloud infrastructure</t>
+    <t>Get insights into Google Data Loss Prevention metrics collected from the Google Operations API to ensure health of the cloud infrastructure.</t>
   </si>
   <si>
     <t>Google Cloud DNS</t>
@@ -1612,7 +1624,7 @@
     <t>Google Cloud Filestore</t>
   </si>
   <si>
-    <t>Monitor your Google Cloud Filestore services using metrics ingested to your Dynatrace cluster</t>
+    <t>Monitor your Google Cloud Filestore services using metrics ingested to your Dynatrace cluster.</t>
   </si>
   <si>
     <t>Google Cloud Firestore</t>
@@ -1648,7 +1660,7 @@
     <t>Google Cloud Router</t>
   </si>
   <si>
-    <t>Get insights into Google Cloud Router service metrics collected from the Google Operations API to ensure health of your cloud infrastructure</t>
+    <t>Get insights into Google Cloud Router service metrics collected from the Google Operations API to ensure health of the cloud infrastructure.</t>
   </si>
   <si>
     <t>Google Cloud Run. Monitor with GCP integration</t>
@@ -1744,7 +1756,7 @@
     <t>Google Firestore in Datastore mode</t>
   </si>
   <si>
-    <t>Get insights into Google Firestore in Datastore mode metrics collected from the Google Operations API to ensure health of infrastructure</t>
+    <t>Get insights into Google Firestore in Datastore mode metrics collected from the Google Operations API to ensure health of infrastructure.</t>
   </si>
   <si>
     <t>Google Hybrid Connectivity</t>
@@ -1765,7 +1777,7 @@
     <t>Google Managed Microsoft AD</t>
   </si>
   <si>
-    <t>Get insights into Google Managed Microsoft AD metrics collected from the Google Operations API to ensure health of your cloud infrastructure</t>
+    <t>Get insights into Google Managed Microsoft AD metrics collected from the Google Operations API to ensure health of the cloud infrastructure.</t>
   </si>
   <si>
     <t>Google Memorystore</t>
@@ -1795,7 +1807,7 @@
     <t>Google Pub/Sub Lite</t>
   </si>
   <si>
-    <t>Get insights into Google Pub/Sub Lite service metrics collected from the Google Operations API to ensure health of your cloud infrastructure</t>
+    <t>Get insights into Google Pub/Sub Lite service metrics collected from the Google Operations API to ensure health of the cloud infrastructure.</t>
   </si>
   <si>
     <t>Google reCAPTCHA Enterprise</t>
@@ -1894,6 +1906,18 @@
     <t>Hitachi JVM</t>
   </si>
   <si>
+    <t>HornetQ</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent observability for HornetQ with trace and metric insights.</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>Operating System Services monitoring solution including last known state and optional availability metrics.</t>
+  </si>
+  <si>
     <t>Huawei JVM</t>
   </si>
   <si>
@@ -1954,7 +1978,7 @@
     <t>IBM DB2 for LUW (remote monitoring)</t>
   </si>
   <si>
-    <t>Remotely monitor your DB2 instances to collect data on transactions, connections, buffer pools. tablespaces, and transaction logs.</t>
+    <t>Remotely collect monitoring metrics from your DB2 databases.</t>
   </si>
   <si>
     <t>IBM Event Streams</t>
@@ -1990,7 +2014,7 @@
     <t>IBM Informix</t>
   </si>
   <si>
-    <t>Remotely monitor your Informix databases and get insight into crucial Informix metrics</t>
+    <t>Remotely monitor your Informix databases and get insight into crucial Informix metrics.</t>
   </si>
   <si>
     <t>IBM Integration Bus</t>
@@ -2002,13 +2026,13 @@
     <t>IBM JVM</t>
   </si>
   <si>
-    <t>IBM MQ</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent observability for IBM MQ with end-to-end traces of connected producers and consumers.</t>
-  </si>
-  <si>
-    <t>IBM MQ - ActiveGate</t>
+    <t>IBM MQ (Local)</t>
+  </si>
+  <si>
+    <t>Monitor your IBM MQ queue managers. Collect queues, channels, topics, listener performance metrics.</t>
+  </si>
+  <si>
+    <t>IBM MQ (remote)</t>
   </si>
   <si>
     <t>ActiveGate extension that allows monitoring of IBM MQ performance remotely.</t>
@@ -2032,12 +2056,6 @@
     <t>IBM WebSphere Liberty for z/OS</t>
   </si>
   <si>
-    <t>IBM WebSphere Message Broker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows information to flow between disparate applications across multiple platforms. </t>
-  </si>
-  <si>
     <t>IBM z/OS</t>
   </si>
   <si>
@@ -2053,7 +2071,7 @@
     <t>InterSystems IRIS (Remote)</t>
   </si>
   <si>
-    <t>ActiveGate extension that collects metrics and events from the InterSystems IRIS APIs for use in Dynatrace.</t>
+    <t>2.0 remote extension that collects metrics and events from the InterSystems IRIS APIs for use in Dynatrace.</t>
   </si>
   <si>
     <t>iOS</t>
@@ -2068,25 +2086,25 @@
     <t>ISAM</t>
   </si>
   <si>
-    <t>Collect metrics about IBM Security Access Manager (ISAM)</t>
-  </si>
-  <si>
-    <t>Istio</t>
-  </si>
-  <si>
-    <t>Open platform to connect, manage, and secure microservices.</t>
-  </si>
-  <si>
-    <t>Istio and Envoy Service Mesh (Prometheus)</t>
-  </si>
-  <si>
-    <t>Istio service mesh helps managing distributed microservices architectures, especially in Kubernetes.</t>
+    <t>Collect metrics about IBM Security Access Manager (ISAM).</t>
+  </si>
+  <si>
+    <t>Istio Service Mesh</t>
+  </si>
+  <si>
+    <t>Automated distributed tracing, metrics &amp; logs for microservices and proxies managed by Istio Service Mesh.</t>
+  </si>
+  <si>
+    <t>Jakarta Servlet</t>
+  </si>
+  <si>
+    <t>Automatically and intelligently monitor, analyze, and optimize the performance of your Servlets.</t>
   </si>
   <si>
     <t>Java</t>
   </si>
   <si>
-    <t>Automatic and intelligent end-to-end observability for Java applications</t>
+    <t>Automatic and intelligent end-to-end observability for Java applications.</t>
   </si>
   <si>
     <t>Java JDBC</t>
@@ -2134,12 +2152,6 @@
     <t>Event-based control plane for continuous delivery and automated operations.</t>
   </si>
   <si>
-    <t>Kestrel for ASP.NET Core</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze and optimize your ASP.NET Core apps running on a Kestrel web server.</t>
-  </si>
-  <si>
     <t>Kong Gateway</t>
   </si>
   <si>
@@ -2149,9 +2161,6 @@
     <t>Kubernetes</t>
   </si>
   <si>
-    <t>Open-source system for automating deployment, scaling, and management of containerized applications.</t>
-  </si>
-  <si>
     <t>Kubernetes Monitoring Statistics</t>
   </si>
   <si>
@@ -2188,13 +2197,13 @@
     <t>LDAP Synthetic</t>
   </si>
   <si>
-    <t>Execute synthetic LDAP searches to monitor the availability of your LDAP servers</t>
+    <t>Execute synthetic LDAP searches to monitor the availability of your LDAP servers.</t>
   </si>
   <si>
     <t>Lightrun Developer Observability Platform</t>
   </si>
   <si>
-    <t>Troubleshoot and understand the behavior of live, cloud-native apps by adding logs metrics and snapshots in real-time directly from your IDE</t>
+    <t>Troubleshoot and understand the behavior of live, cloud-native apps by adding logs metrics and snapshots in real-time directly from your IDE.</t>
   </si>
   <si>
     <t>Supported by a partner.  See Hub link for more details.</t>
@@ -2233,21 +2242,21 @@
     <t>Configure request attributes, etc.  See blog posts, RobotAdmin, etc.</t>
   </si>
   <si>
-    <t>Log Management and Analytics powered by Grail</t>
+    <t>Log Monitoring for AWS</t>
+  </si>
+  <si>
+    <t>Get answers from logs across all services in context.</t>
+  </si>
+  <si>
+    <t>Log Monitoring for Azure</t>
+  </si>
+  <si>
+    <t>Logs and Events</t>
   </si>
   <si>
     <t>Get answers to any question, any time, at any scale, with no indexes, rehydration, or sampling.</t>
   </si>
   <si>
-    <t>Log Monitoring for AWS</t>
-  </si>
-  <si>
-    <t>Get answers from logs across all services in context.</t>
-  </si>
-  <si>
-    <t>Log Monitoring for Azure</t>
-  </si>
-  <si>
     <t>Logstash</t>
   </si>
   <si>
@@ -2305,7 +2314,7 @@
     <t>Microsoft Edge</t>
   </si>
   <si>
-    <t>Real user monitoring - visibility and monitoring starting on you clients browser (desktop, tablet, mobile)</t>
+    <t>Real user monitoring - visibility and monitoring starting on you clients browser (desktop, tablet, mobile).</t>
   </si>
   <si>
     <t>Microsoft Exchange Server</t>
@@ -2323,7 +2332,7 @@
     <t>Microsoft Hyper-V (WMI)</t>
   </si>
   <si>
-    <t>Monitor health and performance of native Windows virtual machines from the host’s perspective</t>
+    <t>Monitor health and performance of native Windows virtual machines from the host’s perspective.</t>
   </si>
   <si>
     <t>Microsoft IIS</t>
@@ -2347,7 +2356,7 @@
     <t>Microsoft SQL Server</t>
   </si>
   <si>
-    <t>Expand visibility to improve the health and performance monitoring of your Microsoft SQL Servers!</t>
+    <t>Expand visibility to improve the health and performance monitoring of your Microsoft SQL Servers.</t>
   </si>
   <si>
     <t>Microsoft Teams</t>
@@ -2365,16 +2374,16 @@
     <t>Mobile monitoring</t>
   </si>
   <si>
-    <t>Insights for native mobile apps. Monitor application usage and performance in context with your backend infrastructure.</t>
+    <t>Analyze real user monitoring data of mobile apps in context with your backend.</t>
   </si>
   <si>
     <t>MongoDB</t>
   </si>
   <si>
-    <t>Mongo DB Atlas</t>
-  </si>
-  <si>
-    <t>Monitoring of your SaaS installation of Mongo DB (Atlas)</t>
+    <t>MongoDB Atlas</t>
+  </si>
+  <si>
+    <t>Remotely monitor your SaaS installation of MongoDB (Atlas)</t>
   </si>
   <si>
     <t>MongoDB (Prometheus)</t>
@@ -2383,6 +2392,12 @@
     <t>Monitor MongoDB server using prometheus to feed Dynatrace with metrics.</t>
   </si>
   <si>
+    <t>Monitoring Coverage</t>
+  </si>
+  <si>
+    <t>Sample app to visualize and increase monitoring coverage by Dynatrace.</t>
+  </si>
+  <si>
     <t>Mozilla Firefox</t>
   </si>
   <si>
@@ -2392,7 +2407,7 @@
     <t>Mulesoft Cloudhub (Extension v2)</t>
   </si>
   <si>
-    <t>Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers</t>
+    <t>Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers.</t>
   </si>
   <si>
     <t>MySQL</t>
@@ -2416,6 +2431,12 @@
     <t>Automated Load Testing tool enabling you to run Continuous Performance Testing.</t>
   </si>
   <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent end-to-end observability for .NET applications and processes.</t>
+  </si>
+  <si>
     <t>NetApp on Google Cloud</t>
   </si>
   <si>
@@ -2425,31 +2446,19 @@
     <t>NetApp OnTap (Remote)</t>
   </si>
   <si>
-    <t>ActiveGate extension that collects important NetApp OnTap metrics from the OnTap 9.6+ REST API for use in Dynatrace.</t>
+    <t>2.0 remote extension that collects important NetApp OnTap metrics from the OnTap 9.6+ REST API for use in Dynatrace.</t>
   </si>
   <si>
     <t>Netbackup Jobs</t>
   </si>
   <si>
-    <t>Monitor your Veritas Netbackup jobs execution status</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>Software framework developed by Microsoft that runs primarily on Microsoft Windows.</t>
-  </si>
-  <si>
-    <t>.NET / .NET Core</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent end-to-end observability for .NET / .NET Core applications</t>
+    <t>Monitor your Veritas Netbackup jobs execution status.</t>
   </si>
   <si>
     <t>Netty</t>
   </si>
   <si>
-    <t>I/O client-server framework for the development of Java network applications.</t>
+    <t>End-to-end observability for your Netty web framework with code-level insight.</t>
   </si>
   <si>
     <t>NGINX</t>
@@ -2467,13 +2476,13 @@
     <t>Node.js</t>
   </si>
   <si>
-    <t>Automatic and intelligent end-to-end observability for Node.js applications</t>
+    <t>Automatic and intelligent end-to-end observability for Node.js applications.</t>
   </si>
   <si>
     <t>NTP sync check</t>
   </si>
   <si>
-    <t>Network Time Protocol assures host clocks are in sync with a trusted time source</t>
+    <t>Network Time Protocol assures host clocks are in sync with a trusted time source.</t>
   </si>
   <si>
     <t>Nutanix AHV</t>
@@ -2485,13 +2494,19 @@
     <t>NVIDIA GPUs</t>
   </si>
   <si>
-    <t>Monitor the utilization and temperature of your NVIDIA GPUs</t>
+    <t>Monitor the utilization and temperature of your NVIDIA GPUs.</t>
   </si>
   <si>
     <t>OneAgent</t>
   </si>
   <si>
-    <t>All the operational and business performance metrics you need.</t>
+    <t>The simplest way to capture all observation signals automatically and in context.</t>
+  </si>
+  <si>
+    <t>OpenAI Observability</t>
+  </si>
+  <si>
+    <t>Automatically monitor your OpenAI and Azure OpenAI services such as GPT-3, Codex, DALL-E or ChatGPT.</t>
   </si>
   <si>
     <t>OpenJDK</t>
@@ -2509,16 +2524,10 @@
     <t xml:space="preserve">The openSUSE project is a community program sponsored by SUSE Linux and other companies. </t>
   </si>
   <si>
-    <t>OpenTelemetry Metrics</t>
-  </si>
-  <si>
-    <t>Ingest and chart custom OpenTelemetry metrics, set alerts, and analyze them in the context of trace, log, and diagnostics data.</t>
-  </si>
-  <si>
-    <t>OpenTelemetry Tracing</t>
-  </si>
-  <si>
-    <t>Ingest OpenTelemetry traces, pin them to your dashboard, set alerts, and analyze them in the context of metrics, log, and diagnostics data.</t>
+    <t>OpenTelemetry</t>
+  </si>
+  <si>
+    <t>Ingest OpenTelemetry traces &amp; metrics, pin them to a dashboard, set alarms, analyze them in the context of metric, log, and diagnostic data.</t>
   </si>
   <si>
     <t>OpenTracing</t>
@@ -2581,7 +2590,7 @@
     <t>Palo Alto firewalls</t>
   </si>
   <si>
-    <t>Monitor Palo Alto firewalls using SNMP to feed Dynatrace with metrics to allow alerting and Davis problem detection</t>
+    <t>Monitor Palo Alto firewalls using SNMP to feed Dynatrace with metrics to allow alerting and Davis problem detection.</t>
   </si>
   <si>
     <t>Payara</t>
@@ -2596,7 +2605,7 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>Automatic and intelligent end-to-end observability for PHP applications</t>
+    <t>Automatic and intelligent end-to-end observability for PHP applications.</t>
   </si>
   <si>
     <t>PHPUnit</t>
@@ -2617,6 +2626,12 @@
     <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Play Framework.</t>
   </si>
   <si>
+    <t>PostgresDB (remote monitoring)</t>
+  </si>
+  <si>
+    <t>Monitor your Postgres performance via our new EF2.0 extension framework.</t>
+  </si>
+  <si>
     <t>PostgreSQL</t>
   </si>
   <si>
@@ -2629,7 +2644,7 @@
     <t>Prometheus Alertmanager</t>
   </si>
   <si>
-    <t>Integrate alerts from Prometheus Alertmanager into Dynatrace</t>
+    <t>Integrate alerts from Prometheus Alertmanager into Dynatrace.</t>
   </si>
   <si>
     <t>Prometheus in Kubernetes</t>
@@ -2638,10 +2653,16 @@
     <t>Collect metrics from Prometheus exporters in Kubernetes for Dynatrace analysis and alerting.</t>
   </si>
   <si>
+    <t>Pure Storage FlashArray</t>
+  </si>
+  <si>
+    <t>Unleash metrics from your Pure Storage FlashArray enabling monitoring of alert criticality, capacity utilization, &amp; performance metrics.</t>
+  </si>
+  <si>
     <t>Python</t>
   </si>
   <si>
-    <t>End-to-end observability for your Python applications</t>
+    <t>End-to-end observability for your Python applications.</t>
   </si>
   <si>
     <t>Install OneAgent for process monitoring, and optionally use OpenTelemetry, SDK or Python Auto-Instrumentation from Github for tracing.</t>
@@ -2662,7 +2683,7 @@
     <t>RabbitMQ (Prometheus)</t>
   </si>
   <si>
-    <t>Start monitoring the most widely deployed open source message broker within minutes</t>
+    <t>Start monitoring the most widely deployed open source message broker within minutes.</t>
   </si>
   <si>
     <t>React.js</t>
@@ -2722,7 +2743,7 @@
     <t>Redis</t>
   </si>
   <si>
-    <t>Automatically and intelligently observe, analyze and optimize how your the usage, health and performance of your Redis in memory store.</t>
+    <t>Automatically and intelligently observe, analyze and optimize your Redis in memory store and the applications interacting with it.</t>
   </si>
   <si>
     <t>Install the OneAgent in infrastructure-only mode.</t>
@@ -2731,13 +2752,19 @@
     <t>Redis Enterprise - Prometheus</t>
   </si>
   <si>
-    <t>Remotely monitor your Redis Enterprise software with the official Redis Prometheus exporter</t>
+    <t>Remotely monitor your Redis Enterprise software with the official Redis Prometheus exporter.</t>
   </si>
   <si>
     <t>Redis Open Source</t>
   </si>
   <si>
-    <t>Monitor all open source Redis instances in your Dynatrace environment on a single pane of glass</t>
+    <t>Monitor all open source Redis instances in your Dynatrace environment on a single pane of glass.</t>
+  </si>
+  <si>
+    <t>Releases</t>
+  </si>
+  <si>
+    <t>Analyze all detected versions and linked information of your environment.</t>
   </si>
   <si>
     <t>Remote Desktop Protocol</t>
@@ -2755,7 +2782,7 @@
     <t>Remote Windows Host Monitoring</t>
   </si>
   <si>
-    <t>Monitor health and improve performance of Microsoft Windows Hosts without installing an agent</t>
+    <t>Monitor health and improve performance of Microsoft Windows Hosts without installing an agent.</t>
   </si>
   <si>
     <t>Riak</t>
@@ -2803,7 +2830,7 @@
     <t>SAP Business Technology Platform</t>
   </si>
   <si>
-    <t>SAP Business Technology Platform (SAP BTP) is the technological foundation for the intelligent enterprise</t>
+    <t>SAP Business Technology Platform (SAP BTP) is the technological foundation for the intelligent enterprise.</t>
   </si>
   <si>
     <t>SAP Commerce Cloud</t>
@@ -2821,16 +2848,16 @@
     <t>SAP HANA Database (remote monitoring)</t>
   </si>
   <si>
-    <t>Easily understand the health and performance of your SAP HANA databases!</t>
+    <t>Easily understand the health and performance of your SAP HANA databases.</t>
   </si>
   <si>
     <t>SAP JVM</t>
   </si>
   <si>
-    <t>Scala</t>
-  </si>
-  <si>
-    <t>Programming language providing support for functional programming and a strong static type system.</t>
+    <t>Security overview</t>
+  </si>
+  <si>
+    <t>Get a comprehensive overview of the security of your applications.</t>
   </si>
   <si>
     <t>Selenium WebDriver</t>
@@ -2839,6 +2866,18 @@
     <t>Web automation framework that allows you to execute your tests against different browsers.</t>
   </si>
   <si>
+    <t>Serverless</t>
+  </si>
+  <si>
+    <t>Seamless integration with serverless technologies to eliminate blind spots through OOTB integrations with AWS, Azure, and Google Cloud.</t>
+  </si>
+  <si>
+    <t>Service-Level Objectives</t>
+  </si>
+  <si>
+    <t>Create and monitor Service-Level Objectives for your critical services.</t>
+  </si>
+  <si>
     <t>ServiceNow</t>
   </si>
   <si>
@@ -2848,16 +2887,22 @@
     <t>Session Replay</t>
   </si>
   <si>
-    <t>Troubleshoot faster, address user complaints, and optimize customer journeys with securely captured visual recordings of every user session</t>
+    <t>Fix bugs and simplify complex issues with visual recordings of user sessions.</t>
   </si>
   <si>
     <t>Configure Session Replay in RUM settings for the web application.</t>
   </si>
   <si>
+    <t>Session segmentation</t>
+  </si>
+  <si>
+    <t>View and analyze the Real User Monitoring (RUM) sessions from all applications.</t>
+  </si>
+  <si>
     <t>Siebel</t>
   </si>
   <si>
-    <t>Gathers metrics from the Siebel SARM logs to provide aggregated task information</t>
+    <t>Gathers metrics from the Siebel SARM logs to provide aggregated task information.</t>
   </si>
   <si>
     <t>Slack</t>
@@ -2869,7 +2914,7 @@
     <t>SNMP Traps</t>
   </si>
   <si>
-    <t>Supplement network device statistics with event-based data reported via SNMP Traps</t>
+    <t>Supplement network device statistics with event-based data reported via SNMP Traps.</t>
   </si>
   <si>
     <t>Snowflake</t>
@@ -2890,19 +2935,13 @@
     <t>Solarwinds</t>
   </si>
   <si>
-    <t>Monitor events and node performance</t>
+    <t>Monitor events and node performance.</t>
   </si>
   <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>Application framework and inversion of control container for the Java platform.</t>
-  </si>
-  <si>
-    <t>SSL Checker</t>
-  </si>
-  <si>
-    <t>Detects expired SSL certificates</t>
+    <t>Automatic and intelligent end-to-end observability for your Java Spring applications.</t>
   </si>
   <si>
     <t>StatsD</t>
@@ -2923,6 +2962,12 @@
     <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Symfony.</t>
   </si>
   <si>
+    <t>Synthetic</t>
+  </si>
+  <si>
+    <t>Synthetic monitors provide 24x7 visibility into the performance and availability of your mobile and web applications as well as your APIs.</t>
+  </si>
+  <si>
     <t>Synthetic monitor DNS</t>
   </si>
   <si>
@@ -2941,12 +2986,6 @@
     <t>Synthetically monitor port availability on your servers. This allows you to be proactively alerted when they are unavailable.</t>
   </si>
   <si>
-    <t>Synthetic monitors</t>
-  </si>
-  <si>
-    <t>Synthetic monitors provide 24x7 visibility into the performance and availability of your mobile and web applications as well as your APIs.</t>
-  </si>
-  <si>
     <t>Synthetic Monitor SSH</t>
   </si>
   <si>
@@ -2974,13 +3013,19 @@
     <t>Telegraf</t>
   </si>
   <si>
-    <t>Automatically analyze and monitor hundreds of Telegraf provided plugins and metrics with Dynatrace</t>
+    <t>Automatically analyze and monitor hundreds of Telegraf provided plugins and metrics with Dynatrace.</t>
+  </si>
+  <si>
+    <t>Third-party vulnerabilities</t>
+  </si>
+  <si>
+    <t>Detect vulnerabilities in real time, with context and automated risk assessment.</t>
   </si>
   <si>
     <t>TIBCO EMS</t>
   </si>
   <si>
-    <t>Automatic and intelligent observability for Tibco EMS with end-to-end traces of connected producers and consumers.</t>
+    <t>Automatic and intelligent observability for TIBCO EMS with trace and metric insights.</t>
   </si>
   <si>
     <t>Trello</t>
@@ -2995,6 +3040,12 @@
     <t xml:space="preserve">Open-source, free  Linux distribution based on Debian. </t>
   </si>
   <si>
+    <t>User sessions query</t>
+  </si>
+  <si>
+    <t>Query completed user sessions with user sessions query language (USQL).</t>
+  </si>
+  <si>
     <t>Varnish</t>
   </si>
   <si>
@@ -3037,7 +3088,7 @@
     <t>VMware Horizon</t>
   </si>
   <si>
-    <t>Gather metrics from your VMware Horizon gateways, connection servers, domains, farms, event databases and Remote Desktop Services (RDS)</t>
+    <t>Gather metrics from your VMware Horizon gateways, connection servers, domains, farms, event databases and Remote Desktop Services (RDS).</t>
   </si>
   <si>
     <t>VMware Tanzu</t>
@@ -3049,13 +3100,13 @@
     <t>VMware Unified Access Gateway</t>
   </si>
   <si>
-    <t>Gather connection metrics for your VMware UAG (Unified Access Gateway)</t>
+    <t>Gather connection metrics for your VMware UAG (Unified Access Gateway).</t>
   </si>
   <si>
     <t>VMware VCenter Alarms</t>
   </si>
   <si>
-    <t>Collects VCenter triggered alarms into Dynatrace</t>
+    <t>Collects VCenter triggered alarms into Dynatrace.</t>
   </si>
   <si>
     <t>VMware vCenter Server</t>
@@ -3067,7 +3118,7 @@
     <t>VMware vSAN</t>
   </si>
   <si>
-    <t>Gather metrics about your VMware vSAN Datastores</t>
+    <t>Gather metrics about your VMware vSAN Datastores.</t>
   </si>
   <si>
     <t>Web application monitoring via browser extension</t>
@@ -3088,6 +3139,12 @@
     <t>Out-of-the-box integrations that automatically push problem notifications to third-party solutions.</t>
   </si>
   <si>
+    <t>Web monitoring</t>
+  </si>
+  <si>
+    <t>Analyze and manage real user monitoring (RUM) data of Web applications.</t>
+  </si>
+  <si>
     <t>Web monitoring via auto injection</t>
   </si>
   <si>
@@ -3097,7 +3154,7 @@
     <t>WeChat Mini-Program Monitoring</t>
   </si>
   <si>
-    <t>Integrated monitoring of business, performance, and user experience for WeChat Mini-Programs</t>
+    <t>Integrated monitoring of business, performance, and user experience for WeChat Mini-Programs.</t>
   </si>
   <si>
     <t>Wildfly</t>
@@ -3124,7 +3181,7 @@
     <t>Windows Server File System Quotas</t>
   </si>
   <si>
-    <t>Monitor the utilization of your File System Quotas in Windows Servers</t>
+    <t>Monitor the utilization of your File System Quotas in Windows Servers.</t>
   </si>
   <si>
     <t>WordPress</t>
@@ -3166,7 +3223,7 @@
     <t>Zabbix hosts</t>
   </si>
   <si>
-    <t>Bring events from your Zabbix Hosts into Dynatrace</t>
+    <t>Bring events from your Zabbix Hosts into Dynatrace.</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C525"/>
+  <dimension ref="A1:C535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3589,51 +3646,51 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3644,7 +3701,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3655,7 +3712,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3666,7 +3723,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3677,7 +3734,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3688,7 +3745,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3699,7 +3756,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3710,7 +3767,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3721,7 +3778,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3732,73 +3789,73 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3809,7 +3866,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3820,7 +3877,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3831,7 +3888,7 @@
         <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3842,7 +3899,7 @@
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3853,7 +3910,7 @@
         <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3864,7 +3921,7 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3875,7 +3932,7 @@
         <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3886,7 +3943,7 @@
         <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3897,7 +3954,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3908,7 +3965,7 @@
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3919,7 +3976,7 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3930,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3941,7 +3998,7 @@
         <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3952,7 +4009,7 @@
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3963,7 +4020,7 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3974,7 +4031,7 @@
         <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3985,7 +4042,7 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3996,7 +4053,7 @@
         <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4007,7 +4064,7 @@
         <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4018,7 +4075,7 @@
         <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4029,7 +4086,7 @@
         <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4040,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4051,7 +4108,7 @@
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4062,7 +4119,7 @@
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4073,7 +4130,7 @@
         <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4084,7 +4141,7 @@
         <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4095,7 +4152,7 @@
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4106,7 +4163,7 @@
         <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4117,7 +4174,7 @@
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4128,7 +4185,7 @@
         <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4139,7 +4196,7 @@
         <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4150,7 +4207,7 @@
         <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4161,7 +4218,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4172,7 +4229,7 @@
         <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4183,7 +4240,7 @@
         <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4194,7 +4251,7 @@
         <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4205,7 +4262,7 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4216,7 +4273,7 @@
         <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4227,7 +4284,7 @@
         <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4238,7 +4295,7 @@
         <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4249,40 +4306,40 @@
         <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4293,50 +4350,41 @@
         <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4348,7 +4396,7 @@
         <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4359,7 +4407,7 @@
         <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4392,7 +4440,7 @@
         <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4414,7 +4462,7 @@
         <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4425,7 +4473,7 @@
         <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4447,7 +4495,7 @@
         <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4458,7 +4506,7 @@
         <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4469,7 +4517,7 @@
         <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4480,7 +4528,7 @@
         <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4502,7 +4550,7 @@
         <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4513,7 +4561,7 @@
         <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4523,9 +4571,6 @@
       <c r="B90" t="s">
         <v>192</v>
       </c>
-      <c r="C90" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
@@ -4535,7 +4580,7 @@
         <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4546,7 +4591,7 @@
         <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4557,7 +4602,7 @@
         <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4567,9 +4612,6 @@
       <c r="B94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
@@ -4579,18 +4621,18 @@
         <v>202</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4601,7 +4643,7 @@
         <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4612,7 +4654,7 @@
         <v>209</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4623,7 +4665,7 @@
         <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4634,7 +4676,7 @@
         <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4645,7 +4687,7 @@
         <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4656,7 +4698,7 @@
         <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4667,7 +4709,7 @@
         <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4678,7 +4720,7 @@
         <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4689,7 +4731,7 @@
         <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4700,7 +4742,7 @@
         <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4711,7 +4753,7 @@
         <v>227</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4722,7 +4764,7 @@
         <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4733,7 +4775,7 @@
         <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4744,7 +4786,7 @@
         <v>233</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4755,7 +4797,7 @@
         <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4766,7 +4808,7 @@
         <v>237</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4777,7 +4819,7 @@
         <v>239</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4788,7 +4830,7 @@
         <v>241</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4799,7 +4841,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4810,7 +4852,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4821,7 +4863,7 @@
         <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4832,7 +4874,7 @@
         <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4843,7 +4885,7 @@
         <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4854,7 +4896,7 @@
         <v>253</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4865,7 +4907,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4876,7 +4918,7 @@
         <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4887,7 +4929,7 @@
         <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4898,7 +4940,7 @@
         <v>261</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4909,7 +4951,7 @@
         <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4920,7 +4962,7 @@
         <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4931,7 +4973,7 @@
         <v>267</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4942,7 +4984,7 @@
         <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4950,43 +4992,43 @@
         <v>270</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" t="s">
         <v>273</v>
       </c>
-      <c r="B131" t="s">
-        <v>43</v>
-      </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>276</v>
+      </c>
+      <c r="C132" t="s">
         <v>274</v>
-      </c>
-      <c r="B132" t="s">
-        <v>275</v>
-      </c>
-      <c r="C132" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4997,7 +5039,7 @@
         <v>278</v>
       </c>
       <c r="C133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5008,7 +5050,7 @@
         <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5019,7 +5061,7 @@
         <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5030,7 +5072,7 @@
         <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5041,7 +5083,7 @@
         <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5052,7 +5094,7 @@
         <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5063,7 +5105,7 @@
         <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5074,7 +5116,7 @@
         <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5085,7 +5127,7 @@
         <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5096,7 +5138,7 @@
         <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5107,7 +5149,7 @@
         <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5118,7 +5160,7 @@
         <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5129,7 +5171,7 @@
         <v>302</v>
       </c>
       <c r="C145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5140,7 +5182,7 @@
         <v>304</v>
       </c>
       <c r="C146" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5151,7 +5193,7 @@
         <v>306</v>
       </c>
       <c r="C147" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5162,7 +5204,7 @@
         <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5173,7 +5215,7 @@
         <v>310</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5184,7 +5226,7 @@
         <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5195,7 +5237,7 @@
         <v>314</v>
       </c>
       <c r="C151" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5206,7 +5248,7 @@
         <v>316</v>
       </c>
       <c r="C152" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5217,7 +5259,7 @@
         <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5225,21 +5267,21 @@
         <v>319</v>
       </c>
       <c r="B154" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="C154" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B155" t="s">
         <v>321</v>
       </c>
-      <c r="B155" t="s">
-        <v>70</v>
-      </c>
       <c r="C155" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5250,7 +5292,7 @@
         <v>323</v>
       </c>
       <c r="C156" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5261,7 +5303,7 @@
         <v>325</v>
       </c>
       <c r="C157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5272,7 +5314,7 @@
         <v>327</v>
       </c>
       <c r="C158" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5283,7 +5325,7 @@
         <v>329</v>
       </c>
       <c r="C159" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5294,7 +5336,7 @@
         <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5305,7 +5347,7 @@
         <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5316,7 +5358,7 @@
         <v>335</v>
       </c>
       <c r="C162" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5327,7 +5369,7 @@
         <v>337</v>
       </c>
       <c r="C163" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5338,18 +5380,18 @@
         <v>339</v>
       </c>
       <c r="C164" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C165" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5360,7 +5402,7 @@
         <v>344</v>
       </c>
       <c r="C166" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5371,7 +5413,7 @@
         <v>346</v>
       </c>
       <c r="C167" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5382,7 +5424,7 @@
         <v>348</v>
       </c>
       <c r="C168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5393,7 +5435,7 @@
         <v>350</v>
       </c>
       <c r="C169" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5404,7 +5446,7 @@
         <v>352</v>
       </c>
       <c r="C170" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5415,7 +5457,7 @@
         <v>354</v>
       </c>
       <c r="C171" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5426,7 +5468,7 @@
         <v>356</v>
       </c>
       <c r="C172" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5437,7 +5479,7 @@
         <v>358</v>
       </c>
       <c r="C173" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5448,7 +5490,7 @@
         <v>360</v>
       </c>
       <c r="C174" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5459,7 +5501,7 @@
         <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5470,7 +5512,7 @@
         <v>364</v>
       </c>
       <c r="C176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5478,21 +5520,21 @@
         <v>365</v>
       </c>
       <c r="B177" t="s">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" t="s">
         <v>367</v>
       </c>
-      <c r="B178" t="s">
-        <v>43</v>
-      </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5514,40 +5556,40 @@
         <v>371</v>
       </c>
       <c r="C180" t="s">
-        <v>177</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B181" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C181" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B182" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B183" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s">
-        <v>380</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5558,7 +5600,7 @@
         <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5568,9 +5610,6 @@
       <c r="B185" t="s">
         <v>384</v>
       </c>
-      <c r="C185" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
@@ -5579,6 +5618,9 @@
       <c r="B186" t="s">
         <v>386</v>
       </c>
+      <c r="C186" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
@@ -5588,7 +5630,7 @@
         <v>388</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5610,7 +5652,7 @@
         <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5621,7 +5663,7 @@
         <v>394</v>
       </c>
       <c r="C190" t="s">
-        <v>154</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5631,9 +5673,6 @@
       <c r="B191" t="s">
         <v>396</v>
       </c>
-      <c r="C191" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
@@ -5771,9 +5810,6 @@
       <c r="B204" t="s">
         <v>420</v>
       </c>
-      <c r="C204" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
@@ -5782,6 +5818,9 @@
       <c r="B205" t="s">
         <v>422</v>
       </c>
+      <c r="C205" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
@@ -5790,35 +5829,35 @@
       <c r="B206" t="s">
         <v>424</v>
       </c>
-      <c r="C206" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
         <v>425</v>
       </c>
+      <c r="B207" t="s">
+        <v>426</v>
+      </c>
+      <c r="C207" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B208" t="s">
-        <v>427</v>
-      </c>
-      <c r="C208" t="s">
-        <v>167</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B209" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C209" t="s">
-        <v>430</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5840,7 +5879,7 @@
         <v>435</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5850,9 +5889,6 @@
       <c r="B212" t="s">
         <v>437</v>
       </c>
-      <c r="C212" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
@@ -5862,7 +5898,7 @@
         <v>439</v>
       </c>
       <c r="C213" t="s">
-        <v>412</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5873,7 +5909,7 @@
         <v>441</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5884,18 +5920,18 @@
         <v>443</v>
       </c>
       <c r="C215" t="s">
-        <v>444</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B216" t="s">
         <v>445</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>446</v>
-      </c>
-      <c r="C216" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5906,7 +5942,7 @@
         <v>448</v>
       </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5914,21 +5950,21 @@
         <v>449</v>
       </c>
       <c r="B218" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B219" t="s">
         <v>450</v>
       </c>
-      <c r="B219" t="s">
-        <v>451</v>
-      </c>
       <c r="C219" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5939,18 +5975,18 @@
         <v>453</v>
       </c>
       <c r="C220" t="s">
-        <v>454</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B221" t="s">
         <v>455</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>456</v>
-      </c>
-      <c r="C221" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5958,32 +5994,32 @@
         <v>457</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>458</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B224" t="s">
-        <v>460</v>
+        <v>37</v>
       </c>
       <c r="C224" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5994,7 +6030,7 @@
         <v>462</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6004,9 +6040,6 @@
       <c r="B226" t="s">
         <v>464</v>
       </c>
-      <c r="C226" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
@@ -6016,7 +6049,7 @@
         <v>466</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6038,7 +6071,7 @@
         <v>470</v>
       </c>
       <c r="C229" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6049,7 +6082,7 @@
         <v>472</v>
       </c>
       <c r="C230" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6071,7 +6104,7 @@
         <v>476</v>
       </c>
       <c r="C232" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6082,7 +6115,7 @@
         <v>478</v>
       </c>
       <c r="C233" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6093,7 +6126,7 @@
         <v>480</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6104,7 +6137,7 @@
         <v>482</v>
       </c>
       <c r="C235" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6126,7 +6159,7 @@
         <v>486</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6134,32 +6167,32 @@
         <v>487</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>488</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B239" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C239" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B240" t="s">
-        <v>491</v>
+        <v>37</v>
       </c>
       <c r="C240" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6170,7 +6203,7 @@
         <v>493</v>
       </c>
       <c r="C241" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6180,6 +6213,9 @@
       <c r="B242" t="s">
         <v>495</v>
       </c>
+      <c r="C242" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
@@ -6199,60 +6235,60 @@
       <c r="B244" t="s">
         <v>499</v>
       </c>
-      <c r="C244" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
         <v>500</v>
       </c>
       <c r="B245" t="s">
-        <v>189</v>
+        <v>501</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B246" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B247" t="s">
-        <v>504</v>
+        <v>189</v>
       </c>
       <c r="C247" t="s">
-        <v>505</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B248" t="s">
         <v>506</v>
       </c>
-      <c r="B248" t="s">
-        <v>507</v>
+      <c r="C248" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B249" t="s">
         <v>508</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>509</v>
-      </c>
-      <c r="C249" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6262,9 +6298,6 @@
       <c r="B250" t="s">
         <v>511</v>
       </c>
-      <c r="C250" t="s">
-        <v>505</v>
-      </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
@@ -6274,7 +6307,7 @@
         <v>513</v>
       </c>
       <c r="C251" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6285,7 +6318,7 @@
         <v>515</v>
       </c>
       <c r="C252" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6296,7 +6329,7 @@
         <v>517</v>
       </c>
       <c r="C253" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6307,7 +6340,7 @@
         <v>519</v>
       </c>
       <c r="C254" t="s">
-        <v>145</v>
+        <v>509</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6318,7 +6351,7 @@
         <v>521</v>
       </c>
       <c r="C255" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6329,7 +6362,7 @@
         <v>523</v>
       </c>
       <c r="C256" t="s">
-        <v>505</v>
+        <v>139</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6340,7 +6373,7 @@
         <v>525</v>
       </c>
       <c r="C257" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6351,7 +6384,7 @@
         <v>527</v>
       </c>
       <c r="C258" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6362,7 +6395,7 @@
         <v>529</v>
       </c>
       <c r="C259" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6373,7 +6406,7 @@
         <v>531</v>
       </c>
       <c r="C260" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6384,7 +6417,7 @@
         <v>533</v>
       </c>
       <c r="C261" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6395,7 +6428,7 @@
         <v>535</v>
       </c>
       <c r="C262" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6406,7 +6439,7 @@
         <v>537</v>
       </c>
       <c r="C263" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6417,7 +6450,7 @@
         <v>539</v>
       </c>
       <c r="C264" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6428,7 +6461,7 @@
         <v>541</v>
       </c>
       <c r="C265" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6439,7 +6472,7 @@
         <v>543</v>
       </c>
       <c r="C266" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6450,7 +6483,7 @@
         <v>545</v>
       </c>
       <c r="C267" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6461,7 +6494,7 @@
         <v>547</v>
       </c>
       <c r="C268" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6472,7 +6505,7 @@
         <v>549</v>
       </c>
       <c r="C269" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6483,7 +6516,7 @@
         <v>551</v>
       </c>
       <c r="C270" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6494,7 +6527,7 @@
         <v>553</v>
       </c>
       <c r="C271" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6505,7 +6538,7 @@
         <v>555</v>
       </c>
       <c r="C272" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6516,7 +6549,7 @@
         <v>557</v>
       </c>
       <c r="C273" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6527,7 +6560,7 @@
         <v>559</v>
       </c>
       <c r="C274" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6538,7 +6571,7 @@
         <v>561</v>
       </c>
       <c r="C275" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6549,7 +6582,7 @@
         <v>563</v>
       </c>
       <c r="C276" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6560,7 +6593,7 @@
         <v>565</v>
       </c>
       <c r="C277" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6571,7 +6604,7 @@
         <v>567</v>
       </c>
       <c r="C278" t="s">
-        <v>412</v>
+        <v>509</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6582,7 +6615,7 @@
         <v>569</v>
       </c>
       <c r="C279" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6593,7 +6626,7 @@
         <v>571</v>
       </c>
       <c r="C280" t="s">
-        <v>505</v>
+        <v>412</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6604,7 +6637,7 @@
         <v>573</v>
       </c>
       <c r="C281" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6615,7 +6648,7 @@
         <v>575</v>
       </c>
       <c r="C282" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6626,7 +6659,7 @@
         <v>577</v>
       </c>
       <c r="C283" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6634,32 +6667,32 @@
         <v>578</v>
       </c>
       <c r="B284" t="s">
-        <v>70</v>
+        <v>579</v>
       </c>
       <c r="C284" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B285" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C285" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B286" t="s">
-        <v>582</v>
+        <v>64</v>
       </c>
       <c r="C286" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6670,7 +6703,7 @@
         <v>584</v>
       </c>
       <c r="C287" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6681,7 +6714,7 @@
         <v>586</v>
       </c>
       <c r="C288" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6692,7 +6725,7 @@
         <v>588</v>
       </c>
       <c r="C289" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6703,7 +6736,7 @@
         <v>590</v>
       </c>
       <c r="C290" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6714,7 +6747,7 @@
         <v>592</v>
       </c>
       <c r="C291" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6725,7 +6758,7 @@
         <v>594</v>
       </c>
       <c r="C292" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6736,7 +6769,7 @@
         <v>596</v>
       </c>
       <c r="C293" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6747,7 +6780,7 @@
         <v>598</v>
       </c>
       <c r="C294" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6755,29 +6788,32 @@
         <v>599</v>
       </c>
       <c r="B295" t="s">
-        <v>43</v>
+        <v>600</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B296" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C296" t="s">
-        <v>154</v>
+        <v>509</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B297" t="s">
-        <v>603</v>
+        <v>37</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6788,7 +6824,7 @@
         <v>605</v>
       </c>
       <c r="C298" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6798,30 +6834,27 @@
       <c r="B299" t="s">
         <v>607</v>
       </c>
-      <c r="C299" t="s">
-        <v>608</v>
-      </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B300" t="s">
         <v>609</v>
       </c>
-      <c r="B300" t="s">
-        <v>610</v>
-      </c>
       <c r="C300" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B301" t="s">
         <v>611</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>612</v>
-      </c>
-      <c r="C301" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -6832,7 +6865,7 @@
         <v>614</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6843,29 +6876,29 @@
         <v>616</v>
       </c>
       <c r="C303" t="s">
-        <v>617</v>
+        <v>148</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B304" t="s">
         <v>618</v>
       </c>
-      <c r="B304" t="s">
-        <v>619</v>
-      </c>
       <c r="C304" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B305" t="s">
         <v>620</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>621</v>
-      </c>
-      <c r="C305" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6876,7 +6909,7 @@
         <v>623</v>
       </c>
       <c r="C306" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6884,98 +6917,92 @@
         <v>624</v>
       </c>
       <c r="B307" t="s">
-        <v>43</v>
+        <v>625</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B308" t="s">
-        <v>43</v>
+        <v>627</v>
       </c>
       <c r="C308" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B309" t="s">
-        <v>627</v>
+        <v>37</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B310" t="s">
-        <v>629</v>
-      </c>
-      <c r="C310" t="s">
-        <v>11</v>
+        <v>630</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B311" t="s">
-        <v>631</v>
-      </c>
-      <c r="C311" t="s">
-        <v>154</v>
+        <v>632</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B312" t="s">
-        <v>633</v>
+        <v>37</v>
       </c>
       <c r="C312" t="s">
-        <v>634</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B313" t="s">
         <v>635</v>
       </c>
-      <c r="B313" t="s">
-        <v>636</v>
-      </c>
       <c r="C313" t="s">
-        <v>634</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B314" t="s">
         <v>637</v>
       </c>
-      <c r="B314" t="s">
-        <v>638</v>
-      </c>
       <c r="C314" t="s">
-        <v>374</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B315" t="s">
         <v>639</v>
       </c>
-      <c r="B315" t="s">
-        <v>70</v>
-      </c>
       <c r="C315" t="s">
-        <v>412</v>
+        <v>148</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6986,37 +7013,40 @@
         <v>641</v>
       </c>
       <c r="C316" t="s">
-        <v>167</v>
+        <v>642</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B317" t="s">
+        <v>644</v>
+      </c>
+      <c r="C317" t="s">
         <v>642</v>
-      </c>
-      <c r="B317" t="s">
-        <v>643</v>
-      </c>
-      <c r="C317" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B318" t="s">
-        <v>645</v>
+        <v>646</v>
+      </c>
+      <c r="C318" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B319" t="s">
-        <v>647</v>
+        <v>64</v>
       </c>
       <c r="C319" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -7027,7 +7057,7 @@
         <v>649</v>
       </c>
       <c r="C320" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -7038,7 +7068,7 @@
         <v>651</v>
       </c>
       <c r="C321" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -7048,9 +7078,6 @@
       <c r="B322" t="s">
         <v>653</v>
       </c>
-      <c r="C322" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
@@ -7060,7 +7087,7 @@
         <v>655</v>
       </c>
       <c r="C323" t="s">
-        <v>634</v>
+        <v>167</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -7071,7 +7098,7 @@
         <v>657</v>
       </c>
       <c r="C324" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -7082,7 +7109,7 @@
         <v>659</v>
       </c>
       <c r="C325" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -7090,29 +7117,29 @@
         <v>660</v>
       </c>
       <c r="B326" t="s">
-        <v>43</v>
+        <v>661</v>
       </c>
       <c r="C326" t="s">
-        <v>11</v>
+        <v>642</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B327" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C327" t="s">
-        <v>167</v>
+        <v>642</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B328" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C328" t="s">
         <v>167</v>
@@ -7120,101 +7147,95 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B329" t="s">
-        <v>43</v>
+        <v>667</v>
       </c>
       <c r="C329" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B330" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B331" t="s">
-        <v>668</v>
-      </c>
-      <c r="C331" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B332" t="s">
-        <v>189</v>
-      </c>
-      <c r="C332" t="s">
-        <v>11</v>
+        <v>672</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B333" t="s">
-        <v>668</v>
+        <v>37</v>
       </c>
       <c r="C333" t="s">
-        <v>634</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B334" t="s">
-        <v>672</v>
+        <v>189</v>
       </c>
       <c r="C334" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B335" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C335" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B336" t="s">
-        <v>676</v>
+        <v>189</v>
       </c>
       <c r="C336" t="s">
-        <v>634</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B337" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C337" t="s">
-        <v>167</v>
+        <v>642</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -7225,7 +7246,7 @@
         <v>680</v>
       </c>
       <c r="C338" t="s">
-        <v>16</v>
+        <v>642</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -7233,18 +7254,18 @@
         <v>681</v>
       </c>
       <c r="B339" t="s">
-        <v>194</v>
+        <v>682</v>
       </c>
       <c r="C339" t="s">
-        <v>145</v>
+        <v>642</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B340" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C340" t="s">
         <v>167</v>
@@ -7252,24 +7273,24 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B341" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C341" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B342" t="s">
-        <v>687</v>
+        <v>194</v>
       </c>
       <c r="C342" t="s">
-        <v>617</v>
+        <v>139</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -7280,7 +7301,7 @@
         <v>689</v>
       </c>
       <c r="C343" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -7290,9 +7311,6 @@
       <c r="B344" t="s">
         <v>691</v>
       </c>
-      <c r="C344" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
@@ -7301,52 +7319,49 @@
       <c r="B345" t="s">
         <v>693</v>
       </c>
-      <c r="C345" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
         <v>694</v>
       </c>
       <c r="B346" t="s">
-        <v>189</v>
+        <v>695</v>
       </c>
       <c r="C346" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B347" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C347" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B348" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C348" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B349" t="s">
-        <v>700</v>
+        <v>189</v>
       </c>
       <c r="C349" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -7357,7 +7372,7 @@
         <v>702</v>
       </c>
       <c r="C350" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -7368,7 +7383,7 @@
         <v>704</v>
       </c>
       <c r="C351" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -7379,7 +7394,7 @@
         <v>706</v>
       </c>
       <c r="C352" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -7390,7 +7405,7 @@
         <v>708</v>
       </c>
       <c r="C353" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -7401,7 +7416,7 @@
         <v>710</v>
       </c>
       <c r="C354" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -7412,7 +7427,7 @@
         <v>712</v>
       </c>
       <c r="C355" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -7420,153 +7435,153 @@
         <v>713</v>
       </c>
       <c r="B356" t="s">
-        <v>714</v>
+        <v>64</v>
       </c>
       <c r="C356" t="s">
-        <v>167</v>
+        <v>412</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B357" t="s">
         <v>715</v>
       </c>
-      <c r="B357" t="s">
-        <v>716</v>
-      </c>
       <c r="C357" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B358" t="s">
         <v>717</v>
       </c>
-      <c r="B358" t="s">
-        <v>718</v>
-      </c>
       <c r="C358" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B359" t="s">
         <v>719</v>
       </c>
-      <c r="B359" t="s">
-        <v>720</v>
-      </c>
       <c r="C359" t="s">
-        <v>721</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B360" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C360" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B361" t="s">
+        <v>723</v>
+      </c>
+      <c r="C361" t="s">
         <v>724</v>
-      </c>
-      <c r="B361" t="s">
-        <v>725</v>
-      </c>
-      <c r="C361" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B362" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C362" t="s">
-        <v>412</v>
+        <v>167</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B363" t="s">
+        <v>728</v>
+      </c>
+      <c r="C363" t="s">
         <v>729</v>
-      </c>
-      <c r="B363" t="s">
-        <v>730</v>
-      </c>
-      <c r="C363" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B364" t="s">
         <v>731</v>
       </c>
-      <c r="B364" t="s">
-        <v>732</v>
-      </c>
       <c r="C364" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B365" t="s">
         <v>733</v>
       </c>
-      <c r="B365" t="s">
-        <v>734</v>
-      </c>
       <c r="C365" t="s">
-        <v>11</v>
+        <v>621</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B366" t="s">
         <v>735</v>
       </c>
-      <c r="B366" t="s">
-        <v>736</v>
-      </c>
       <c r="C366" t="s">
-        <v>737</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B367" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C367" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B368" t="s">
+        <v>739</v>
+      </c>
+      <c r="C368" t="s">
         <v>740</v>
-      </c>
-      <c r="B368" t="s">
-        <v>741</v>
-      </c>
-      <c r="C368" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B369" t="s">
         <v>742</v>
       </c>
-      <c r="B369" t="s">
-        <v>741</v>
-      </c>
       <c r="C369" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -7574,40 +7589,37 @@
         <v>743</v>
       </c>
       <c r="B370" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C370" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B371" t="s">
         <v>745</v>
-      </c>
-      <c r="B371" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B372" t="s">
         <v>747</v>
       </c>
-      <c r="B372" t="s">
-        <v>748</v>
-      </c>
       <c r="C372" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B373" t="s">
         <v>749</v>
-      </c>
-      <c r="B373" t="s">
-        <v>163</v>
-      </c>
-      <c r="C373" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7618,7 +7630,7 @@
         <v>751</v>
       </c>
       <c r="C374" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7626,84 +7638,84 @@
         <v>752</v>
       </c>
       <c r="B375" t="s">
-        <v>753</v>
+        <v>163</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B376" t="s">
         <v>754</v>
       </c>
-      <c r="B376" t="s">
-        <v>755</v>
-      </c>
       <c r="C376" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B377" t="s">
         <v>756</v>
       </c>
-      <c r="B377" t="s">
-        <v>757</v>
-      </c>
       <c r="C377" t="s">
-        <v>758</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B378" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C378" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B379" t="s">
+        <v>760</v>
+      </c>
+      <c r="C379" t="s">
         <v>761</v>
-      </c>
-      <c r="B379" t="s">
-        <v>762</v>
-      </c>
-      <c r="C379" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B380" t="s">
         <v>763</v>
       </c>
-      <c r="B380" t="s">
-        <v>764</v>
-      </c>
       <c r="C380" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B381" t="s">
         <v>765</v>
       </c>
-      <c r="B381" t="s">
-        <v>766</v>
-      </c>
       <c r="C381" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B382" t="s">
         <v>767</v>
-      </c>
-      <c r="B382" t="s">
-        <v>768</v>
       </c>
       <c r="C382" t="s">
         <v>167</v>
@@ -7711,87 +7723,90 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B383" t="s">
         <v>769</v>
       </c>
-      <c r="B383" t="s">
-        <v>770</v>
-      </c>
       <c r="C383" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B384" t="s">
         <v>771</v>
       </c>
-      <c r="B384" t="s">
-        <v>772</v>
-      </c>
       <c r="C384" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B385" t="s">
         <v>773</v>
       </c>
-      <c r="B385" t="s">
-        <v>774</v>
-      </c>
       <c r="C385" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B386" t="s">
         <v>775</v>
       </c>
-      <c r="B386" t="s">
-        <v>776</v>
-      </c>
       <c r="C386" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B387" t="s">
         <v>777</v>
       </c>
-      <c r="B387" t="s">
-        <v>778</v>
-      </c>
       <c r="C387" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B388" t="s">
         <v>779</v>
       </c>
-      <c r="B388" t="s">
-        <v>780</v>
-      </c>
       <c r="C388" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B389" t="s">
         <v>781</v>
       </c>
-      <c r="B389" t="s">
-        <v>782</v>
+      <c r="C389" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B390" t="s">
         <v>783</v>
       </c>
-      <c r="B390" t="s">
-        <v>163</v>
-      </c>
       <c r="C390" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7801,52 +7816,43 @@
       <c r="B391" t="s">
         <v>785</v>
       </c>
-      <c r="C391" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
         <v>786</v>
       </c>
       <c r="B392" t="s">
-        <v>787</v>
+        <v>163</v>
       </c>
       <c r="C392" t="s">
-        <v>617</v>
+        <v>164</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B393" t="s">
         <v>788</v>
-      </c>
-      <c r="B393" t="s">
-        <v>789</v>
-      </c>
-      <c r="C393" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B394" t="s">
         <v>790</v>
       </c>
-      <c r="B394" t="s">
-        <v>791</v>
-      </c>
       <c r="C394" t="s">
-        <v>167</v>
+        <v>621</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B395" t="s">
         <v>792</v>
-      </c>
-      <c r="B395" t="s">
-        <v>163</v>
-      </c>
-      <c r="C395" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7857,7 +7863,7 @@
         <v>794</v>
       </c>
       <c r="C396" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7868,7 +7874,7 @@
         <v>796</v>
       </c>
       <c r="C397" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7876,164 +7882,161 @@
         <v>797</v>
       </c>
       <c r="B398" t="s">
-        <v>798</v>
+        <v>163</v>
       </c>
       <c r="C398" t="s">
-        <v>726</v>
+        <v>164</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B399" t="s">
         <v>799</v>
       </c>
-      <c r="B399" t="s">
-        <v>800</v>
-      </c>
       <c r="C399" t="s">
-        <v>505</v>
+        <v>167</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B400" t="s">
         <v>801</v>
       </c>
-      <c r="B400" t="s">
-        <v>802</v>
-      </c>
       <c r="C400" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B401" t="s">
         <v>803</v>
       </c>
-      <c r="B401" t="s">
-        <v>804</v>
-      </c>
       <c r="C401" t="s">
-        <v>167</v>
+        <v>729</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B402" t="s">
         <v>805</v>
-      </c>
-      <c r="B402" t="s">
-        <v>806</v>
-      </c>
-      <c r="C402" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B403" t="s">
         <v>807</v>
       </c>
-      <c r="B403" t="s">
-        <v>808</v>
-      </c>
       <c r="C403" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B404" t="s">
         <v>809</v>
       </c>
-      <c r="B404" t="s">
-        <v>810</v>
-      </c>
       <c r="C404" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B405" t="s">
         <v>811</v>
       </c>
-      <c r="B405" t="s">
-        <v>812</v>
-      </c>
       <c r="C405" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B406" t="s">
         <v>813</v>
       </c>
-      <c r="B406" t="s">
-        <v>814</v>
-      </c>
       <c r="C406" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B407" t="s">
         <v>815</v>
       </c>
-      <c r="B407" t="s">
-        <v>816</v>
-      </c>
       <c r="C407" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B408" t="s">
         <v>817</v>
       </c>
-      <c r="B408" t="s">
-        <v>818</v>
-      </c>
       <c r="C408" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B409" t="s">
         <v>819</v>
       </c>
-      <c r="B409" t="s">
-        <v>820</v>
-      </c>
       <c r="C409" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B410" t="s">
         <v>821</v>
       </c>
-      <c r="B410" t="s">
-        <v>822</v>
-      </c>
       <c r="C410" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B411" t="s">
         <v>823</v>
       </c>
-      <c r="B411" t="s">
-        <v>824</v>
-      </c>
       <c r="C411" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B412" t="s">
         <v>825</v>
       </c>
-      <c r="B412" t="s">
-        <v>43</v>
-      </c>
       <c r="C412" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8044,7 +8047,7 @@
         <v>827</v>
       </c>
       <c r="C413" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -8054,96 +8057,90 @@
       <c r="B414" t="s">
         <v>829</v>
       </c>
-      <c r="C414" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
         <v>830</v>
       </c>
       <c r="B415" t="s">
-        <v>831</v>
+        <v>37</v>
       </c>
       <c r="C415" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B416" t="s">
         <v>832</v>
       </c>
-      <c r="B416" t="s">
-        <v>833</v>
-      </c>
       <c r="C416" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B417" t="s">
         <v>834</v>
       </c>
-      <c r="B417" t="s">
-        <v>835</v>
-      </c>
       <c r="C417" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B418" t="s">
         <v>836</v>
-      </c>
-      <c r="B418" t="s">
-        <v>837</v>
-      </c>
-      <c r="C418" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B419" t="s">
         <v>838</v>
       </c>
-      <c r="B419" t="s">
-        <v>839</v>
-      </c>
       <c r="C419" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B420" t="s">
         <v>840</v>
       </c>
-      <c r="B420" t="s">
-        <v>841</v>
-      </c>
       <c r="C420" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B421" t="s">
         <v>842</v>
       </c>
-      <c r="B421" t="s">
-        <v>843</v>
-      </c>
       <c r="C421" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B422" t="s">
         <v>844</v>
       </c>
-      <c r="B422" t="s">
-        <v>43</v>
-      </c>
       <c r="C422" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -8154,7 +8151,7 @@
         <v>846</v>
       </c>
       <c r="C423" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -8162,10 +8159,10 @@
         <v>847</v>
       </c>
       <c r="B424" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C424" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -8176,7 +8173,7 @@
         <v>849</v>
       </c>
       <c r="C425" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -8184,10 +8181,10 @@
         <v>850</v>
       </c>
       <c r="B426" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="C426" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -8198,7 +8195,7 @@
         <v>852</v>
       </c>
       <c r="C427" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -8206,21 +8203,21 @@
         <v>853</v>
       </c>
       <c r="B428" t="s">
-        <v>854</v>
+        <v>189</v>
       </c>
       <c r="C428" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B429" t="s">
         <v>855</v>
       </c>
-      <c r="B429" t="s">
-        <v>189</v>
-      </c>
       <c r="C429" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -8231,7 +8228,7 @@
         <v>857</v>
       </c>
       <c r="C430" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -8239,54 +8236,54 @@
         <v>858</v>
       </c>
       <c r="B431" t="s">
-        <v>859</v>
+        <v>189</v>
       </c>
       <c r="C431" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B432" t="s">
         <v>860</v>
       </c>
-      <c r="B432" t="s">
-        <v>861</v>
-      </c>
       <c r="C432" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B433" t="s">
         <v>862</v>
       </c>
-      <c r="B433" t="s">
-        <v>863</v>
-      </c>
       <c r="C433" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B434" t="s">
         <v>864</v>
       </c>
-      <c r="B434" t="s">
-        <v>865</v>
-      </c>
       <c r="C434" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B435" t="s">
         <v>866</v>
       </c>
-      <c r="B435" t="s">
-        <v>163</v>
-      </c>
       <c r="C435" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -8297,7 +8294,7 @@
         <v>868</v>
       </c>
       <c r="C436" t="s">
-        <v>617</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -8307,126 +8304,120 @@
       <c r="B437" t="s">
         <v>870</v>
       </c>
-      <c r="C437" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
         <v>871</v>
       </c>
       <c r="B438" t="s">
-        <v>872</v>
+        <v>163</v>
       </c>
       <c r="C438" t="s">
-        <v>617</v>
+        <v>164</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B439" t="s">
         <v>873</v>
       </c>
-      <c r="B439" t="s">
-        <v>874</v>
-      </c>
       <c r="C439" t="s">
-        <v>875</v>
+        <v>621</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B440" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C440" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B441" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C441" t="s">
-        <v>5</v>
+        <v>621</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B442" t="s">
-        <v>881</v>
-      </c>
-      <c r="C442" t="s">
-        <v>617</v>
+        <v>879</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B443" t="s">
+        <v>881</v>
+      </c>
+      <c r="C443" t="s">
         <v>882</v>
-      </c>
-      <c r="B443" t="s">
-        <v>883</v>
-      </c>
-      <c r="C443" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B444" t="s">
         <v>884</v>
       </c>
-      <c r="B444" t="s">
-        <v>885</v>
-      </c>
       <c r="C444" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B445" t="s">
         <v>886</v>
       </c>
-      <c r="B445" t="s">
-        <v>887</v>
-      </c>
       <c r="C445" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B446" t="s">
         <v>888</v>
       </c>
-      <c r="B446" t="s">
-        <v>889</v>
-      </c>
       <c r="C446" t="s">
-        <v>11</v>
+        <v>621</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B447" t="s">
         <v>890</v>
       </c>
-      <c r="B447" t="s">
-        <v>891</v>
-      </c>
       <c r="C447" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B448" t="s">
         <v>892</v>
-      </c>
-      <c r="B448" t="s">
-        <v>893</v>
       </c>
       <c r="C448" t="s">
         <v>11</v>
@@ -8434,153 +8425,150 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B449" t="s">
         <v>894</v>
       </c>
-      <c r="B449" t="s">
-        <v>895</v>
-      </c>
       <c r="C449" t="s">
-        <v>412</v>
+        <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B450" t="s">
         <v>896</v>
       </c>
-      <c r="B450" t="s">
-        <v>897</v>
-      </c>
       <c r="C450" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B451" t="s">
         <v>898</v>
       </c>
-      <c r="B451" t="s">
-        <v>899</v>
-      </c>
       <c r="C451" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B452" t="s">
         <v>900</v>
       </c>
-      <c r="B452" t="s">
-        <v>901</v>
-      </c>
       <c r="C452" t="s">
-        <v>902</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B453" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C453" t="s">
-        <v>617</v>
+        <v>412</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B454" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C454" t="s">
-        <v>726</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B455" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C455" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B456" t="s">
+        <v>908</v>
+      </c>
+      <c r="C456" t="s">
         <v>909</v>
-      </c>
-      <c r="B456" t="s">
-        <v>910</v>
-      </c>
-      <c r="C456" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" t="s">
         <v>911</v>
       </c>
-      <c r="B457" t="s">
-        <v>912</v>
-      </c>
       <c r="C457" t="s">
-        <v>167</v>
+        <v>621</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B458" t="s">
         <v>913</v>
       </c>
-      <c r="B458" t="s">
-        <v>914</v>
-      </c>
       <c r="C458" t="s">
-        <v>11</v>
+        <v>729</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B459" t="s">
         <v>915</v>
-      </c>
-      <c r="B459" t="s">
-        <v>916</v>
-      </c>
-      <c r="C459" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B460" t="s">
         <v>917</v>
       </c>
-      <c r="B460" t="s">
-        <v>918</v>
-      </c>
       <c r="C460" t="s">
-        <v>919</v>
+        <v>167</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B461" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C461" t="s">
-        <v>922</v>
+        <v>167</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B462" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C462" t="s">
         <v>167</v>
@@ -8588,62 +8576,65 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B463" t="s">
-        <v>926</v>
+        <v>923</v>
+      </c>
+      <c r="C463" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B464" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C464" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B465" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C465" t="s">
-        <v>11</v>
+        <v>928</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B466" t="s">
+        <v>930</v>
+      </c>
+      <c r="C466" t="s">
         <v>931</v>
-      </c>
-      <c r="B466" t="s">
-        <v>932</v>
-      </c>
-      <c r="C466" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B467" t="s">
         <v>933</v>
       </c>
-      <c r="B467" t="s">
-        <v>934</v>
+      <c r="C467" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B468" t="s">
         <v>935</v>
-      </c>
-      <c r="B468" t="s">
-        <v>43</v>
-      </c>
-      <c r="C468" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8654,7 +8645,7 @@
         <v>937</v>
       </c>
       <c r="C469" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8665,7 +8656,7 @@
         <v>939</v>
       </c>
       <c r="C470" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8676,7 +8667,7 @@
         <v>941</v>
       </c>
       <c r="C471" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8686,137 +8677,122 @@
       <c r="B472" t="s">
         <v>943</v>
       </c>
-      <c r="C472" t="s">
-        <v>944</v>
-      </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B473" t="s">
-        <v>946</v>
+        <v>37</v>
       </c>
       <c r="C473" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B474" t="s">
-        <v>948</v>
-      </c>
-      <c r="C474" t="s">
-        <v>5</v>
+        <v>946</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B475" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C475" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B476" t="s">
-        <v>952</v>
-      </c>
-      <c r="C476" t="s">
-        <v>167</v>
+        <v>950</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B477" t="s">
-        <v>954</v>
-      </c>
-      <c r="C477" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B478" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C478" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B479" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C479" t="s">
-        <v>11</v>
+        <v>957</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B480" t="s">
-        <v>961</v>
-      </c>
-      <c r="C480" t="s">
-        <v>167</v>
+        <v>959</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B481" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C481" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B482" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C482" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B483" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C483" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B484" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C484" t="s">
         <v>167</v>
@@ -8824,21 +8800,21 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B485" t="s">
+        <v>969</v>
+      </c>
+      <c r="C485" t="s">
         <v>970</v>
-      </c>
-      <c r="B485" t="s">
-        <v>971</v>
-      </c>
-      <c r="C485" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B486" t="s">
         <v>972</v>
-      </c>
-      <c r="B486" t="s">
-        <v>973</v>
       </c>
       <c r="C486" t="s">
         <v>167</v>
@@ -8846,120 +8822,120 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B487" t="s">
         <v>974</v>
       </c>
-      <c r="B487" t="s">
-        <v>975</v>
+      <c r="C487" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B488" t="s">
         <v>976</v>
       </c>
-      <c r="B488" t="s">
-        <v>977</v>
-      </c>
       <c r="C488" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B489" t="s">
         <v>978</v>
       </c>
-      <c r="B489" t="s">
-        <v>979</v>
-      </c>
       <c r="C489" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B490" t="s">
         <v>980</v>
       </c>
-      <c r="B490" t="s">
-        <v>981</v>
-      </c>
       <c r="C490" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B491" t="s">
         <v>982</v>
-      </c>
-      <c r="B491" t="s">
-        <v>983</v>
-      </c>
-      <c r="C491" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B492" t="s">
         <v>984</v>
       </c>
-      <c r="B492" t="s">
-        <v>985</v>
-      </c>
       <c r="C492" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B493" t="s">
         <v>986</v>
       </c>
-      <c r="B493" t="s">
-        <v>987</v>
-      </c>
       <c r="C493" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B494" t="s">
         <v>988</v>
       </c>
-      <c r="B494" t="s">
-        <v>989</v>
-      </c>
       <c r="C494" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B495" t="s">
         <v>990</v>
       </c>
-      <c r="B495" t="s">
-        <v>991</v>
-      </c>
       <c r="C495" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B496" t="s">
         <v>992</v>
       </c>
-      <c r="B496" t="s">
-        <v>993</v>
-      </c>
       <c r="C496" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B497" t="s">
         <v>994</v>
       </c>
-      <c r="B497" t="s">
-        <v>993</v>
-      </c>
       <c r="C497" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8970,7 +8946,7 @@
         <v>996</v>
       </c>
       <c r="C498" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -8981,7 +8957,7 @@
         <v>998</v>
       </c>
       <c r="C499" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8991,9 +8967,6 @@
       <c r="B500" t="s">
         <v>1000</v>
       </c>
-      <c r="C500" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
@@ -9003,7 +8976,7 @@
         <v>1002</v>
       </c>
       <c r="C501" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9014,7 +8987,7 @@
         <v>1004</v>
       </c>
       <c r="C502" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9025,7 +8998,7 @@
         <v>1006</v>
       </c>
       <c r="C503" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9035,9 +9008,6 @@
       <c r="B504" t="s">
         <v>1008</v>
       </c>
-      <c r="C504" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
@@ -9047,7 +9017,7 @@
         <v>1010</v>
       </c>
       <c r="C505" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9055,89 +9025,98 @@
         <v>1011</v>
       </c>
       <c r="B506" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C506" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B507" t="s">
         <v>1013</v>
       </c>
-      <c r="B507" t="s">
-        <v>1014</v>
-      </c>
       <c r="C507" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B508" t="s">
         <v>1015</v>
       </c>
-      <c r="B508" t="s">
-        <v>1016</v>
-      </c>
       <c r="C508" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B509" t="s">
         <v>1017</v>
       </c>
-      <c r="B509" t="s">
-        <v>1018</v>
+      <c r="C509" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B510" t="s">
         <v>1019</v>
       </c>
-      <c r="B510" t="s">
-        <v>1020</v>
+      <c r="C510" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B511" t="s">
         <v>1021</v>
       </c>
-      <c r="B511" t="s">
-        <v>1022</v>
-      </c>
       <c r="C511" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B512" t="s">
         <v>1023</v>
       </c>
-      <c r="B512" t="s">
-        <v>1024</v>
+      <c r="C512" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B513" t="s">
         <v>1025</v>
       </c>
-      <c r="B513" t="s">
-        <v>1026</v>
-      </c>
       <c r="C513" t="s">
-        <v>726</v>
+        <v>372</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B514" t="s">
         <v>1027</v>
       </c>
-      <c r="B514" t="s">
-        <v>189</v>
-      </c>
       <c r="C514" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -9148,7 +9127,7 @@
         <v>1029</v>
       </c>
       <c r="C515" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -9159,7 +9138,7 @@
         <v>1031</v>
       </c>
       <c r="C516" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9180,9 +9159,6 @@
       <c r="B518" t="s">
         <v>1035</v>
       </c>
-      <c r="C518" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="2" t="s">
@@ -9191,9 +9167,6 @@
       <c r="B519" t="s">
         <v>1037</v>
       </c>
-      <c r="C519" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="2" t="s">
@@ -9203,7 +9176,7 @@
         <v>1039</v>
       </c>
       <c r="C520" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -9213,9 +9186,6 @@
       <c r="B521" t="s">
         <v>1041</v>
       </c>
-      <c r="C521" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="2" t="s">
@@ -9224,9 +9194,6 @@
       <c r="B522" t="s">
         <v>1043</v>
       </c>
-      <c r="C522" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="2" t="s">
@@ -9236,7 +9203,7 @@
         <v>1045</v>
       </c>
       <c r="C523" t="s">
-        <v>11</v>
+        <v>729</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -9244,25 +9211,135 @@
         <v>1046</v>
       </c>
       <c r="B524" t="s">
-        <v>1047</v>
+        <v>189</v>
       </c>
       <c r="C524" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B525" t="s">
         <v>1048</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="C525" t="s">
-        <v>726</v>
+      <c r="B526" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C526" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C527" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C528" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C529" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C530" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C531" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C532" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C533" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C534" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C535" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D526"/>
+  <autoFilter ref="A1:D536"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
@@ -9329,10 +9406,10 @@
     <hyperlink ref="A64" r:id="rId63"/>
     <hyperlink ref="A65" r:id="rId64"/>
     <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A67" r:id="rId66" location="real-user-monitoring"/>
     <hyperlink ref="A68" r:id="rId67"/>
     <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69" location="real-user-monitoring"/>
+    <hyperlink ref="A70" r:id="rId69"/>
     <hyperlink ref="A71" r:id="rId70"/>
     <hyperlink ref="A72" r:id="rId71"/>
     <hyperlink ref="A73" r:id="rId72"/>
@@ -9442,8 +9519,8 @@
     <hyperlink ref="A177" r:id="rId176"/>
     <hyperlink ref="A178" r:id="rId177"/>
     <hyperlink ref="A179" r:id="rId178"/>
-    <hyperlink ref="A180" r:id="rId179"/>
-    <hyperlink ref="A181" r:id="rId180" location="containers"/>
+    <hyperlink ref="A180" r:id="rId179" location="containers"/>
+    <hyperlink ref="A181" r:id="rId180"/>
     <hyperlink ref="A182" r:id="rId181"/>
     <hyperlink ref="A183" r:id="rId182"/>
     <hyperlink ref="A184" r:id="rId183"/>
@@ -9466,8 +9543,8 @@
     <hyperlink ref="A201" r:id="rId200"/>
     <hyperlink ref="A202" r:id="rId201"/>
     <hyperlink ref="A203" r:id="rId202"/>
-    <hyperlink ref="A204" r:id="rId203" location="containers"/>
-    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204" location="containers"/>
     <hyperlink ref="A206" r:id="rId205"/>
     <hyperlink ref="A207" r:id="rId206"/>
     <hyperlink ref="A208" r:id="rId207"/>
@@ -9475,15 +9552,15 @@
     <hyperlink ref="A210" r:id="rId209"/>
     <hyperlink ref="A211" r:id="rId210"/>
     <hyperlink ref="A212" r:id="rId211"/>
-    <hyperlink ref="A213" r:id="rId212" location="containers"/>
-    <hyperlink ref="A214" r:id="rId213"/>
-    <hyperlink ref="A215" r:id="rId214" location="/esa-api-gateway/README.md"/>
-    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213" location="containers"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215" location="/esa-api-gateway/README.md"/>
     <hyperlink ref="A217" r:id="rId216"/>
     <hyperlink ref="A218" r:id="rId217"/>
     <hyperlink ref="A219" r:id="rId218"/>
-    <hyperlink ref="A220" r:id="rId219" location="/esa-solution-server/README.md"/>
-    <hyperlink ref="A221" r:id="rId220"/>
+    <hyperlink ref="A220" r:id="rId219"/>
+    <hyperlink ref="A221" r:id="rId220" location="/esa-solution-server/README.md"/>
     <hyperlink ref="A222" r:id="rId221"/>
     <hyperlink ref="A223" r:id="rId222"/>
     <hyperlink ref="A224" r:id="rId223"/>
@@ -9498,12 +9575,12 @@
     <hyperlink ref="A233" r:id="rId232"/>
     <hyperlink ref="A234" r:id="rId233"/>
     <hyperlink ref="A235" r:id="rId234"/>
-    <hyperlink ref="A236" r:id="rId235" location="java-and-scala"/>
-    <hyperlink ref="A237" r:id="rId236" location="java-and-scala"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="A237" r:id="rId236"/>
     <hyperlink ref="A238" r:id="rId237"/>
-    <hyperlink ref="A239" r:id="rId238" location="containers"/>
+    <hyperlink ref="A239" r:id="rId238"/>
     <hyperlink ref="A240" r:id="rId239"/>
-    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A241" r:id="rId240" location="containers"/>
     <hyperlink ref="A242" r:id="rId241"/>
     <hyperlink ref="A243" r:id="rId242"/>
     <hyperlink ref="A244" r:id="rId243"/>
@@ -9516,7 +9593,7 @@
     <hyperlink ref="A251" r:id="rId250"/>
     <hyperlink ref="A252" r:id="rId251"/>
     <hyperlink ref="A253" r:id="rId252"/>
-    <hyperlink ref="A254" r:id="rId253" location="real-user-monitoring"/>
+    <hyperlink ref="A254" r:id="rId253"/>
     <hyperlink ref="A255" r:id="rId254"/>
     <hyperlink ref="A256" r:id="rId255"/>
     <hyperlink ref="A257" r:id="rId256"/>
@@ -9562,9 +9639,9 @@
     <hyperlink ref="A297" r:id="rId296"/>
     <hyperlink ref="A298" r:id="rId297"/>
     <hyperlink ref="A299" r:id="rId298"/>
-    <hyperlink ref="A300" r:id="rId299" location="enhanced-insights-for-hdfs"/>
+    <hyperlink ref="A300" r:id="rId299"/>
     <hyperlink ref="A301" r:id="rId300"/>
-    <hyperlink ref="A302" r:id="rId301"/>
+    <hyperlink ref="A302" r:id="rId301" location="enhanced-insights-for-hdfs"/>
     <hyperlink ref="A303" r:id="rId302"/>
     <hyperlink ref="A304" r:id="rId303"/>
     <hyperlink ref="A305" r:id="rId304"/>
@@ -9579,7 +9656,7 @@
     <hyperlink ref="A314" r:id="rId313"/>
     <hyperlink ref="A315" r:id="rId314"/>
     <hyperlink ref="A316" r:id="rId315"/>
-    <hyperlink ref="A317" r:id="rId316" location="ibm-zos"/>
+    <hyperlink ref="A317" r:id="rId316"/>
     <hyperlink ref="A318" r:id="rId317"/>
     <hyperlink ref="A319" r:id="rId318"/>
     <hyperlink ref="A320" r:id="rId319"/>
@@ -9601,7 +9678,7 @@
     <hyperlink ref="A336" r:id="rId335"/>
     <hyperlink ref="A337" r:id="rId336"/>
     <hyperlink ref="A338" r:id="rId337"/>
-    <hyperlink ref="A339" r:id="rId338" location="real-user-monitoring"/>
+    <hyperlink ref="A339" r:id="rId338"/>
     <hyperlink ref="A340" r:id="rId339"/>
     <hyperlink ref="A341" r:id="rId340"/>
     <hyperlink ref="A342" r:id="rId341"/>
@@ -9641,21 +9718,21 @@
     <hyperlink ref="A376" r:id="rId375"/>
     <hyperlink ref="A377" r:id="rId376"/>
     <hyperlink ref="A378" r:id="rId377"/>
-    <hyperlink ref="A379" r:id="rId378" location="real-user-monitoring"/>
+    <hyperlink ref="A379" r:id="rId378"/>
     <hyperlink ref="A380" r:id="rId379"/>
     <hyperlink ref="A381" r:id="rId380"/>
     <hyperlink ref="A382" r:id="rId381"/>
     <hyperlink ref="A383" r:id="rId382"/>
-    <hyperlink ref="A384" r:id="rId383" location="real-user-monitoring"/>
+    <hyperlink ref="A384" r:id="rId383"/>
     <hyperlink ref="A385" r:id="rId384"/>
-    <hyperlink ref="A386" r:id="rId385" location="expand-2438example-add-new-endpoint-page"/>
+    <hyperlink ref="A386" r:id="rId385"/>
     <hyperlink ref="A387" r:id="rId386"/>
-    <hyperlink ref="A388" r:id="rId387"/>
+    <hyperlink ref="A388" r:id="rId387" location="expand-2438example-add-new-endpoint-page"/>
     <hyperlink ref="A389" r:id="rId388"/>
     <hyperlink ref="A390" r:id="rId389"/>
     <hyperlink ref="A391" r:id="rId390"/>
     <hyperlink ref="A392" r:id="rId391"/>
-    <hyperlink ref="A393" r:id="rId392" location="real-user-monitoring"/>
+    <hyperlink ref="A393" r:id="rId392"/>
     <hyperlink ref="A394" r:id="rId393"/>
     <hyperlink ref="A395" r:id="rId394"/>
     <hyperlink ref="A396" r:id="rId395"/>
@@ -9680,7 +9757,7 @@
     <hyperlink ref="A415" r:id="rId414"/>
     <hyperlink ref="A416" r:id="rId415"/>
     <hyperlink ref="A417" r:id="rId416"/>
-    <hyperlink ref="A418" r:id="rId417" location="real-user-monitoring"/>
+    <hyperlink ref="A418" r:id="rId417"/>
     <hyperlink ref="A419" r:id="rId418"/>
     <hyperlink ref="A420" r:id="rId419"/>
     <hyperlink ref="A421" r:id="rId420"/>
@@ -9786,8 +9863,18 @@
     <hyperlink ref="A521" r:id="rId520"/>
     <hyperlink ref="A522" r:id="rId521"/>
     <hyperlink ref="A523" r:id="rId522"/>
-    <hyperlink ref="A524" r:id="rId523" location="cshid=Dynatrace"/>
+    <hyperlink ref="A524" r:id="rId523"/>
     <hyperlink ref="A525" r:id="rId524"/>
+    <hyperlink ref="A526" r:id="rId525"/>
+    <hyperlink ref="A527" r:id="rId526"/>
+    <hyperlink ref="A528" r:id="rId527"/>
+    <hyperlink ref="A529" r:id="rId528"/>
+    <hyperlink ref="A530" r:id="rId529"/>
+    <hyperlink ref="A531" r:id="rId530"/>
+    <hyperlink ref="A532" r:id="rId531"/>
+    <hyperlink ref="A533" r:id="rId532"/>
+    <hyperlink ref="A534" r:id="rId533" location="cshid=Dynatrace"/>
+    <hyperlink ref="A535" r:id="rId534"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/HubSummaryFromAPI.xlsx
+++ b/docs/HubSummaryFromAPI.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Hub Summary from API" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary from API'!$A$1:$D$536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Summary from API'!$A$1:$D$535</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1065">
   <si>
     <t>Technology</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Active Directory services</t>
   </si>
   <si>
-    <t>Monitor the health and improve the performance of Microsoft Active Directory services.</t>
+    <t>Monitor the health and performance of Microsoft Active Directory services.</t>
   </si>
   <si>
     <t>Configure the extension under Settings &gt; Monitoring &gt; Monitored technologies.</t>
@@ -298,12 +298,6 @@
     <t>Service for building conversational interfaces for applications using voice and text.</t>
   </si>
   <si>
-    <t>Amazon Managed Service for Prometheus</t>
-  </si>
-  <si>
-    <t>Ingest metrics from Amazon Managed Prometheus to Dynatrace.</t>
-  </si>
-  <si>
     <t>Amazon MQ</t>
   </si>
   <si>
@@ -430,33 +424,27 @@
     <t>Enables you to provision virtual, cloud-based Microsoft Windows or Amazon Linux desktops, known as WorkSpaces.</t>
   </si>
   <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>Accelerated Mobile Pages performance monitoring to ensure perfect user experience.</t>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Monitor mobile applications that are running on the popular Android operating system.</t>
+  </si>
+  <si>
+    <t>Android Webkit</t>
+  </si>
+  <si>
+    <t>Provides tools for browsing the web.</t>
+  </si>
+  <si>
+    <t>AngularJS</t>
+  </si>
+  <si>
+    <t>JavaScript-based open-source front-end web framework mainly maintained by Google.</t>
   </si>
   <si>
     <t>Install OneAgent on web/application servers and configure RUM.</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Monitor mobile applications that are running on the popular Android operating system.</t>
-  </si>
-  <si>
-    <t>Android Webkit</t>
-  </si>
-  <si>
-    <t>Provides tools for browsing the web.</t>
-  </si>
-  <si>
-    <t>AngularJS</t>
-  </si>
-  <si>
-    <t>JavaScript-based open-source front-end web framework mainly maintained by Google.</t>
-  </si>
-  <si>
     <t>Ansible</t>
   </si>
   <si>
@@ -508,696 +496,717 @@
     <t>Apache Cassandra</t>
   </si>
   <si>
+    <t>Improve Apache Cassandra observability</t>
+  </si>
+  <si>
+    <t>Install OneAgent in Infrastructure only mode and configure built-in extension, if applicable.</t>
+  </si>
+  <si>
+    <t>Apache Cordova</t>
+  </si>
+  <si>
+    <t>Monitor hybrid mobile apps built with Cordova running on iOS or Android.</t>
+  </si>
+  <si>
+    <t>Apache CouchDB</t>
+  </si>
+  <si>
     <t>Automatically and intelligently observe, analyze and optimize how your the usage, health and performance of your database.</t>
   </si>
   <si>
-    <t>Install OneAgent in Infrastructure only mode and configure built-in extension, if applicable.</t>
-  </si>
-  <si>
-    <t>Apache Cassandra (Remote)</t>
-  </si>
-  <si>
-    <t>Remotely gain insights into your Cassandra cluster health and performance.</t>
+    <t>Apache CXF</t>
+  </si>
+  <si>
+    <t>Open-source, fully featured Web services framework.</t>
+  </si>
+  <si>
+    <t>Apache HTTP Server</t>
+  </si>
+  <si>
+    <t>Develop and maintain an open-source HTTP server.</t>
+  </si>
+  <si>
+    <t>Apache JMeter</t>
+  </si>
+  <si>
+    <t>Build management and continuous integration server from JetBrains.</t>
+  </si>
+  <si>
+    <t>Requires DevOps integration. See Hub link for more details.</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent observability with trace and metric insights.</t>
+  </si>
+  <si>
+    <t>Apache OpenEJB</t>
+  </si>
+  <si>
+    <t>Automatically and intelligently monitor, analyze and optimize your applications based on Apache OpenEJB.</t>
+  </si>
+  <si>
+    <t>Apache Solr</t>
+  </si>
+  <si>
+    <t>Open-source enterprise-search platform, written in Java, from the Apache Lucene project.</t>
+  </si>
+  <si>
+    <t>Apache Spark</t>
+  </si>
+  <si>
+    <t>Distributed general-purpose cluster-computing framework for programming entire clusters.</t>
+  </si>
+  <si>
+    <t>Apache Tomcat</t>
+  </si>
+  <si>
+    <t>Automatically and intelligently monitor, analyze, and optimize your application server and all applications deployed anywhere in your stack.</t>
+  </si>
+  <si>
+    <t>Apache TomEE</t>
+  </si>
+  <si>
+    <t>Apigee</t>
+  </si>
+  <si>
+    <t>Remotely monitor your Apigee proxies.</t>
+  </si>
+  <si>
+    <t>Apple Safari</t>
+  </si>
+  <si>
+    <t>Graphical web browser developed by Apple, based on the WebKit engine.</t>
+  </si>
+  <si>
+    <t>Atlassian Bamboo</t>
+  </si>
+  <si>
+    <t>Continuous integration and continuous deployment server developed by Atlassian.</t>
+  </si>
+  <si>
+    <t>Atlassian JIRA</t>
+  </si>
+  <si>
+    <t>Issue tracking product that allows bug tracking and agile project management.</t>
+  </si>
+  <si>
+    <t>Attacks</t>
+  </si>
+  <si>
+    <t>Get a real-time overview of all the attacks on your environment.</t>
+  </si>
+  <si>
+    <t>AutoUpdate Manager</t>
+  </si>
+  <si>
+    <t>Control your AutoUpdate settings at large scale</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Reliable, scalable, and inexpensive cloud computing services with pay-as-you-go pricing approach.</t>
+  </si>
+  <si>
+    <t>Configure integration.</t>
+  </si>
+  <si>
+    <t>AWS AppSync</t>
+  </si>
+  <si>
+    <t>Enterprise-level, fully managed GraphQL service with real-time data synchronization and offline programming features.</t>
+  </si>
+  <si>
+    <t>AWS Billing and Cost Management</t>
+  </si>
+  <si>
+    <t>The service that you use to pay your AWS bill, monitor usage, and analyze and control costs.</t>
+  </si>
+  <si>
+    <t>AWS Chatbot</t>
+  </si>
+  <si>
+    <t>Enables DevOps to use Amazon Chime and Slack chat rooms to monitor and respond to events.</t>
+  </si>
+  <si>
+    <t>AWS CloudHSM</t>
+  </si>
+  <si>
+    <t>Hardware security modules (HSM) in the AWS Cloud.</t>
+  </si>
+  <si>
+    <t>AWS CodeDeploy</t>
+  </si>
+  <si>
+    <t>Fully managed service that automates software deployments to a variety of compute services.</t>
+  </si>
+  <si>
+    <t>AWS CodePipeline</t>
+  </si>
+  <si>
+    <t>Continuous delivery service automating release pipelines for application and infrastructure updates.</t>
+  </si>
+  <si>
+    <t>AWS Database Migration Service</t>
+  </si>
+  <si>
+    <t>Makes it easy to migrate relational databases, and other types of data stores.</t>
+  </si>
+  <si>
+    <t>AWS DataSync</t>
+  </si>
+  <si>
+    <t>Transfer service designed to simplify and automate copying large amounts of data to and from AWS services.</t>
+  </si>
+  <si>
+    <t>AWS Direct Connect</t>
+  </si>
+  <si>
+    <t>Links your internal network to an AWS Direct Connect location over a standard Ethernet fiber-optic cable.</t>
+  </si>
+  <si>
+    <t>AWS Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Quickly deploy and manage applications in the AWS Cloud without having to learn about the infrastructure beneath.</t>
+  </si>
+  <si>
+    <t>AWS Elastic Load Balancing</t>
+  </si>
+  <si>
+    <t>Automatically distributes incoming application traffic across multiple targets.</t>
+  </si>
+  <si>
+    <t>AWS Elemental MediaConnect</t>
+  </si>
+  <si>
+    <t>Service that makes it easy for broadcasters and other premium video providers to reliably ingest live video into the AWS Cloud.</t>
+  </si>
+  <si>
+    <t>AWS Elemental MediaConvert</t>
+  </si>
+  <si>
+    <t>File-based video processing service that provides scalable video processing for content owners and distributors.</t>
+  </si>
+  <si>
+    <t>AWS Elemental MediaPackage</t>
+  </si>
+  <si>
+    <t>Just-in-time video packaging and origination service that runs in the AWS Cloud.</t>
+  </si>
+  <si>
+    <t>AWS Elemental MediaTailor</t>
+  </si>
+  <si>
+    <t>Scalable ad insertion service that runs in the AWS Cloud.</t>
+  </si>
+  <si>
+    <t>AWS Entities for Metric Streaming</t>
+  </si>
+  <si>
+    <t>Analyse metrics in the context of an entity based on AWS Metric Streaming.</t>
+  </si>
+  <si>
+    <t>AWS Fargate</t>
+  </si>
+  <si>
+    <t>Intelligent end-to-end observability for serverless and hybrid environments using AWS Fargate.</t>
+  </si>
+  <si>
+    <t>AWS Glue</t>
+  </si>
+  <si>
+    <t>Fully managed extract, transform, and load (ETL) service.</t>
+  </si>
+  <si>
+    <t>AWS IoT</t>
+  </si>
+  <si>
+    <t>Run local compute, messaging, data caching, and machine learning inference capabilities.</t>
+  </si>
+  <si>
+    <t>AWS IoT Analytics</t>
+  </si>
+  <si>
+    <t>Automates the steps required to analyze data from IoT devices.</t>
+  </si>
+  <si>
+    <t>AWS IoT Things Graph</t>
+  </si>
+  <si>
+    <t>Orchestration service that simplifies development of IoT applications.</t>
+  </si>
+  <si>
+    <t>AWS Lambda</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent end-to-end observability for AWS Lambda traces.</t>
+  </si>
+  <si>
+    <t>AWS logs via CloudWatch</t>
+  </si>
+  <si>
+    <t>Stream logs from AWS services via Amazon CloudWatch into Dynatrace.</t>
+  </si>
+  <si>
+    <t>AWS OpsWorks</t>
+  </si>
+  <si>
+    <t>Configuration management service that helps you configure and operate applications by using Puppet or Chef.</t>
+  </si>
+  <si>
+    <t>AWS Outposts</t>
+  </si>
+  <si>
+    <t>Fully managed service that extends AWS infrastructure, AWS services, APIs, and much more.</t>
+  </si>
+  <si>
+    <t>AWS PrivateLink</t>
+  </si>
+  <si>
+    <t>Provides private connectivity between VPCs, AWS services, and on-premises applications.</t>
+  </si>
+  <si>
+    <t>AWS RoboMaker</t>
+  </si>
+  <si>
+    <t>Service that makes it easy to create robotics applications at scale.</t>
+  </si>
+  <si>
+    <t>AWS Service Catalog</t>
+  </si>
+  <si>
+    <t>Enables organizations to create and manage catalogs of IT services that are approved for use on AWS.</t>
+  </si>
+  <si>
+    <t>AWS Site-to-Site VPN</t>
+  </si>
+  <si>
+    <t>Allows connecting and routing  from your VPC to your remote network.</t>
+  </si>
+  <si>
+    <t>AWS Step Functions</t>
+  </si>
+  <si>
+    <t>Enables you to coordinate the components of distributed applications and microservices using visual workflows.</t>
+  </si>
+  <si>
+    <t>AWS Storage Gateway</t>
+  </si>
+  <si>
+    <t>Connects an on-premises software appliance with cloud-based storage to provide data security.</t>
+  </si>
+  <si>
+    <t>AWS Systems Manager</t>
+  </si>
+  <si>
+    <t>View and control your infrastructure on AWS using Systems Manager.</t>
+  </si>
+  <si>
+    <t>AWS Transit Gateway</t>
+  </si>
+  <si>
+    <t>Network transit hub interconnecting virtual private clouds (VPC) and on-premises networks.</t>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor</t>
+  </si>
+  <si>
+    <t>Identifies ways to reduce cost, increase performance, and improve security for your AWS account.</t>
+  </si>
+  <si>
+    <t>AWS Web Application Firewall (WAF)</t>
+  </si>
+  <si>
+    <t>Web application firewall that lets you monitor the HTTP(S) requests.</t>
+  </si>
+  <si>
+    <t>Azul Platform Core (Zulu)</t>
+  </si>
+  <si>
+    <t>Azul Platform Prime (Zing)</t>
+  </si>
+  <si>
+    <t>Azure API Management</t>
+  </si>
+  <si>
+    <t>Create consistent and modern API gateways for existing back-end services.</t>
+  </si>
+  <si>
+    <t>Perform Azure Integration and add this service to monitoring.</t>
+  </si>
+  <si>
+    <t>Azure App Configuration</t>
+  </si>
+  <si>
+    <t>Service to provide centrally managed application settings and feature flags.</t>
+  </si>
+  <si>
+    <t>Azure Application Gateway</t>
+  </si>
+  <si>
+    <t>Web traffic load balancer that enables you to manage traffic to your web applications.</t>
+  </si>
+  <si>
+    <t>Azure App Service</t>
+  </si>
+  <si>
+    <t>Intelligent end-to-end observability for serverless and hybrid environments using Azure App Services.</t>
+  </si>
+  <si>
+    <t>Azure Batch</t>
+  </si>
+  <si>
+    <t>Get complete picture of jobs, tasks and node tracking, in each state, for operational efficiency.</t>
+  </si>
+  <si>
+    <t>Azure Blob Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles stored objects, with millions of requests per second, for customers around the world. </t>
+  </si>
+  <si>
+    <t>Azure Cache for Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry-standard SSL to secure your data in transit and Azure Storage disk encryption at rest. </t>
+  </si>
+  <si>
+    <t>Azure Cloud Services (Classic)</t>
+  </si>
+  <si>
+    <t>Deploy web apps (web roles) and background services (worker roles) onto Azure virtual machines.</t>
+  </si>
+  <si>
+    <t>Azure Computer Vision</t>
+  </si>
+  <si>
+    <t>AI service to boost content discoverability, automate text extraction, analyze video in real time, and more.</t>
+  </si>
+  <si>
+    <t>Azure Container Registries</t>
+  </si>
+  <si>
+    <t>Managed, private Docker registry service based on the open-source Docker Registry 2.0.</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB</t>
+  </si>
+  <si>
+    <t>Fully managed and serverless distributed database supporting open-source PostgreSQL, MongoDB, and Apache Cassandra.</t>
+  </si>
+  <si>
+    <t>Azure Custom Vision Prediction</t>
+  </si>
+  <si>
+    <t>Customize computer vision for specific domain. No machine learning expertise is required.</t>
+  </si>
+  <si>
+    <t>Azure Database for Maria DB</t>
+  </si>
+  <si>
+    <t>Full coverage of performance for critical workloads with AI-problem detection, availability, and more.</t>
+  </si>
+  <si>
+    <t>Azure Database for MySQL</t>
+  </si>
+  <si>
+    <t>Full observability of MySQL servers and database instances to ensure database health and performance.</t>
+  </si>
+  <si>
+    <t>Azure Database for PostgreSQL</t>
+  </si>
+  <si>
+    <t>Full insight into database performance for critical workloads with AI-problem detection and more.</t>
+  </si>
+  <si>
+    <t>Azure Data Lake Analytics</t>
+  </si>
+  <si>
+    <t>Distributed, cloud-based data processing architecture offered by Microsoft in the Azure cloud.</t>
+  </si>
+  <si>
+    <t>Azure Disk Storage</t>
+  </si>
+  <si>
+    <t>Cloud storage offering providing multiple solutions for organizations.</t>
+  </si>
+  <si>
+    <t>Azure File Storage</t>
+  </si>
+  <si>
+    <t>Fully managed file shareing in the cloud.</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>Intelligent end-to-end observability for serverless and hybrid environments using Azure Functions.</t>
+  </si>
+  <si>
+    <t>Azure HDInsight</t>
+  </si>
+  <si>
+    <t>Holistic analytics of HDInsights with integrated metrics from Hadoop, Spark, and Kafka, all in one place.</t>
+  </si>
+  <si>
+    <t>Azure Integration Service Environment</t>
+  </si>
+  <si>
+    <t>Allows you to deploy Logic Apps as a service in your Azure Virtual Network.</t>
+  </si>
+  <si>
+    <t>Azure IoT Hub</t>
+  </si>
+  <si>
+    <t>Cloud-hosted solution backend to connect virtually any device.</t>
+  </si>
+  <si>
+    <t>Azure Key Vault</t>
+  </si>
+  <si>
+    <t>Cloud service within you can securely store keys, passwords, certificates, and other secrets.</t>
+  </si>
+  <si>
+    <t>Azure Kubernetes Service (AKS)</t>
+  </si>
+  <si>
+    <t>Azure Load Balancer</t>
+  </si>
+  <si>
+    <t>Layer-4 load balancer that provides high availability by distributing incoming traffic among VMs.</t>
+  </si>
+  <si>
+    <t>Azure logs</t>
+  </si>
+  <si>
+    <t>Get insights from Azure logs with Log Management and Analytics.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning</t>
+  </si>
+  <si>
+    <t>Collection of services and tools intended to help developers train and deploy machine learning models.</t>
+  </si>
+  <si>
+    <t>Azure Managed Instance for Apache Cassandra</t>
+  </si>
+  <si>
+    <t>Ingest metrics from Azure Managed Instance for Apache Cassandra to gain insights into your cluster's health and performance.</t>
+  </si>
+  <si>
+    <t>Azure Media Services</t>
+  </si>
+  <si>
+    <t>Cloud-based platform to build solutions that achieve broadcast-quality video streaming.</t>
+  </si>
+  <si>
+    <t>Azure NetApp Capacity Pool</t>
+  </si>
+  <si>
+    <t>Enterprise-class, high-performance, metered file storage service.</t>
+  </si>
+  <si>
+    <t>Azure NetApp files</t>
+  </si>
+  <si>
+    <t>File-storage service to run your most demanding file-workloads in Azure, without the need for any code modification.</t>
+  </si>
+  <si>
+    <t>Azure Notification Hub Namespaces</t>
+  </si>
+  <si>
+    <t>Push engine that allows you to send notifications to any platform from any backend (cloud or on-premises).</t>
+  </si>
+  <si>
+    <t>Azure Queue Storage</t>
+  </si>
+  <si>
+    <t>Service for storing large numbers of messages that can be accessed from anywhere in the world.</t>
+  </si>
+  <si>
+    <t>Azure Relays</t>
+  </si>
+  <si>
+    <t>Enables you to securely expose services that run in your corporate network to the public cloud.</t>
+  </si>
+  <si>
+    <t>Azure Service Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud messaging as a service (MaaS) and simple hybrid integration. </t>
+  </si>
+  <si>
+    <t>Perform Azure Integration.</t>
+  </si>
+  <si>
+    <t>Azure Service-Fabric</t>
+  </si>
+  <si>
+    <t>Intelligent end-to-end observability for serverless and hybrid environments using Azure Service Fabric.</t>
+  </si>
+  <si>
+    <t>Azure SignalR</t>
+  </si>
+  <si>
+    <t>Adding real-time communications to your web application is as simple as provisioning a service.</t>
+  </si>
+  <si>
+    <t>Azure Spring Apps</t>
+  </si>
+  <si>
+    <t>Brings modern microservice patterns to Spring Boot apps eliminating boilerplate code to quickly develop robust Java apps.</t>
+  </si>
+  <si>
+    <t>Azure SQL Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed cloud database provided as part of Microsoft Azure. </t>
+  </si>
+  <si>
+    <t>Azure SQL Managed</t>
+  </si>
+  <si>
+    <t>Full observability into cloud database performance and automated monitoring for Azure SQL Managed.</t>
+  </si>
+  <si>
+    <t>Azure SQL Server Stratch</t>
+  </si>
+  <si>
+    <t>Dynamically stretch warm and cold transactional data from SQL Server 2016 to Azure.</t>
+  </si>
+  <si>
+    <t>Azure Table Storage</t>
+  </si>
+  <si>
+    <t>Stores structured NoSQL data in the cloud, providing a key/attribute store with a schemaless design.</t>
+  </si>
+  <si>
+    <t>Azure Traffic Manager</t>
+  </si>
+  <si>
+    <t>Multi-cloud support for improved application performance and availability with distributed tracing.</t>
+  </si>
+  <si>
+    <t>Azure Virtual Machines</t>
+  </si>
+  <si>
+    <t>Intelligent end-to-end observability for cloud environments using Azure Virtual machines.</t>
+  </si>
+  <si>
+    <t>Azure Virtual Machine Scale Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale-out workloads, stateless web front ends, container orchestration, and microservices clusters. </t>
+  </si>
+  <si>
+    <t>Azure Virtual machines (classic)</t>
+  </si>
+  <si>
+    <t>Deep observability into Azure cloud service virtual machines and applications.</t>
+  </si>
+  <si>
+    <t>Azure Virtual Network Gateway</t>
+  </si>
+  <si>
+    <t>Monitor connecting workloads and performance to ensure Azure network is successfully connected.</t>
+  </si>
+  <si>
+    <t>BellSoft Liberica</t>
+  </si>
+  <si>
+    <t>Bitbucket</t>
+  </si>
+  <si>
+    <t>Version control repository service for source code thas use either Mercurial or Git systems.</t>
+  </si>
+  <si>
+    <t>Blazemeter</t>
+  </si>
+  <si>
+    <t>Commercial, self-service load testing platform as a service.</t>
+  </si>
+  <si>
+    <t>BOSH bpm</t>
+  </si>
+  <si>
+    <t>Automated monitoring of platform processes running in BOSH bpm containers.</t>
+  </si>
+  <si>
+    <t>Set up Dynatrace on Cloud Foundry. See Hub link for more details.</t>
+  </si>
+  <si>
+    <t>Business events</t>
+  </si>
+  <si>
+    <t>Business events deliver real-time business observability to business and IT teams with precision and context for data-driven decisions.</t>
+  </si>
+  <si>
+    <t>If GRAIL is active, see link for details on configuring business events.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Procedural programming language supporting lexical variable scope, and recursion.</t>
+  </si>
+  <si>
+    <t>Use the Dynatrace SDK.</t>
+  </si>
+  <si>
+    <t>CakePHP</t>
+  </si>
+  <si>
+    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with CakePHP.</t>
+  </si>
+  <si>
+    <t>CentOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community-supported computing platform compatible with Red Hat Enterprise Linux. </t>
+  </si>
+  <si>
+    <t>Ceph storage</t>
+  </si>
+  <si>
+    <t>This extension provides ability to monitor usage of Ceph storage system. It covers both client side and host level in-depth data.</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Configuration management tool.</t>
+  </si>
+  <si>
+    <t>Citrix Netscaler ADC</t>
+  </si>
+  <si>
+    <t>Remotely monitor your Citrix NetScaler devices</t>
+  </si>
+  <si>
+    <t>Citrix Virtual Apps and Desktops</t>
+  </si>
+  <si>
+    <t>Gain insight into your Citrix Virtual Apps and Desktops environments</t>
   </si>
   <si>
     <t>Install extension.</t>
   </si>
   <si>
-    <t>Apache Cordova</t>
-  </si>
-  <si>
-    <t>Monitor hybrid mobile apps built with Cordova running on iOS or Android.</t>
-  </si>
-  <si>
-    <t>Apache CouchDB</t>
-  </si>
-  <si>
-    <t>Apache CXF</t>
-  </si>
-  <si>
-    <t>Open-source, fully featured Web services framework.</t>
-  </si>
-  <si>
-    <t>Apache HTTP Server</t>
-  </si>
-  <si>
-    <t>Develop and maintain an open-source HTTP server.</t>
-  </si>
-  <si>
-    <t>Apache JMeter</t>
-  </si>
-  <si>
-    <t>Build management and continuous integration server from JetBrains.</t>
-  </si>
-  <si>
-    <t>Requires DevOps integration. See Hub link for more details.</t>
-  </si>
-  <si>
-    <t>Apache Kafka</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent observability for Apache Kafka with trace and metric insights.</t>
-  </si>
-  <si>
-    <t>Apache OpenEJB</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze and optimize your applications based on Apache OpenEJB.</t>
-  </si>
-  <si>
-    <t>Apache Solr</t>
-  </si>
-  <si>
-    <t>Open-source enterprise-search platform, written in Java, from the Apache Lucene project.</t>
-  </si>
-  <si>
-    <t>Apache Spark</t>
-  </si>
-  <si>
-    <t>Distributed general-purpose cluster-computing framework for programming entire clusters.</t>
-  </si>
-  <si>
-    <t>Apache Storm</t>
-  </si>
-  <si>
-    <t>ActiveGate extension for monitoring the free and open source distributed realtime computation system Apache Storm.</t>
-  </si>
-  <si>
-    <t>Apache Tomcat</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize your application server and all applications deployed anywhere in your stack.</t>
-  </si>
-  <si>
-    <t>Apache TomEE</t>
-  </si>
-  <si>
-    <t>Apigee</t>
-  </si>
-  <si>
-    <t>Remotely monitor your Apigee Edge, Apigee X or Apigee Private Cloud proxies.</t>
-  </si>
-  <si>
-    <t>Apple Safari</t>
-  </si>
-  <si>
-    <t>Graphical web browser developed by Apple, based on the WebKit engine.</t>
-  </si>
-  <si>
-    <t>Atlassian Bamboo</t>
-  </si>
-  <si>
-    <t>Continuous integration and continuous deployment server developed by Atlassian.</t>
-  </si>
-  <si>
-    <t>Atlassian JIRA</t>
-  </si>
-  <si>
-    <t>Issue tracking product that allows bug tracking and agile project management.</t>
-  </si>
-  <si>
-    <t>Attacks</t>
-  </si>
-  <si>
-    <t>Get a real-time overview of all the attacks on your environment.</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Reliable, scalable, and inexpensive cloud computing services with pay-as-you-go pricing approach.</t>
-  </si>
-  <si>
-    <t>Configure integration.</t>
-  </si>
-  <si>
-    <t>AWS AppSync</t>
-  </si>
-  <si>
-    <t>Enterprise-level, fully managed GraphQL service with real-time data synchronization and offline programming features.</t>
-  </si>
-  <si>
-    <t>AWS Billing and Cost Management</t>
-  </si>
-  <si>
-    <t>The service that you use to pay your AWS bill, monitor usage, and analyze and control costs.</t>
-  </si>
-  <si>
-    <t>AWS Chatbot</t>
-  </si>
-  <si>
-    <t>Enables DevOps to use Amazon Chime and Slack chat rooms to monitor and respond to events.</t>
-  </si>
-  <si>
-    <t>AWS CloudHSM</t>
-  </si>
-  <si>
-    <t>Hardware security modules (HSM) in the AWS Cloud.</t>
-  </si>
-  <si>
-    <t>AWS CodeDeploy</t>
-  </si>
-  <si>
-    <t>Fully managed service that automates software deployments to a variety of compute services.</t>
-  </si>
-  <si>
-    <t>AWS CodePipeline</t>
-  </si>
-  <si>
-    <t>Continuous delivery service automating release pipelines for application and infrastructure updates.</t>
-  </si>
-  <si>
-    <t>AWS Database Migration Service</t>
-  </si>
-  <si>
-    <t>Makes it easy to migrate relational databases, and other types of data stores.</t>
-  </si>
-  <si>
-    <t>AWS DataSync</t>
-  </si>
-  <si>
-    <t>Transfer service designed to simplify and automate copying large amounts of data to and from AWS services.</t>
-  </si>
-  <si>
-    <t>AWS Direct Connect</t>
-  </si>
-  <si>
-    <t>Links your internal network to an AWS Direct Connect location over a standard Ethernet fiber-optic cable.</t>
-  </si>
-  <si>
-    <t>AWS Elastic Beanstalk</t>
-  </si>
-  <si>
-    <t>Quickly deploy and manage applications in the AWS Cloud without having to learn about the infrastructure beneath.</t>
-  </si>
-  <si>
-    <t>AWS Elastic Load Balancing</t>
-  </si>
-  <si>
-    <t>Automatically distributes incoming application traffic across multiple targets.</t>
-  </si>
-  <si>
-    <t>AWS Elemental MediaConnect</t>
-  </si>
-  <si>
-    <t>Service that makes it easy for broadcasters and other premium video providers to reliably ingest live video into the AWS Cloud.</t>
-  </si>
-  <si>
-    <t>AWS Elemental MediaConvert</t>
-  </si>
-  <si>
-    <t>File-based video processing service that provides scalable video processing for content owners and distributors.</t>
-  </si>
-  <si>
-    <t>AWS Elemental MediaPackage</t>
-  </si>
-  <si>
-    <t>Just-in-time video packaging and origination service that runs in the AWS Cloud.</t>
-  </si>
-  <si>
-    <t>AWS Elemental MediaTailor</t>
-  </si>
-  <si>
-    <t>Scalable ad insertion service that runs in the AWS Cloud.</t>
-  </si>
-  <si>
-    <t>AWS Fargate</t>
-  </si>
-  <si>
-    <t>Intelligent end-to-end observability for serverless and hybrid environments using AWS Fargate.</t>
-  </si>
-  <si>
-    <t>AWS Glue</t>
-  </si>
-  <si>
-    <t>Fully managed extract, transform, and load (ETL) service.</t>
-  </si>
-  <si>
-    <t>AWS IoT</t>
-  </si>
-  <si>
-    <t>Run local compute, messaging, data caching, and machine learning inference capabilities.</t>
-  </si>
-  <si>
-    <t>AWS IoT Analytics</t>
-  </si>
-  <si>
-    <t>Automates the steps required to analyze data from IoT devices.</t>
-  </si>
-  <si>
-    <t>AWS IoT Things Graph</t>
-  </si>
-  <si>
-    <t>Orchestration service that simplifies development of IoT applications.</t>
-  </si>
-  <si>
-    <t>AWS Lambda</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent end-to-end observability for AWS Lambda traces.</t>
-  </si>
-  <si>
-    <t>AWS OpsWorks</t>
-  </si>
-  <si>
-    <t>Configuration management service that helps you configure and operate applications by using Puppet or Chef.</t>
-  </si>
-  <si>
-    <t>AWS Outposts</t>
-  </si>
-  <si>
-    <t>Fully managed service that extends AWS infrastructure, AWS services, APIs, and much more.</t>
-  </si>
-  <si>
-    <t>AWS PrivateLink</t>
-  </si>
-  <si>
-    <t>Provides private connectivity between VPCs, AWS services, and on-premises applications.</t>
-  </si>
-  <si>
-    <t>AWS RoboMaker</t>
-  </si>
-  <si>
-    <t>Service that makes it easy to create robotics applications at scale.</t>
-  </si>
-  <si>
-    <t>AWS Service Catalog</t>
-  </si>
-  <si>
-    <t>Enables organizations to create and manage catalogs of IT services that are approved for use on AWS.</t>
-  </si>
-  <si>
-    <t>AWS Site-to-Site VPN</t>
-  </si>
-  <si>
-    <t>Allows connecting and routing  from your VPC to your remote network.</t>
-  </si>
-  <si>
-    <t>AWS Step Functions</t>
-  </si>
-  <si>
-    <t>Enables you to coordinate the components of distributed applications and microservices using visual workflows.</t>
-  </si>
-  <si>
-    <t>AWS Storage Gateway</t>
-  </si>
-  <si>
-    <t>Connects an on-premises software appliance with cloud-based storage to provide data security.</t>
-  </si>
-  <si>
-    <t>AWS Systems Manager</t>
-  </si>
-  <si>
-    <t>View and control your infrastructure on AWS using Systems Manager.</t>
-  </si>
-  <si>
-    <t>AWS Transit Gateway</t>
-  </si>
-  <si>
-    <t>Network transit hub interconnecting virtual private clouds (VPC) and on-premises networks.</t>
-  </si>
-  <si>
-    <t>AWS Trusted Advisor</t>
-  </si>
-  <si>
-    <t>Identifies ways to reduce cost, increase performance, and improve security for your AWS account.</t>
-  </si>
-  <si>
-    <t>AWS Web Application Firewall (WAF)</t>
-  </si>
-  <si>
-    <t>Web application firewall that lets you monitor the HTTP(S) requests.</t>
-  </si>
-  <si>
-    <t>Azul Platform Core (Zulu)</t>
-  </si>
-  <si>
-    <t>Azul Platform Prime (Zing)</t>
-  </si>
-  <si>
-    <t>Azure API Management</t>
-  </si>
-  <si>
-    <t>Create consistent and modern API gateways for existing back-end services.</t>
-  </si>
-  <si>
-    <t>Perform Azure Integration and add this service to monitoring.</t>
-  </si>
-  <si>
-    <t>Azure App Configuration</t>
-  </si>
-  <si>
-    <t>Service to provide centrally managed application settings and feature flags.</t>
-  </si>
-  <si>
-    <t>Azure Application Gateway</t>
-  </si>
-  <si>
-    <t>Web traffic load balancer that enables you to manage traffic to your web applications.</t>
-  </si>
-  <si>
-    <t>Azure App Service</t>
-  </si>
-  <si>
-    <t>Intelligent end-to-end observability for serverless and hybrid environments using Azure App Services.</t>
-  </si>
-  <si>
-    <t>Azure Batch</t>
-  </si>
-  <si>
-    <t>Get complete picture of jobs, tasks and node tracking, in each state, for operational efficiency.</t>
-  </si>
-  <si>
-    <t>Azure Blob Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handles stored objects, with millions of requests per second, for customers around the world. </t>
-  </si>
-  <si>
-    <t>Azure Cache for Redis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry-standard SSL to secure your data in transit and Azure Storage disk encryption at rest. </t>
-  </si>
-  <si>
-    <t>Azure Cloud Services (Classic)</t>
-  </si>
-  <si>
-    <t>Deploy web apps (web roles) and background services (worker roles) onto Azure virtual machines.</t>
-  </si>
-  <si>
-    <t>Azure Computer Vision</t>
-  </si>
-  <si>
-    <t>AI service to boost content discoverability, automate text extraction, analyze video in real time, and more.</t>
-  </si>
-  <si>
-    <t>Azure Container Registries</t>
-  </si>
-  <si>
-    <t>Managed, private Docker registry service based on the open-source Docker Registry 2.0.</t>
-  </si>
-  <si>
-    <t>Azure Cosmos DB</t>
-  </si>
-  <si>
-    <t>Fully managed and serverless distributed database supporting open-source PostgreSQL, MongoDB, and Apache Cassandra.</t>
-  </si>
-  <si>
-    <t>Azure Custom Vision Prediction</t>
-  </si>
-  <si>
-    <t>Customize computer vision for specific domain. No machine learning expertise is required.</t>
-  </si>
-  <si>
-    <t>Azure Database for Maria DB</t>
-  </si>
-  <si>
-    <t>Full coverage of performance for critical workloads with AI-problem detection, availability, and more.</t>
-  </si>
-  <si>
-    <t>Azure Database for MySQL</t>
-  </si>
-  <si>
-    <t>Full observability of MySQL servers and database instances to ensure database health and performance.</t>
-  </si>
-  <si>
-    <t>Azure Database for PostgreSQL</t>
-  </si>
-  <si>
-    <t>Full insight into database performance for critical workloads with AI-problem detection and more.</t>
-  </si>
-  <si>
-    <t>Azure Data Lake Analytics</t>
-  </si>
-  <si>
-    <t>Distributed, cloud-based data processing architecture offered by Microsoft in the Azure cloud.</t>
-  </si>
-  <si>
-    <t>Azure Disk Storage</t>
-  </si>
-  <si>
-    <t>Cloud storage offering providing multiple solutions for organizations.</t>
-  </si>
-  <si>
-    <t>Azure File Storage</t>
-  </si>
-  <si>
-    <t>Fully managed file shareing in the cloud.</t>
-  </si>
-  <si>
-    <t>Azure Functions</t>
-  </si>
-  <si>
-    <t>Intelligent end-to-end observability for serverless and hybrid environments using Azure Functions.</t>
-  </si>
-  <si>
-    <t>Azure HDInsight</t>
-  </si>
-  <si>
-    <t>Holistic analytics of HDInsights with integrated metrics from Hadoop, Spark, and Kafka, all in one place.</t>
-  </si>
-  <si>
-    <t>Azure Integration Service Environment</t>
-  </si>
-  <si>
-    <t>Allows you to deploy Logic Apps as a service in your Azure Virtual Network.</t>
-  </si>
-  <si>
-    <t>Azure IoT Hub</t>
-  </si>
-  <si>
-    <t>Cloud-hosted solution backend to connect virtually any device.</t>
-  </si>
-  <si>
-    <t>Azure Key Vault</t>
-  </si>
-  <si>
-    <t>Cloud service within you can securely store keys, passwords, certificates, and other secrets.</t>
-  </si>
-  <si>
-    <t>Azure Kubernetes Service</t>
-  </si>
-  <si>
-    <t>Azure Load Balancer</t>
-  </si>
-  <si>
-    <t>Layer-4 load balancer that provides high availability by distributing incoming traffic among VMs.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning</t>
-  </si>
-  <si>
-    <t>Collection of services and tools intended to help developers train and deploy machine learning models.</t>
-  </si>
-  <si>
-    <t>Azure Managed Instance for Apache Cassandra</t>
-  </si>
-  <si>
-    <t>Ingest metrics from Azure Managed Instance for Apache Cassandra to gain insights into your cluster's health and performance.</t>
-  </si>
-  <si>
-    <t>Azure Media Services</t>
-  </si>
-  <si>
-    <t>Cloud-based platform to build solutions that achieve broadcast-quality video streaming.</t>
-  </si>
-  <si>
-    <t>Azure NetApp Capacity Pool</t>
-  </si>
-  <si>
-    <t>Enterprise-class, high-performance, metered file storage service.</t>
-  </si>
-  <si>
-    <t>Azure NetApp files</t>
-  </si>
-  <si>
-    <t>File-storage service to run your most demanding file-workloads in Azure, without the need for any code modification.</t>
-  </si>
-  <si>
-    <t>Azure Notification Hub Namespaces</t>
-  </si>
-  <si>
-    <t>Push engine that allows you to send notifications to any platform from any backend (cloud or on-premises).</t>
-  </si>
-  <si>
-    <t>Azure Queue Storage</t>
-  </si>
-  <si>
-    <t>Service for storing large numbers of messages that can be accessed from anywhere in the world.</t>
-  </si>
-  <si>
-    <t>Azure Relays</t>
-  </si>
-  <si>
-    <t>Enables you to securely expose services that run in your corporate network to the public cloud.</t>
-  </si>
-  <si>
-    <t>Azure Service Bus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud messaging as a service (MaaS) and simple hybrid integration. </t>
-  </si>
-  <si>
-    <t>Perform Azure Integration.</t>
-  </si>
-  <si>
-    <t>Azure Service-Fabric</t>
-  </si>
-  <si>
-    <t>Intelligent end-to-end observability for serverless and hybrid environments using Azure Service Fabric.</t>
-  </si>
-  <si>
-    <t>Azure SignalR</t>
-  </si>
-  <si>
-    <t>Adding real-time communications to your web application is as simple as provisioning a service.</t>
-  </si>
-  <si>
-    <t>Azure Spring Apps</t>
-  </si>
-  <si>
-    <t>Brings modern microservice patterns to Spring Boot apps eliminating boilerplate code to quickly develop robust Java apps.</t>
-  </si>
-  <si>
-    <t>Azure SQL Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed cloud database provided as part of Microsoft Azure. </t>
-  </si>
-  <si>
-    <t>Azure SQL Managed</t>
-  </si>
-  <si>
-    <t>Full observability into cloud database performance and automated monitoring for Azure SQL Managed.</t>
-  </si>
-  <si>
-    <t>Azure SQL Server Stratch</t>
-  </si>
-  <si>
-    <t>Dynamically stretch warm and cold transactional data from SQL Server 2016 to Azure.</t>
-  </si>
-  <si>
-    <t>Azure Table Storage</t>
-  </si>
-  <si>
-    <t>Stores structured NoSQL data in the cloud, providing a key/attribute store with a schemaless design.</t>
-  </si>
-  <si>
-    <t>Azure Traffic Manager</t>
-  </si>
-  <si>
-    <t>Multi-cloud support for improved application performance and availability with distributed tracing.</t>
-  </si>
-  <si>
-    <t>Azure Virtual Machines</t>
-  </si>
-  <si>
-    <t>Intelligent end-to-end observability for cloud environments using Azure Virtual machines.</t>
-  </si>
-  <si>
-    <t>Azure Virtual Machine Scale Sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale-out workloads, stateless web front ends, container orchestration, and microservices clusters. </t>
-  </si>
-  <si>
-    <t>Azure Virtual machines (classic)</t>
-  </si>
-  <si>
-    <t>Deep observability into Azure cloud service virtual machines and applications.</t>
-  </si>
-  <si>
-    <t>Azure Virtual Network Gateway</t>
-  </si>
-  <si>
-    <t>Monitor connecting workloads and performance to ensure Azure network is successfully connected.</t>
-  </si>
-  <si>
-    <t>BellSoft Liberica</t>
-  </si>
-  <si>
-    <t>Bitbucket</t>
-  </si>
-  <si>
-    <t>Version control repository service for source code thas use either Mercurial or Git systems.</t>
-  </si>
-  <si>
-    <t>Blazemeter</t>
-  </si>
-  <si>
-    <t>Commercial, self-service load testing platform as a service.</t>
-  </si>
-  <si>
-    <t>BOSH bpm</t>
-  </si>
-  <si>
-    <t>Automated monitoring of platform processes running in BOSH bpm containers.</t>
-  </si>
-  <si>
-    <t>Set up Dynatrace on Cloud Foundry. See Hub link for more details.</t>
-  </si>
-  <si>
-    <t>Business events</t>
-  </si>
-  <si>
-    <t>Business events deliver real-time business observability to business and IT teams with precision and context for data-driven decisions.</t>
-  </si>
-  <si>
-    <t>If GRAIL is active, see link for details on configuring business events.</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Procedural programming language supporting lexical variable scope, and recursion.</t>
-  </si>
-  <si>
-    <t>Use the Dynatrace SDK.</t>
-  </si>
-  <si>
-    <t>CakePHP</t>
-  </si>
-  <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with CakePHP.</t>
-  </si>
-  <si>
-    <t>CentOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community-supported computing platform compatible with Red Hat Enterprise Linux. </t>
-  </si>
-  <si>
-    <t>Ceph storage</t>
-  </si>
-  <si>
-    <t>This extension provides ability to monitor usage of Ceph storage system. It covers both client side and host level in-depth data.</t>
-  </si>
-  <si>
-    <t>Chef</t>
-  </si>
-  <si>
-    <t>Configuration management tool.</t>
-  </si>
-  <si>
-    <t>Citrix NetScaler ADC</t>
-  </si>
-  <si>
-    <t>All-in-one web ADC that makes applications run up to five times faster.</t>
-  </si>
-  <si>
-    <t>Citrix Virtual Apps and Desktops</t>
-  </si>
-  <si>
-    <t>Gain insight into your Citrix Virtual Apps and Desktops environments</t>
-  </si>
-  <si>
     <t>Cloud Automation Control Plane</t>
   </si>
   <si>
     <t>Enable Dynatrace for automation of release validation, problem remediation, and orchestration of your software development lifecycle tools.</t>
   </si>
   <si>
+    <t>Cloudflare (extension)</t>
+  </si>
+  <si>
+    <t>Collect notification history and various metrics from your Cloudflare accounts.</t>
+  </si>
+  <si>
     <t>Cloud Foundry</t>
   </si>
   <si>
@@ -1225,13 +1234,13 @@
     <t>Confluent Cloud (Kafka)</t>
   </si>
   <si>
-    <t>Remotely monitor your Confluent Cloud Kafka Cluster and other resources with this Prometheus based Extension 2.0.</t>
+    <t>Remotely monitor your Confluent Cloud Kafka Clusters and other resources!</t>
   </si>
   <si>
     <t>Connection Pools: JBoss</t>
   </si>
   <si>
-    <t>Application server method of pooling and sharing multiple connections to a database.</t>
+    <t>Application server method of pooling and sharing connections to a database.</t>
   </si>
   <si>
     <t>Connection Pools: Tomcat</t>
@@ -1273,7 +1282,7 @@
     <t>Couchbase</t>
   </si>
   <si>
-    <t>Automatically and intelligently observe, analyze and optimize how your the usage, health and performance of your NoSQL database.</t>
+    <t>Automatically observe the usage, health and performance of your database.</t>
   </si>
   <si>
     <t>Credential vault</t>
@@ -1288,10 +1297,16 @@
     <t>Automated distributed tracing and metrics for microservices running in cri-o containers in Kubernetes.</t>
   </si>
   <si>
-    <t>Custom Database Queries</t>
-  </si>
-  <si>
-    <t>Make generic databases queries to your Oracle, Postgres, MSSQL, MySQL, DB2, Informix or SAP HANA databases and send the metrics to Dynatrace</t>
+    <t>Custom database extension</t>
+  </si>
+  <si>
+    <t>Execute generic database queries and ingest metrics and logs to Dynatrace</t>
+  </si>
+  <si>
+    <t>Custom Database Queries (deprecated)</t>
+  </si>
+  <si>
+    <t>Make generic databases queries and send the data to Dynatrace as metrics.</t>
   </si>
   <si>
     <t>Custom Data ingest via API</t>
@@ -1303,13 +1318,13 @@
     <t>Custom frontend monitoring</t>
   </si>
   <si>
-    <t>Monitor your custom frontend applications with our OpenKit library.</t>
+    <t>Monitor custom frontend applications with our open source OpenKit library.</t>
   </si>
   <si>
     <t>Databricks</t>
   </si>
   <si>
-    <t>Use this extension to ingest metrics from your Databricks Clusters via the embedded Ganglia metric repository.</t>
+    <t>Ingest metrics from your Databricks Clusters via the embedded Ganglia API!</t>
   </si>
   <si>
     <t>DC/OS</t>
@@ -1327,10 +1342,10 @@
     <t xml:space="preserve">Association of individuals who have made common cause to create a free operating system. </t>
   </si>
   <si>
-    <t>Dell EMC Isilon</t>
-  </si>
-  <si>
-    <t>Monitor your Dell EMC Isilon clusters through the OneFS API</t>
+    <t>Dell EMC Isilon - PowerScale</t>
+  </si>
+  <si>
+    <t>Monitor your Dell EMC Isilon / Powerscale clusters through the OneFS API</t>
   </si>
   <si>
     <t>Disk Analytics</t>
@@ -1393,7 +1408,7 @@
     <t>Eclipse Jetty</t>
   </si>
   <si>
-    <t>Automatically and intelligently monitor, analyze, and optimize your applications developed with Jetty.</t>
+    <t>Automatically and intelligently monitor and analyze your Jetty applications.</t>
   </si>
   <si>
     <t>Eclipse OpenJ9</t>
@@ -1405,7 +1420,7 @@
     <t>Elasticsearch</t>
   </si>
   <si>
-    <t>Monitor your Elasticsearch Clusters, Nodes, and Indexes to identify the root cause of potential performance issues.</t>
+    <t>Monitor Elasticsearch Clusters, Nodes, Indexes, remotely or locally, via API.</t>
   </si>
   <si>
     <t>Envoy</t>
@@ -1435,13 +1450,13 @@
     <t>Extensions Health</t>
   </si>
   <si>
-    <t>Reporting health of deployed extensions and additionally showing used resources (CPU and memory) and top data point contributors.</t>
-  </si>
-  <si>
-    <t>F5 BIG-IP LTM</t>
-  </si>
-  <si>
-    <t>Monitor your F5 BIG-IP Local Traffic Manager (LTM) platform remotely and gain insights into the health and performance of these devices.</t>
+    <t>Reporting health and resource consumption of deployed extensions.</t>
+  </si>
+  <si>
+    <t>F5 BIG-IP</t>
+  </si>
+  <si>
+    <t>Gain insights into the performance of your F5 BIG-IP LTM and DNS solutions.</t>
   </si>
   <si>
     <t>Fedora</t>
@@ -1453,7 +1468,7 @@
     <t>Filesystem monitoring</t>
   </si>
   <si>
-    <t>Monitor your files and folders. Deploy to hundreds of hosts automatically in minutes.</t>
+    <t>Monitor your files and folders.</t>
   </si>
   <si>
     <t>Fluent Bit</t>
@@ -1519,10 +1534,10 @@
     <t>Enable monitoring on any front end (desktop app, ATM, bus ticketing machine,...) with our open-source OpenKit library.</t>
   </si>
   <si>
-    <t>Generic Linux Commands</t>
-  </si>
-  <si>
-    <t>Remotely execute commands on your Linux hosts (over SSH). Baseline and alert on your KPIs through metrics created from the command output.</t>
+    <t>Generic log ingestion API</t>
+  </si>
+  <si>
+    <t>Stream your log records to Dynatrace via generic log ingest API</t>
   </si>
   <si>
     <t>Generic network device</t>
@@ -1636,7 +1651,7 @@
     <t>Google Cloud Functions</t>
   </si>
   <si>
-    <t>Intelligent end-to-end observability for serverless and hybrid environments using Google Functions.</t>
+    <t>E2E observability for serverless and hybrid environments using Google Functions.</t>
   </si>
   <si>
     <t>Google Cloud IoT Core</t>
@@ -1663,10 +1678,10 @@
     <t>Get insights into Google Cloud Router service metrics collected from the Google Operations API to ensure health of the cloud infrastructure.</t>
   </si>
   <si>
-    <t>Google Cloud Run. Monitor with GCP integration</t>
-  </si>
-  <si>
-    <t>Get insights into Google Cloud Run service metrics collected from the Google Operations API to ensure health of your cloud infrastructure.</t>
+    <t>Google Cloud Run</t>
+  </si>
+  <si>
+    <t>Get insights into Google Cloud Run service metrics.</t>
   </si>
   <si>
     <t>Google Cloud's operations suite</t>
@@ -1723,10 +1738,10 @@
     <t>Service component of Google Cloud Platform, built on the global infrastructure.</t>
   </si>
   <si>
-    <t>Google Compute Engine. Monitor with GCP integration</t>
-  </si>
-  <si>
-    <t>Get insights into Google Compute Engine metrics collected from the Google Operations API to ensure health of your cloud infrastructure.</t>
+    <t>Google Compute Engine (GCP integration)</t>
+  </si>
+  <si>
+    <t>Gather Google Compute Engine metrics collected from the Google Operations API</t>
   </si>
   <si>
     <t>Google Container-optimized OS</t>
@@ -1765,13 +1780,13 @@
     <t>Get insights into Google Hybrid Connectivity metrics collected from the Google Operations API to ensure health of your cloud infrastructure.</t>
   </si>
   <si>
-    <t>Google Kubernetes Engine</t>
-  </si>
-  <si>
-    <t>Google Kubernetes Engine (GKE). Monitor with GCP integration</t>
-  </si>
-  <si>
-    <t>Get insights into Google Kubernetes Engine metrics collected from the Google Operations API to ensure health of your cloud infrastructure.</t>
+    <t>Google Kubernetes Engine (GKE)</t>
+  </si>
+  <si>
+    <t>Google Kubernetes (GKE) GCP integration</t>
+  </si>
+  <si>
+    <t>Insights into GKE metrics collected from the Google Operations API.</t>
   </si>
   <si>
     <t>Google Managed Microsoft AD</t>
@@ -1858,16 +1873,10 @@
     <t>Install OneAgent and turn on gRPC OneAgent feature for language.</t>
   </si>
   <si>
-    <t>Hadoop HDFS</t>
-  </si>
-  <si>
-    <t>The Hadoop Distributed File System (HDFS) is a distributed file system designed for high throughput, large application data sets.</t>
-  </si>
-  <si>
-    <t>Hadoop YARN</t>
-  </si>
-  <si>
-    <t>Collection of utilities that allows to solve problems involving massive amounts of data.</t>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>Enhanced insights for Hadoop HDFS and Yarn services</t>
   </si>
   <si>
     <t>HAProxy</t>
@@ -1963,10 +1972,10 @@
     <t>IBM Cloud Kubernetes Service</t>
   </si>
   <si>
-    <t>IBM DataPower</t>
-  </si>
-  <si>
-    <t>Enables the classification of data requests based on service and application-level information.</t>
+    <t>IBM Datapower</t>
+  </si>
+  <si>
+    <t>Enable remote monitoring of your DataPower gateways with this extension.</t>
   </si>
   <si>
     <t>IBM DB2</t>
@@ -1981,12 +1990,6 @@
     <t>Remotely collect monitoring metrics from your DB2 databases.</t>
   </si>
   <si>
-    <t>IBM Event Streams</t>
-  </si>
-  <si>
-    <t>Monitor your IBM Event Streams, a Kafka offering by IBM.</t>
-  </si>
-  <si>
     <t>IBM HTTP Server</t>
   </si>
   <si>
@@ -1996,7 +1999,7 @@
     <t>IBM i</t>
   </si>
   <si>
-    <t>Versatile, Multi-Environment H2Servers for the Era of e-business on demand.</t>
+    <t>Collect performance data from your IBM i Hosts via this Remote extension.</t>
   </si>
   <si>
     <t>IBM IMS</t>
@@ -2026,16 +2029,10 @@
     <t>IBM JVM</t>
   </si>
   <si>
-    <t>IBM MQ (Local)</t>
-  </si>
-  <si>
-    <t>Monitor your IBM MQ queue managers. Collect queues, channels, topics, listener performance metrics.</t>
-  </si>
-  <si>
-    <t>IBM MQ (remote)</t>
-  </si>
-  <si>
-    <t>ActiveGate extension that allows monitoring of IBM MQ performance remotely.</t>
+    <t>IBM MQ</t>
+  </si>
+  <si>
+    <t>Monitor performance of your IBM MQ queue manager objects.</t>
   </si>
   <si>
     <t>IBM Semeru</t>
@@ -2068,10 +2065,16 @@
     <t>Modernize to hybrid cloud infrastructure with end-to-end observability from the mainframe to the cloud, and everything in between.</t>
   </si>
   <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>Monitor completed and long-running Informatica jobs</t>
+  </si>
+  <si>
     <t>InterSystems IRIS (Remote)</t>
   </si>
   <si>
-    <t>2.0 remote extension that collects metrics and events from the InterSystems IRIS APIs for use in Dynatrace.</t>
+    <t>2.0 remote extension that collects data from the InterSystems IRIS APIs.</t>
   </si>
   <si>
     <t>iOS</t>
@@ -2092,7 +2095,7 @@
     <t>Istio Service Mesh</t>
   </si>
   <si>
-    <t>Automated distributed tracing, metrics &amp; logs for microservices and proxies managed by Istio Service Mesh.</t>
+    <t>Automated distributed tracing, metrics &amp; logs for Istio Service Mesh.</t>
   </si>
   <si>
     <t>Jakarta Servlet</t>
@@ -2164,7 +2167,7 @@
     <t>Kubernetes Monitoring Statistics</t>
   </si>
   <si>
-    <t>Effective troubleshooting of your Dynatrace Kubernetes monitoring and Prometheus integration setup.</t>
+    <t>Troubleshoot your Dynatrace Kubernetes monitoring and Prometheus integration.</t>
   </si>
   <si>
     <t>Kubernetes persistent volume claims</t>
@@ -2200,237 +2203,231 @@
     <t>Execute synthetic LDAP searches to monitor the availability of your LDAP servers.</t>
   </si>
   <si>
-    <t>Lightrun Developer Observability Platform</t>
-  </si>
-  <si>
-    <t>Troubleshoot and understand the behavior of live, cloud-native apps by adding logs metrics and snapshots in real-time directly from your IDE.</t>
+    <t>Linkerd</t>
+  </si>
+  <si>
+    <t>LInkerd service mesh provides runtime debugging, observability, reliability, and security with zero code changes.</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Family of open source Unix-like operating systems based on the Linux kernel.</t>
+  </si>
+  <si>
+    <t>Linux on IBM Z mainframe</t>
+  </si>
+  <si>
+    <t>Automatic insights into your Linux operating system on IBM Z mainframe with performance and health metrics down to the process level.</t>
+  </si>
+  <si>
+    <t>LoadRunner</t>
+  </si>
+  <si>
+    <t>Load testing tool for project teams.</t>
+  </si>
+  <si>
+    <t>Configure request attributes, etc.  See blog posts, RobotAdmin, etc.</t>
+  </si>
+  <si>
+    <t>Log Monitoring for AWS</t>
+  </si>
+  <si>
+    <t>Get answers from logs across all services in context.</t>
+  </si>
+  <si>
+    <t>Log Monitoring for Azure</t>
+  </si>
+  <si>
+    <t>Logs and Events</t>
+  </si>
+  <si>
+    <t>Hassle-free log management lets you ask any question from logs at any time.</t>
+  </si>
+  <si>
+    <t>Logstash</t>
+  </si>
+  <si>
+    <t>Stream log data from Logstash and analyze it in Dynatrace.</t>
+  </si>
+  <si>
+    <t>Machine Learning on AWS</t>
+  </si>
+  <si>
+    <t>Robust, cloud-based service that makes it easy for developers of all skill levels to use machine learning technology.</t>
+  </si>
+  <si>
+    <t>Magento</t>
+  </si>
+  <si>
+    <t>Deep insight into user experience, top landing &amp; exit pages and bounce rates.</t>
+  </si>
+  <si>
+    <t>MariaDB</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Muild automation tool used primarily for Java projects.</t>
+  </si>
+  <si>
+    <t>Memcached</t>
+  </si>
+  <si>
+    <t>Distributed caching system used to speed up dynamic database-driven websites.</t>
+  </si>
+  <si>
+    <t>Micrometer</t>
+  </si>
+  <si>
+    <t>Automatically ingest Spring Application metrics and analyze them end-to-end in context of your trace, log and diagnostics data.</t>
+  </si>
+  <si>
+    <t>Microsoft Active Directory replication</t>
+  </si>
+  <si>
+    <t>Monitors the replication status of your Active Directory servers</t>
+  </si>
+  <si>
+    <t>Install extension both on a OneAgent and on the Dynatrace Cluster.  See hub link for more details.</t>
+  </si>
+  <si>
+    <t>Microsoft Azure</t>
+  </si>
+  <si>
+    <t>Cloud computing service for building, testing, deploying, and managing applications and services.</t>
+  </si>
+  <si>
+    <t>Microsoft Edge</t>
+  </si>
+  <si>
+    <t>Real user monitoring - visibility and monitoring starting on you clients browser (desktop, tablet, mobile).</t>
+  </si>
+  <si>
+    <t>Microsoft Exchange Server</t>
+  </si>
+  <si>
+    <t>Monitor health and improve performance of your Microsoft Exchange mail server and calendaring server.</t>
+  </si>
+  <si>
+    <t>Microsoft Hyper-V Infrastructure</t>
+  </si>
+  <si>
+    <t>Monitor health and performance of the Hyper-V clusters, hosts and VMs.</t>
+  </si>
+  <si>
+    <t>Microsoft Hyper-V Virtual Machines</t>
+  </si>
+  <si>
+    <t>Monitor Microsoft Hyper-V virtual machines from the guest OS perspective.</t>
+  </si>
+  <si>
+    <t>Microsoft IIS</t>
+  </si>
+  <si>
+    <t>Flexible, secure and manageable Web server for hosting anything on the Web  for Windows® Server.</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Explorer</t>
+  </si>
+  <si>
+    <t>Series of graphical web browsers.</t>
+  </si>
+  <si>
+    <t>Microsoft Message Queuing (MSMQ)</t>
+  </si>
+  <si>
+    <t>Automatic and intelligent observability for MSMQ with end-to-end traces of connected producers and consumers.</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>Improve the health and performance monitoring of your Microsoft SQL Servers.</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server (local)</t>
+  </si>
+  <si>
+    <t>Improve the health and performance monitoring of your Microsoft SQL Servers</t>
+  </si>
+  <si>
+    <t>Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Hub for team collaboration in Microsoft 365 that integrates the people, content, and tools.</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio</t>
+  </si>
+  <si>
+    <t>Integrated development environment from Microsoft.</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Analyze real user monitoring data of mobile apps in context with the backend.</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>MongoDB Atlas</t>
+  </si>
+  <si>
+    <t>Remotely monitor your SaaS installation of MongoDB (Atlas)</t>
+  </si>
+  <si>
+    <t>MongoDB (Prometheus)</t>
+  </si>
+  <si>
+    <t>Monitor MongoDB server using prometheus to feed Dynatrace with metrics.</t>
+  </si>
+  <si>
+    <t>Monitoring Coverage</t>
+  </si>
+  <si>
+    <t>Sample app to visualize and increase monitoring coverage by Dynatrace.</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Free, open source web browser that uses the Gecko layout engine.</t>
+  </si>
+  <si>
+    <t>Mulesoft Cloudhub (Extension v2)</t>
+  </si>
+  <si>
+    <t>Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers.</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>MySQL (remote monitoring)</t>
+  </si>
+  <si>
+    <t>Remotely monitor your MySQL instances, collect key KPIs and slow queries details</t>
+  </si>
+  <si>
+    <t>Neo4j</t>
+  </si>
+  <si>
+    <t>Extend observability with PurePath® distributed traces by seamlessly integrating OpenTracing data emitted by the Neo4j graph database.</t>
+  </si>
+  <si>
+    <t>NeoLoad</t>
+  </si>
+  <si>
+    <t>Automated Load Testing tool enabling you to run Continuous Performance Testing.</t>
   </si>
   <si>
     <t>Supported by a partner.  See Hub link for more details.</t>
   </si>
   <si>
-    <t>LinkerdD</t>
-  </si>
-  <si>
-    <t>Observability, reliability, and security without requiring any code changes for Kubernetes.</t>
-  </si>
-  <si>
-    <t>Linkerd Service Mesh (Prometheus)</t>
-  </si>
-  <si>
-    <t>LInkerd service mesh provides runtime debugging, observability, reliability, and security with zero code changes.</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Family of open source Unix-like operating systems based on the Linux kernel.</t>
-  </si>
-  <si>
-    <t>Linux on IBM Z mainframe</t>
-  </si>
-  <si>
-    <t>Automatic insights into your Linux operating system on IBM Z mainframe with performance and health metrics down to the process level.</t>
-  </si>
-  <si>
-    <t>LoadRunner</t>
-  </si>
-  <si>
-    <t>Load testing tool for project teams.</t>
-  </si>
-  <si>
-    <t>Configure request attributes, etc.  See blog posts, RobotAdmin, etc.</t>
-  </si>
-  <si>
-    <t>Log Monitoring for AWS</t>
-  </si>
-  <si>
-    <t>Get answers from logs across all services in context.</t>
-  </si>
-  <si>
-    <t>Log Monitoring for Azure</t>
-  </si>
-  <si>
-    <t>Logs and Events</t>
-  </si>
-  <si>
-    <t>Get answers to any question, any time, at any scale, with no indexes, rehydration, or sampling.</t>
-  </si>
-  <si>
-    <t>Logstash</t>
-  </si>
-  <si>
-    <t>Stream log data from Logstash and analyze it in Dynatrace.</t>
-  </si>
-  <si>
-    <t>Machine Learning on AWS</t>
-  </si>
-  <si>
-    <t>Robust, cloud-based service that makes it easy for developers of all skill levels to use machine learning technology.</t>
-  </si>
-  <si>
-    <t>Magento</t>
-  </si>
-  <si>
-    <t>Deep insight into user experience, top landing &amp; exit pages and bounce rates.</t>
-  </si>
-  <si>
-    <t>MariaDB</t>
-  </si>
-  <si>
-    <t>Maven</t>
-  </si>
-  <si>
-    <t>Muild automation tool used primarily for Java projects.</t>
-  </si>
-  <si>
-    <t>Memcached</t>
-  </si>
-  <si>
-    <t>Distributed memory-caching system often used to speed up dynamic database-driven websites.</t>
-  </si>
-  <si>
-    <t>Micrometer</t>
-  </si>
-  <si>
-    <t>Automatically ingest Spring Application metrics and analyze them end-to-end in context of your trace, log and diagnostics data.</t>
-  </si>
-  <si>
-    <t>Microsoft Active Directory replication</t>
-  </si>
-  <si>
-    <t>Monitors the sync status of your Active Directory servers as well as the file shares status.</t>
-  </si>
-  <si>
-    <t>Install extension both on a OneAgent and on the Dynatrace Cluster.  See hub link for more details.</t>
-  </si>
-  <si>
-    <t>Microsoft Azure</t>
-  </si>
-  <si>
-    <t>Cloud computing service for building, testing, deploying, and managing applications and services.</t>
-  </si>
-  <si>
-    <t>Microsoft Edge</t>
-  </si>
-  <si>
-    <t>Real user monitoring - visibility and monitoring starting on you clients browser (desktop, tablet, mobile).</t>
-  </si>
-  <si>
-    <t>Microsoft Exchange Server</t>
-  </si>
-  <si>
-    <t>Monitor health and improve performance of your Microsoft Exchange mail server and calendaring server.</t>
-  </si>
-  <si>
-    <t>Microsoft Hyper-V</t>
-  </si>
-  <si>
-    <t>Monitor health and performance of Microsoft Hyper-V virtual machines from the system’s perspective.</t>
-  </si>
-  <si>
-    <t>Microsoft Hyper-V (WMI)</t>
-  </si>
-  <si>
-    <t>Monitor health and performance of native Windows virtual machines from the host’s perspective.</t>
-  </si>
-  <si>
-    <t>Microsoft IIS</t>
-  </si>
-  <si>
-    <t>Flexible, secure and manageable Web server for hosting anything on the Web  for Windows® Server.</t>
-  </si>
-  <si>
-    <t>Microsoft Internet Explorer</t>
-  </si>
-  <si>
-    <t>Series of graphical web browsers.</t>
-  </si>
-  <si>
-    <t>Microsoft Message Queuing (MSMQ)</t>
-  </si>
-  <si>
-    <t>Automatic and intelligent observability for MSMQ with end-to-end traces of connected producers and consumers.</t>
-  </si>
-  <si>
-    <t>Microsoft SQL Server</t>
-  </si>
-  <si>
-    <t>Expand visibility to improve the health and performance monitoring of your Microsoft SQL Servers.</t>
-  </si>
-  <si>
-    <t>Microsoft Teams</t>
-  </si>
-  <si>
-    <t>Hub for team collaboration in Microsoft 365 that integrates the people, content, and tools.</t>
-  </si>
-  <si>
-    <t>Microsoft Visual Studio</t>
-  </si>
-  <si>
-    <t>Integrated development environment from Microsoft.</t>
-  </si>
-  <si>
-    <t>Mobile monitoring</t>
-  </si>
-  <si>
-    <t>Analyze real user monitoring data of mobile apps in context with your backend.</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>MongoDB Atlas</t>
-  </si>
-  <si>
-    <t>Remotely monitor your SaaS installation of MongoDB (Atlas)</t>
-  </si>
-  <si>
-    <t>MongoDB (Prometheus)</t>
-  </si>
-  <si>
-    <t>Monitor MongoDB server using prometheus to feed Dynatrace with metrics.</t>
-  </si>
-  <si>
-    <t>Monitoring Coverage</t>
-  </si>
-  <si>
-    <t>Sample app to visualize and increase monitoring coverage by Dynatrace.</t>
-  </si>
-  <si>
-    <t>Mozilla Firefox</t>
-  </si>
-  <si>
-    <t>Free, open source web browser that uses the Gecko layout engine.</t>
-  </si>
-  <si>
-    <t>Mulesoft Cloudhub (Extension v2)</t>
-  </si>
-  <si>
-    <t>Gather in depth metrics and topology from your Anypoint Cloudhub Organizations, Environments, Applications, APIs and Workers.</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>MySQL (remote monitoring)</t>
-  </si>
-  <si>
-    <t>Remotely monitor your MySQL instances, collect connections, statements, throughput, waits, database metrics.</t>
-  </si>
-  <si>
-    <t>Neo4j</t>
-  </si>
-  <si>
-    <t>Extend observability with PurePath® distributed traces by seamlessly integrating OpenTracing data emitted by the Neo4j graph database.</t>
-  </si>
-  <si>
-    <t>NeoLoad</t>
-  </si>
-  <si>
-    <t>Automated Load Testing tool enabling you to run Continuous Performance Testing.</t>
-  </si>
-  <si>
     <t>.NET</t>
   </si>
   <si>
@@ -2449,12 +2446,6 @@
     <t>2.0 remote extension that collects important NetApp OnTap metrics from the OnTap 9.6+ REST API for use in Dynatrace.</t>
   </si>
   <si>
-    <t>Netbackup Jobs</t>
-  </si>
-  <si>
-    <t>Monitor your Veritas Netbackup jobs execution status.</t>
-  </si>
-  <si>
     <t>Netty</t>
   </si>
   <si>
@@ -2491,6 +2482,12 @@
     <t>Monitor health and performance of Nutanix AHV virtual machines from the system’s perspective.</t>
   </si>
   <si>
+    <t>Nutanix Clusters</t>
+  </si>
+  <si>
+    <t>Monitor Nutanix clusters for performance, usage and availability with Prism API.</t>
+  </si>
+  <si>
     <t>NVIDIA GPUs</t>
   </si>
   <si>
@@ -2512,6 +2509,12 @@
     <t>OpenJDK</t>
   </si>
   <si>
+    <t>OpenMetrics</t>
+  </si>
+  <si>
+    <t>OpenMetrics is a universal, scalable metric standard.</t>
+  </si>
+  <si>
     <t>OpenShift Control Plane</t>
   </si>
   <si>
@@ -2557,7 +2560,7 @@
     <t>Oracle Database</t>
   </si>
   <si>
-    <t>Automatically and intelligently observe, analyze and optimize the usage, health and performance of your Oracle database.</t>
+    <t>Observe, analyze and optimize the usage, health and performance of your database</t>
   </si>
   <si>
     <t>Oracle Hotspot VM</t>
@@ -2590,7 +2593,7 @@
     <t>Palo Alto firewalls</t>
   </si>
   <si>
-    <t>Monitor Palo Alto firewalls using SNMP to feed Dynatrace with metrics to allow alerting and Davis problem detection.</t>
+    <t>Palo Alto extension for problems detection</t>
   </si>
   <si>
     <t>Payara</t>
@@ -2656,7 +2659,7 @@
     <t>Pure Storage FlashArray</t>
   </si>
   <si>
-    <t>Unleash metrics from your Pure Storage FlashArray enabling monitoring of alert criticality, capacity utilization, &amp; performance metrics.</t>
+    <t>Monitor your Pure Storage FlashArray alerts, capacity, &amp; performance metrics.</t>
   </si>
   <si>
     <t>Python</t>
@@ -2674,6 +2677,12 @@
     <t>Monitor health and performance of QEMU virtual machines from the system’s perspective.</t>
   </si>
   <si>
+    <t>Query user sessions</t>
+  </si>
+  <si>
+    <t>Query completed user sessions with user sessions query language (USQL).</t>
+  </si>
+  <si>
     <t>RabbitMQ</t>
   </si>
   <si>
@@ -2686,6 +2695,9 @@
     <t>Start monitoring the most widely deployed open source message broker within minutes.</t>
   </si>
   <si>
+    <t>Rancher Kubernetes Engine (RKE)</t>
+  </si>
+  <si>
     <t>React.js</t>
   </si>
   <si>
@@ -2752,7 +2764,7 @@
     <t>Redis Enterprise - Prometheus</t>
   </si>
   <si>
-    <t>Remotely monitor your Redis Enterprise software with the official Redis Prometheus exporter.</t>
+    <t>Monitor Redis Enterprise with the official Redis Prometheus exporter.</t>
   </si>
   <si>
     <t>Redis Open Source</t>
@@ -2767,16 +2779,10 @@
     <t>Analyze all detected versions and linked information of your environment.</t>
   </si>
   <si>
-    <t>Remote Desktop Protocol</t>
-  </si>
-  <si>
-    <t>Monitor the performance of user sessions for Windows RDP, and gain insights into the health of your Virtual Desktop solution.</t>
-  </si>
-  <si>
-    <t>Remote Unix Monitoring</t>
-  </si>
-  <si>
-    <t>ActiveGate extension that remotely monitors Unix OS and process metrics by connecting via SSH and executing commands.</t>
+    <t>Remote Unix Monitoring 2.0</t>
+  </si>
+  <si>
+    <t>Extension that remotely collects Unix OS data by executing commands via SSH.</t>
   </si>
   <si>
     <t>Remote Windows Host Monitoring</t>
@@ -2815,10 +2821,10 @@
     <t>Activate the Application Security module.  Just follow instructions in the hub link.</t>
   </si>
   <si>
-    <t>Salesforce Streaming API</t>
-  </si>
-  <si>
-    <t>Enables you to monitor the usage of your salesforce environment by end users.</t>
+    <t>Salesforce Event Streaming (v2)</t>
+  </si>
+  <si>
+    <t>Capture Real User Monitoring data via Salesforce Real Time Event Streaming.</t>
   </si>
   <si>
     <t>Salt Stack</t>
@@ -2884,27 +2890,18 @@
     <t>IT service management for large corporations, including help desk functionality.</t>
   </si>
   <si>
-    <t>Session Replay</t>
+    <t>Session Replay Classic</t>
   </si>
   <si>
     <t>Fix bugs and simplify complex issues with visual recordings of user sessions.</t>
   </si>
   <si>
-    <t>Configure Session Replay in RUM settings for the web application.</t>
-  </si>
-  <si>
     <t>Session segmentation</t>
   </si>
   <si>
     <t>View and analyze the Real User Monitoring (RUM) sessions from all applications.</t>
   </si>
   <si>
-    <t>Siebel</t>
-  </si>
-  <si>
-    <t>Gathers metrics from the Siebel SARM logs to provide aggregated task information.</t>
-  </si>
-  <si>
     <t>Slack</t>
   </si>
   <si>
@@ -2920,7 +2917,7 @@
     <t>Snowflake</t>
   </si>
   <si>
-    <t>Expand visibility to improve health and performance monitoring of your Snowflake accounts.</t>
+    <t>Expand visibility to improve health and performance monitoring of your Snowflake</t>
   </si>
   <si>
     <t>Snyk</t>
@@ -2932,18 +2929,18 @@
     <t>Snyk is integrated with Dynatrace runtime vulnerability detection. Activate the Application Security module.  Just follow instructions in the hub link.</t>
   </si>
   <si>
-    <t>Solarwinds</t>
-  </si>
-  <si>
-    <t>Monitor events and node performance.</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
     <t>Automatic and intelligent end-to-end observability for your Java Spring applications.</t>
   </si>
   <si>
+    <t>SSL Certificate Monitor</t>
+  </si>
+  <si>
+    <t>Discover, view and log SSL certificates. Raise configurable expiration alerts.</t>
+  </si>
+  <si>
     <t>StatsD</t>
   </si>
   <si>
@@ -2986,24 +2983,18 @@
     <t>Synthetically monitor port availability on your servers. This allows you to be proactively alerted when they are unavailable.</t>
   </si>
   <si>
-    <t>Synthetic Monitor SSH</t>
-  </si>
-  <si>
-    <t>Report on KPIs through Synthetic monitors that execute Linux commands over SSH and interpret results numerically or by regular expressions.</t>
-  </si>
-  <si>
-    <t>Synthetic SFTP monitor</t>
-  </si>
-  <si>
-    <t>Monitor SFTP availability and performance. Visualize the data as Synthetic tests in Dynatrace.</t>
-  </si>
-  <si>
     <t>Syslog (via Fluentd)</t>
   </si>
   <si>
     <t>Stream Syslog data do Dynatrace via Fluentd for analysis.</t>
   </si>
   <si>
+    <t>Syslog (via OpenTelemetry Collector)</t>
+  </si>
+  <si>
+    <t>Stream Syslog data do Dynatrace via OpenTelemetry Collector for analysis.</t>
+  </si>
+  <si>
     <t>TeamCity</t>
   </si>
   <si>
@@ -3016,6 +3007,12 @@
     <t>Automatically analyze and monitor hundreds of Telegraf provided plugins and metrics with Dynatrace.</t>
   </si>
   <si>
+    <t>TensorFlow Keras</t>
+  </si>
+  <si>
+    <t>Observe the training progress of TensorFlow Keras AI models</t>
+  </si>
+  <si>
     <t>Third-party vulnerabilities</t>
   </si>
   <si>
@@ -3025,7 +3022,10 @@
     <t>TIBCO EMS</t>
   </si>
   <si>
-    <t>Automatic and intelligent observability for TIBCO EMS with trace and metric insights.</t>
+    <t>Traceloop OpenLLMetry</t>
+  </si>
+  <si>
+    <t>Gain insights on cost and prompt size of chained LLM prompt architectures.</t>
   </si>
   <si>
     <t>Trello</t>
@@ -3040,19 +3040,16 @@
     <t xml:space="preserve">Open-source, free  Linux distribution based on Debian. </t>
   </si>
   <si>
-    <t>User sessions query</t>
-  </si>
-  <si>
-    <t>Query completed user sessions with user sessions query language (USQL).</t>
-  </si>
-  <si>
-    <t>Varnish</t>
+    <t>Varnish Cache</t>
   </si>
   <si>
     <t>HTTP accelerator designed for content-heavy dynamic web sites as well as APIs.</t>
   </si>
   <si>
-    <t>Varnish Cache</t>
+    <t>Veritas Netbackup</t>
+  </si>
+  <si>
+    <t>Remotely monitor your Veritas NetBackup Jobs and Storoge</t>
   </si>
   <si>
     <t>Vert.x</t>
@@ -3094,9 +3091,6 @@
     <t>VMware Tanzu</t>
   </si>
   <si>
-    <t>Dynatrace &amp; VMware Tanzu – accelerate adoption automatic, AI-powered; TAS, TKG, hybrid, multi-cloud, automated DevOps continuous CD.</t>
-  </si>
-  <si>
     <t>VMware Unified Access Gateway</t>
   </si>
   <si>
@@ -3121,6 +3115,12 @@
     <t>Gather metrics about your VMware vSAN Datastores.</t>
   </si>
   <si>
+    <t>Weaviate</t>
+  </si>
+  <si>
+    <t>Observe your semantic cache efficiency to reduce cost and latency for LLM apps</t>
+  </si>
+  <si>
     <t>Web application monitoring via browser extension</t>
   </si>
   <si>
@@ -3172,16 +3172,10 @@
     <t>Free and open-source runtime in the .NET Framework for building connected, service-oriented apps.</t>
   </si>
   <si>
-    <t>Windows Scheduled Tasks</t>
-  </si>
-  <si>
-    <t>Monitor the state and execution of your tasks set up in Windows Task Scheduler.</t>
-  </si>
-  <si>
-    <t>Windows Server File System Quotas</t>
-  </si>
-  <si>
-    <t>Monitor the utilization of your File System Quotas in Windows Servers.</t>
+    <t>Windows scheduled tasks</t>
+  </si>
+  <si>
+    <t>Monitor your Windows scheduled tasks and alert on execution issues.</t>
   </si>
   <si>
     <t>WordPress</t>
@@ -3218,12 +3212,6 @@
   </si>
   <si>
     <t>xMatters powers the world’s most reliable customer experiences.</t>
-  </si>
-  <si>
-    <t>Zabbix hosts</t>
-  </si>
-  <si>
-    <t>Bring events from your Zabbix Hosts into Dynatrace.</t>
   </si>
 </sst>
 </file>
@@ -3583,14 +3571,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C535"/>
+  <dimension ref="A1:C534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="154.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4163,7 +4151,7 @@
         <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4174,7 +4162,7 @@
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4295,7 +4283,7 @@
         <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4306,18 +4294,18 @@
         <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
         <v>140</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>141</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4328,39 +4316,33 @@
         <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4379,6 +4361,9 @@
       <c r="B72" t="s">
         <v>155</v>
       </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
@@ -4387,6 +4372,9 @@
       <c r="B73" t="s">
         <v>157</v>
       </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
@@ -4396,29 +4384,29 @@
         <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4429,37 +4417,37 @@
         <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
         <v>168</v>
       </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" t="s">
         <v>170</v>
       </c>
-      <c r="B79" t="s">
-        <v>163</v>
-      </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -4467,24 +4455,24 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4495,7 +4483,7 @@
         <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4514,7 +4502,7 @@
         <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4522,46 +4510,43 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" t="s">
         <v>184</v>
-      </c>
-      <c r="B86" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
         <v>186</v>
       </c>
-      <c r="B87" t="s">
-        <v>187</v>
-      </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s">
         <v>188</v>
       </c>
-      <c r="B88" t="s">
-        <v>189</v>
-      </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" t="s">
         <v>190</v>
       </c>
-      <c r="B89" t="s">
-        <v>189</v>
-      </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4579,9 +4564,6 @@
       <c r="B91" t="s">
         <v>194</v>
       </c>
-      <c r="C91" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
@@ -4591,37 +4573,40 @@
         <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4830,7 +4815,7 @@
         <v>241</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4852,7 +4837,7 @@
         <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4981,15 +4966,15 @@
         <v>268</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B129" t="s">
         <v>37</v>
@@ -5000,24 +4985,24 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" t="s">
         <v>271</v>
       </c>
-      <c r="B130" t="s">
-        <v>37</v>
-      </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" t="s">
         <v>272</v>
-      </c>
-      <c r="B131" t="s">
-        <v>273</v>
-      </c>
-      <c r="C131" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5028,7 +5013,7 @@
         <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5039,7 +5024,7 @@
         <v>278</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5050,7 +5035,7 @@
         <v>280</v>
       </c>
       <c r="C134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5061,7 +5046,7 @@
         <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5072,7 +5057,7 @@
         <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5083,7 +5068,7 @@
         <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5094,7 +5079,7 @@
         <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5105,7 +5090,7 @@
         <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5116,7 +5101,7 @@
         <v>292</v>
       </c>
       <c r="C140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5127,7 +5112,7 @@
         <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5138,7 +5123,7 @@
         <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5149,7 +5134,7 @@
         <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5160,7 +5145,7 @@
         <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5171,7 +5156,7 @@
         <v>302</v>
       </c>
       <c r="C145" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5182,7 +5167,7 @@
         <v>304</v>
       </c>
       <c r="C146" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5193,7 +5178,7 @@
         <v>306</v>
       </c>
       <c r="C147" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5204,7 +5189,7 @@
         <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5215,7 +5200,7 @@
         <v>310</v>
       </c>
       <c r="C149" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5226,7 +5211,7 @@
         <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5237,7 +5222,7 @@
         <v>314</v>
       </c>
       <c r="C151" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5248,7 +5233,7 @@
         <v>316</v>
       </c>
       <c r="C152" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5256,21 +5241,21 @@
         <v>317</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="C153" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" t="s">
         <v>319</v>
       </c>
-      <c r="B154" t="s">
-        <v>64</v>
-      </c>
       <c r="C154" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5281,7 +5266,7 @@
         <v>321</v>
       </c>
       <c r="C155" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5292,7 +5277,7 @@
         <v>323</v>
       </c>
       <c r="C156" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5303,7 +5288,7 @@
         <v>325</v>
       </c>
       <c r="C157" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5314,7 +5299,7 @@
         <v>327</v>
       </c>
       <c r="C158" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5325,7 +5310,7 @@
         <v>329</v>
       </c>
       <c r="C159" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5336,7 +5321,7 @@
         <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5347,7 +5332,7 @@
         <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5358,7 +5343,7 @@
         <v>335</v>
       </c>
       <c r="C162" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5369,7 +5354,7 @@
         <v>337</v>
       </c>
       <c r="C163" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5391,7 +5376,7 @@
         <v>342</v>
       </c>
       <c r="C165" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5402,7 +5387,7 @@
         <v>344</v>
       </c>
       <c r="C166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5413,7 +5398,7 @@
         <v>346</v>
       </c>
       <c r="C167" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5424,7 +5409,7 @@
         <v>348</v>
       </c>
       <c r="C168" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5435,7 +5420,7 @@
         <v>350</v>
       </c>
       <c r="C169" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5446,7 +5431,7 @@
         <v>352</v>
       </c>
       <c r="C170" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5457,7 +5442,7 @@
         <v>354</v>
       </c>
       <c r="C171" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5468,7 +5453,7 @@
         <v>356</v>
       </c>
       <c r="C172" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5490,7 +5475,7 @@
         <v>360</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5501,7 +5486,7 @@
         <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5512,7 +5497,7 @@
         <v>364</v>
       </c>
       <c r="C176" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5534,7 +5519,7 @@
         <v>367</v>
       </c>
       <c r="C178" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5545,7 +5530,7 @@
         <v>369</v>
       </c>
       <c r="C179" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5619,7 +5604,7 @@
         <v>386</v>
       </c>
       <c r="C186" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5629,9 +5614,6 @@
       <c r="B187" t="s">
         <v>388</v>
       </c>
-      <c r="C187" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
@@ -5641,86 +5623,83 @@
         <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C189" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B190" t="s">
-        <v>394</v>
-      </c>
-      <c r="C190" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="C191" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B192" t="s">
-        <v>398</v>
-      </c>
-      <c r="C192" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B193" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="C193" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B194" t="s">
-        <v>402</v>
-      </c>
-      <c r="C194" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B195" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B196" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5728,10 +5707,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B197" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5739,10 +5718,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B198" t="s">
         <v>407</v>
-      </c>
-      <c r="B198" t="s">
-        <v>404</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5750,24 +5729,24 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B199" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C199" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B200" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C200" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5778,96 +5757,93 @@
         <v>414</v>
       </c>
       <c r="C201" t="s">
-        <v>167</v>
+        <v>415</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B202" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B203" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C203" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B204" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="C204" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B205" t="s">
-        <v>422</v>
-      </c>
-      <c r="C205" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B206" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="C206" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B207" t="s">
-        <v>426</v>
-      </c>
-      <c r="C207" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B208" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B209" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C209" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B210" t="s">
-        <v>432</v>
-      </c>
-      <c r="C210" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5879,7 +5855,7 @@
         <v>435</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5889,49 +5865,49 @@
       <c r="B212" t="s">
         <v>437</v>
       </c>
+      <c r="C212" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B213" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C213" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B214" t="s">
-        <v>441</v>
-      </c>
-      <c r="C214" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B215" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B216" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C216" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5942,7 +5918,7 @@
         <v>448</v>
       </c>
       <c r="C217" t="s">
-        <v>446</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5953,40 +5929,40 @@
         <v>450</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B219" t="s">
+        <v>453</v>
+      </c>
+      <c r="C219" t="s">
         <v>451</v>
-      </c>
-      <c r="B219" t="s">
-        <v>450</v>
-      </c>
-      <c r="C219" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B220" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C220" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B221" t="s">
         <v>455</v>
       </c>
       <c r="C221" t="s">
-        <v>456</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5997,7 +5973,7 @@
         <v>458</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6005,18 +5981,18 @@
         <v>459</v>
       </c>
       <c r="B223" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B224" t="s">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
@@ -6024,51 +6000,51 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B225" t="s">
-        <v>462</v>
+        <v>37</v>
       </c>
       <c r="C225" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B226" t="s">
-        <v>464</v>
+        <v>37</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B227" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B228" t="s">
-        <v>468</v>
-      </c>
-      <c r="C228" t="s">
-        <v>167</v>
+        <v>469</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B229" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -6076,120 +6052,117 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B230" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C230" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B231" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C231" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B232" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B233" t="s">
-        <v>478</v>
-      </c>
-      <c r="C233" t="s">
-        <v>167</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B234" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C234" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B235" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C235" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B236" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B237" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C237" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B238" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B239" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C239" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B240" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
@@ -6197,98 +6170,95 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B241" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C241" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B242" t="s">
-        <v>495</v>
+        <v>37</v>
       </c>
       <c r="C242" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B243" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C243" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B244" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="C244" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B245" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C245" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B246" t="s">
-        <v>503</v>
-      </c>
-      <c r="C246" t="s">
-        <v>167</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B247" t="s">
-        <v>189</v>
-      </c>
-      <c r="C247" t="s">
-        <v>14</v>
+        <v>506</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B248" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B249" t="s">
-        <v>508</v>
+        <v>181</v>
       </c>
       <c r="C249" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6298,6 +6268,9 @@
       <c r="B250" t="s">
         <v>511</v>
       </c>
+      <c r="C250" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2" t="s">
@@ -6307,553 +6280,541 @@
         <v>513</v>
       </c>
       <c r="C251" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B252" t="s">
-        <v>515</v>
-      </c>
-      <c r="C252" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B253" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C253" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B254" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C254" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B255" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C255" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B256" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C256" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B257" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C257" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B258" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C258" t="s">
-        <v>509</v>
+        <v>141</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B259" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C259" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B260" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C260" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B261" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C261" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B262" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C262" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B263" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C263" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B264" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C264" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B265" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C265" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B266" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C266" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C267" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B268" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C268" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B269" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C269" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B270" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C270" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B271" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C271" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B272" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C272" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B273" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C273" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B274" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C274" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B275" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C275" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B276" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C276" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B277" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C277" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B278" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C278" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B279" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C279" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B280" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C280" t="s">
-        <v>412</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B281" t="s">
-        <v>573</v>
-      </c>
-      <c r="C281" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B282" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C282" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B283" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C283" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B284" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C284" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B285" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C285" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B286" t="s">
-        <v>64</v>
+        <v>584</v>
       </c>
       <c r="C286" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B287" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C287" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B288" t="s">
-        <v>586</v>
-      </c>
-      <c r="C288" t="s">
-        <v>509</v>
+        <v>64</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B289" t="s">
-        <v>588</v>
-      </c>
-      <c r="C289" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B290" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C290" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B291" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C291" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B292" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C292" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B293" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C293" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B294" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C294" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B295" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C295" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B296" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C296" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B297" t="s">
-        <v>37</v>
+        <v>605</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B298" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C298" t="s">
-        <v>148</v>
+        <v>514</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B299" t="s">
-        <v>607</v>
+        <v>37</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B300" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B301" t="s">
-        <v>611</v>
-      </c>
-      <c r="C301" t="s">
         <v>612</v>
       </c>
     </row>
@@ -6865,7 +6826,7 @@
         <v>614</v>
       </c>
       <c r="C302" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6876,29 +6837,26 @@
         <v>616</v>
       </c>
       <c r="C303" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B304" t="s">
-        <v>618</v>
-      </c>
-      <c r="C304" t="s">
-        <v>5</v>
+        <v>619</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B305" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C305" t="s">
-        <v>621</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6909,75 +6867,75 @@
         <v>623</v>
       </c>
       <c r="C306" t="s">
-        <v>148</v>
+        <v>624</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B307" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C307" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B308" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C308" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>630</v>
       </c>
       <c r="C309" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B310" t="s">
-        <v>630</v>
+        <v>37</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B311" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B312" t="s">
-        <v>37</v>
-      </c>
-      <c r="C312" t="s">
-        <v>14</v>
+        <v>635</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B313" t="s">
-        <v>635</v>
+        <v>37</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
@@ -6985,10 +6943,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B314" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C314" t="s">
         <v>14</v>
@@ -6996,24 +6954,24 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B315" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C315" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B316" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C316" t="s">
-        <v>642</v>
+        <v>144</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -7024,133 +6982,130 @@
         <v>644</v>
       </c>
       <c r="C317" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B318" t="s">
+        <v>647</v>
+      </c>
+      <c r="C318" t="s">
         <v>645</v>
-      </c>
-      <c r="B318" t="s">
-        <v>646</v>
-      </c>
-      <c r="C318" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B319" t="s">
-        <v>64</v>
+        <v>649</v>
       </c>
       <c r="C319" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B320" t="s">
-        <v>649</v>
+        <v>64</v>
       </c>
       <c r="C320" t="s">
-        <v>167</v>
+        <v>415</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B321" t="s">
-        <v>651</v>
-      </c>
-      <c r="C321" t="s">
-        <v>164</v>
+        <v>652</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B322" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="C322" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B323" t="s">
-        <v>655</v>
-      </c>
-      <c r="C323" t="s">
-        <v>167</v>
+        <v>656</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B324" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C324" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B325" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C325" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B326" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C326" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B327" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C327" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B328" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C328" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B329" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C329" t="s">
         <v>14</v>
@@ -7158,7 +7113,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B330" t="s">
         <v>37</v>
@@ -7169,18 +7124,24 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B331" t="s">
-        <v>670</v>
+        <v>671</v>
+      </c>
+      <c r="C331" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B332" t="s">
-        <v>672</v>
+        <v>37</v>
+      </c>
+      <c r="C332" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -7188,7 +7149,7 @@
         <v>673</v>
       </c>
       <c r="B333" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="C333" t="s">
         <v>14</v>
@@ -7199,21 +7160,21 @@
         <v>674</v>
       </c>
       <c r="B334" t="s">
-        <v>189</v>
+        <v>675</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>645</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B335" t="s">
-        <v>676</v>
+        <v>181</v>
       </c>
       <c r="C335" t="s">
-        <v>642</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -7221,10 +7182,10 @@
         <v>677</v>
       </c>
       <c r="B336" t="s">
-        <v>189</v>
+        <v>675</v>
       </c>
       <c r="C336" t="s">
-        <v>14</v>
+        <v>645</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -7232,51 +7193,48 @@
         <v>678</v>
       </c>
       <c r="B337" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C337" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B338" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C338" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B339" t="s">
-        <v>682</v>
-      </c>
-      <c r="C339" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B340" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C340" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B341" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C341" t="s">
         <v>11</v>
@@ -7284,48 +7242,48 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B342" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C342" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B343" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C343" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B344" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B345" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B346" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C346" t="s">
         <v>14</v>
@@ -7333,10 +7291,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B347" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C347" t="s">
         <v>14</v>
@@ -7344,10 +7302,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B348" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C348" t="s">
         <v>14</v>
@@ -7355,10 +7313,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B349" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C349" t="s">
         <v>14</v>
@@ -7366,10 +7324,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B350" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C350" t="s">
         <v>14</v>
@@ -7377,32 +7335,32 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B351" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C351" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B352" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C352" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B353" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
         <v>14</v>
@@ -7410,21 +7368,21 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B354" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C354" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B355" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C355" t="s">
         <v>14</v>
@@ -7432,43 +7390,43 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B356" t="s">
         <v>64</v>
       </c>
       <c r="C356" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B357" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C357" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B358" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C358" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B359" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C359" t="s">
         <v>14</v>
@@ -7476,10 +7434,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B360" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C360" t="s">
         <v>14</v>
@@ -7487,34 +7445,31 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B361" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C361" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B362" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C362" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B363" t="s">
-        <v>728</v>
-      </c>
-      <c r="C363" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7526,7 +7481,7 @@
         <v>731</v>
       </c>
       <c r="C364" t="s">
-        <v>412</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -7537,7 +7492,7 @@
         <v>733</v>
       </c>
       <c r="C365" t="s">
-        <v>621</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -7548,51 +7503,48 @@
         <v>735</v>
       </c>
       <c r="C366" t="s">
-        <v>14</v>
+        <v>736</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B367" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C367" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B368" t="s">
         <v>738</v>
       </c>
-      <c r="B368" t="s">
-        <v>739</v>
-      </c>
       <c r="C368" t="s">
-        <v>740</v>
+        <v>272</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B369" t="s">
         <v>741</v>
-      </c>
-      <c r="B369" t="s">
-        <v>742</v>
-      </c>
-      <c r="C369" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B370" t="s">
         <v>743</v>
       </c>
-      <c r="B370" t="s">
-        <v>742</v>
-      </c>
       <c r="C370" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -7611,7 +7563,7 @@
         <v>747</v>
       </c>
       <c r="C372" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7619,29 +7571,32 @@
         <v>748</v>
       </c>
       <c r="B373" t="s">
-        <v>749</v>
+        <v>164</v>
+      </c>
+      <c r="C373" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B374" t="s">
         <v>750</v>
       </c>
-      <c r="B374" t="s">
-        <v>751</v>
-      </c>
       <c r="C374" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B375" t="s">
         <v>752</v>
       </c>
-      <c r="B375" t="s">
-        <v>163</v>
-      </c>
       <c r="C375" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7652,7 +7607,7 @@
         <v>754</v>
       </c>
       <c r="C376" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7663,29 +7618,29 @@
         <v>756</v>
       </c>
       <c r="C377" t="s">
-        <v>5</v>
+        <v>757</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B378" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C378" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B379" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C379" t="s">
-        <v>761</v>
+        <v>141</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7696,7 +7651,7 @@
         <v>763</v>
       </c>
       <c r="C380" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7706,9 +7661,6 @@
       <c r="B381" t="s">
         <v>765</v>
       </c>
-      <c r="C381" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
@@ -7717,9 +7669,6 @@
       <c r="B382" t="s">
         <v>767</v>
       </c>
-      <c r="C382" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
@@ -7729,7 +7678,7 @@
         <v>769</v>
       </c>
       <c r="C383" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7740,7 +7689,7 @@
         <v>771</v>
       </c>
       <c r="C384" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7751,7 +7700,7 @@
         <v>773</v>
       </c>
       <c r="C385" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7762,7 +7711,7 @@
         <v>775</v>
       </c>
       <c r="C386" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7772,9 +7721,6 @@
       <c r="B387" t="s">
         <v>777</v>
       </c>
-      <c r="C387" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
@@ -7784,7 +7730,7 @@
         <v>779</v>
       </c>
       <c r="C388" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7795,7 +7741,7 @@
         <v>781</v>
       </c>
       <c r="C389" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7805,27 +7751,24 @@
       <c r="B390" t="s">
         <v>783</v>
       </c>
-      <c r="C390" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
         <v>784</v>
       </c>
       <c r="B391" t="s">
-        <v>785</v>
+        <v>164</v>
+      </c>
+      <c r="C391" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B392" t="s">
         <v>786</v>
-      </c>
-      <c r="B392" t="s">
-        <v>163</v>
-      </c>
-      <c r="C392" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -7835,6 +7778,9 @@
       <c r="B393" t="s">
         <v>788</v>
       </c>
+      <c r="C393" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
@@ -7843,9 +7789,6 @@
       <c r="B394" t="s">
         <v>790</v>
       </c>
-      <c r="C394" t="s">
-        <v>621</v>
-      </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
@@ -7854,6 +7797,9 @@
       <c r="B395" t="s">
         <v>792</v>
       </c>
+      <c r="C395" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
@@ -7863,7 +7809,7 @@
         <v>794</v>
       </c>
       <c r="C396" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -7871,21 +7817,21 @@
         <v>795</v>
       </c>
       <c r="B397" t="s">
-        <v>796</v>
+        <v>164</v>
       </c>
       <c r="C397" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B398" t="s">
         <v>797</v>
       </c>
-      <c r="B398" t="s">
-        <v>163</v>
-      </c>
       <c r="C398" t="s">
-        <v>164</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7896,7 +7842,7 @@
         <v>799</v>
       </c>
       <c r="C399" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7907,78 +7853,78 @@
         <v>801</v>
       </c>
       <c r="C400" t="s">
-        <v>148</v>
+        <v>802</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B401" t="s">
-        <v>803</v>
-      </c>
-      <c r="C401" t="s">
-        <v>729</v>
+        <v>804</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B402" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="C402" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B403" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C403" t="s">
-        <v>509</v>
+        <v>391</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B404" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C404" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B405" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C405" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B406" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C406" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B407" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C407" t="s">
         <v>14</v>
@@ -7986,10 +7932,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B408" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C408" t="s">
         <v>14</v>
@@ -7997,10 +7943,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B409" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C409" t="s">
         <v>14</v>
@@ -8008,54 +7954,51 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B410" t="s">
-        <v>821</v>
-      </c>
-      <c r="C410" t="s">
-        <v>14</v>
+        <v>822</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B411" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C411" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B412" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C412" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B413" t="s">
-        <v>827</v>
-      </c>
-      <c r="C413" t="s">
-        <v>14</v>
+        <v>828</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B414" t="s">
-        <v>829</v>
+        <v>37</v>
+      </c>
+      <c r="C414" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -8063,29 +8006,26 @@
         <v>830</v>
       </c>
       <c r="B415" t="s">
-        <v>37</v>
-      </c>
-      <c r="C415" t="s">
-        <v>14</v>
+        <v>831</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B416" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C416" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B417" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C417" t="s">
         <v>14</v>
@@ -8093,51 +8033,51 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B418" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B419" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C419" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B420" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C420" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B421" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C421" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B422" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C422" t="s">
         <v>14</v>
@@ -8145,18 +8085,18 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B423" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C423" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B424" t="s">
         <v>37</v>
@@ -8167,18 +8107,18 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B425" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C425" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B426" t="s">
         <v>37</v>
@@ -8189,10 +8129,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B427" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C427" t="s">
         <v>14</v>
@@ -8200,10 +8140,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B428" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C428" t="s">
         <v>14</v>
@@ -8211,10 +8151,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B429" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -8222,21 +8162,21 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B430" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C430" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B431" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C431" t="s">
         <v>14</v>
@@ -8244,43 +8184,43 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B432" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C432" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B433" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C433" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B434" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C434" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B435" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C435" t="s">
         <v>372</v>
@@ -8288,10 +8228,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B436" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C436" t="s">
         <v>14</v>
@@ -8299,81 +8239,81 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B437" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B438" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C438" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B439" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C439" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B440" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C440" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B441" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C441" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B442" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B443" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C443" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B444" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C444" t="s">
         <v>14</v>
@@ -8381,46 +8321,40 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B445" t="s">
-        <v>886</v>
-      </c>
-      <c r="C445" t="s">
-        <v>5</v>
+        <v>887</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B446" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C446" t="s">
-        <v>621</v>
+        <v>5</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B447" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C447" t="s">
-        <v>139</v>
+        <v>624</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B448" t="s">
-        <v>892</v>
-      </c>
-      <c r="C448" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -8431,7 +8365,7 @@
         <v>894</v>
       </c>
       <c r="C449" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -8442,7 +8376,7 @@
         <v>896</v>
       </c>
       <c r="C450" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -8475,7 +8409,7 @@
         <v>902</v>
       </c>
       <c r="C453" t="s">
-        <v>412</v>
+        <v>14</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -8497,7 +8431,7 @@
         <v>906</v>
       </c>
       <c r="C455" t="s">
-        <v>14</v>
+        <v>415</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8508,29 +8442,29 @@
         <v>908</v>
       </c>
       <c r="C456" t="s">
-        <v>909</v>
+        <v>14</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B457" t="s">
         <v>910</v>
       </c>
-      <c r="B457" t="s">
-        <v>911</v>
-      </c>
       <c r="C457" t="s">
-        <v>621</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B458" t="s">
         <v>912</v>
       </c>
-      <c r="B458" t="s">
+      <c r="C458" t="s">
         <v>913</v>
-      </c>
-      <c r="C458" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -8540,6 +8474,9 @@
       <c r="B459" t="s">
         <v>915</v>
       </c>
+      <c r="C459" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
@@ -8549,7 +8486,7 @@
         <v>917</v>
       </c>
       <c r="C460" t="s">
-        <v>167</v>
+        <v>802</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -8559,9 +8496,6 @@
       <c r="B461" t="s">
         <v>919</v>
       </c>
-      <c r="C461" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
@@ -8570,9 +8504,6 @@
       <c r="B462" t="s">
         <v>921</v>
       </c>
-      <c r="C462" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
@@ -8582,7 +8513,7 @@
         <v>923</v>
       </c>
       <c r="C463" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8604,29 +8535,29 @@
         <v>927</v>
       </c>
       <c r="C465" t="s">
-        <v>928</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B466" t="s">
         <v>929</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>930</v>
-      </c>
-      <c r="C466" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B467" t="s">
         <v>932</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>933</v>
-      </c>
-      <c r="C467" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8644,9 +8575,6 @@
       <c r="B469" t="s">
         <v>937</v>
       </c>
-      <c r="C469" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="2" t="s">
@@ -8667,7 +8595,7 @@
         <v>941</v>
       </c>
       <c r="C471" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8677,24 +8605,27 @@
       <c r="B472" t="s">
         <v>943</v>
       </c>
+      <c r="C472" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="2" t="s">
         <v>944</v>
       </c>
       <c r="B473" t="s">
-        <v>37</v>
-      </c>
-      <c r="C473" t="s">
-        <v>14</v>
+        <v>945</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B474" t="s">
-        <v>946</v>
+        <v>37</v>
+      </c>
+      <c r="C474" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8704,9 +8635,6 @@
       <c r="B475" t="s">
         <v>948</v>
       </c>
-      <c r="C475" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="2" t="s">
@@ -8715,6 +8643,9 @@
       <c r="B476" t="s">
         <v>950</v>
       </c>
+      <c r="C476" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="2" t="s">
@@ -8731,9 +8662,6 @@
       <c r="B478" t="s">
         <v>954</v>
       </c>
-      <c r="C478" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="2" t="s">
@@ -8743,34 +8671,31 @@
         <v>956</v>
       </c>
       <c r="C479" t="s">
-        <v>957</v>
+        <v>197</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B480" t="s">
         <v>958</v>
-      </c>
-      <c r="B480" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B481" t="s">
         <v>960</v>
-      </c>
-      <c r="B481" t="s">
-        <v>961</v>
-      </c>
-      <c r="C481" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B482" t="s">
         <v>962</v>
-      </c>
-      <c r="B482" t="s">
-        <v>963</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8778,76 +8703,73 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B483" t="s">
         <v>964</v>
       </c>
-      <c r="B483" t="s">
-        <v>965</v>
-      </c>
       <c r="C483" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B484" t="s">
         <v>966</v>
       </c>
-      <c r="B484" t="s">
-        <v>967</v>
-      </c>
       <c r="C484" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B485" t="s">
         <v>968</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>969</v>
-      </c>
-      <c r="C485" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B486" t="s">
         <v>971</v>
       </c>
-      <c r="B486" t="s">
-        <v>972</v>
-      </c>
       <c r="C486" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B487" t="s">
         <v>973</v>
-      </c>
-      <c r="B487" t="s">
-        <v>974</v>
-      </c>
-      <c r="C487" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B488" t="s">
         <v>975</v>
       </c>
-      <c r="B488" t="s">
-        <v>976</v>
-      </c>
       <c r="C488" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B489" t="s">
         <v>977</v>
-      </c>
-      <c r="B489" t="s">
-        <v>978</v>
       </c>
       <c r="C489" t="s">
         <v>14</v>
@@ -8855,10 +8777,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B490" t="s">
         <v>979</v>
-      </c>
-      <c r="B490" t="s">
-        <v>980</v>
       </c>
       <c r="C490" t="s">
         <v>14</v>
@@ -8866,155 +8788,149 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B491" t="s">
         <v>981</v>
-      </c>
-      <c r="B491" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B492" t="s">
         <v>983</v>
       </c>
-      <c r="B492" t="s">
-        <v>984</v>
-      </c>
       <c r="C492" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B493" t="s">
         <v>985</v>
       </c>
-      <c r="B493" t="s">
-        <v>986</v>
-      </c>
       <c r="C493" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B494" t="s">
         <v>987</v>
       </c>
-      <c r="B494" t="s">
-        <v>988</v>
-      </c>
       <c r="C494" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B495" t="s">
         <v>989</v>
       </c>
-      <c r="B495" t="s">
-        <v>990</v>
-      </c>
       <c r="C495" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B496" t="s">
         <v>991</v>
-      </c>
-      <c r="B496" t="s">
-        <v>992</v>
-      </c>
-      <c r="C496" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B497" t="s">
         <v>993</v>
       </c>
-      <c r="B497" t="s">
-        <v>994</v>
-      </c>
       <c r="C497" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B498" t="s">
         <v>995</v>
       </c>
-      <c r="B498" t="s">
-        <v>996</v>
-      </c>
       <c r="C498" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B499" t="s">
         <v>997</v>
-      </c>
-      <c r="B499" t="s">
-        <v>998</v>
-      </c>
-      <c r="C499" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B500" t="s">
         <v>999</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B501" t="s">
-        <v>1002</v>
+        <v>173</v>
       </c>
       <c r="C501" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B502" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C502" t="s">
-        <v>151</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B503" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C503" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B504" t="s">
-        <v>1008</v>
+        <v>1006</v>
+      </c>
+      <c r="C504" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B505" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C505" t="s">
         <v>14</v>
@@ -9022,54 +8938,51 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B506" t="s">
         <v>1010</v>
       </c>
-      <c r="C506" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B507" t="s">
         <v>1012</v>
       </c>
-      <c r="B507" t="s">
-        <v>1013</v>
-      </c>
       <c r="C507" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B508" t="s">
         <v>1014</v>
       </c>
-      <c r="B508" t="s">
-        <v>1015</v>
-      </c>
       <c r="C508" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B509" t="s">
         <v>1016</v>
       </c>
-      <c r="B509" t="s">
-        <v>1017</v>
-      </c>
       <c r="C509" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B510" t="s">
         <v>1018</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1019</v>
       </c>
       <c r="C510" t="s">
         <v>14</v>
@@ -9077,10 +8990,10 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B511" t="s">
         <v>1020</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1021</v>
       </c>
       <c r="C511" t="s">
         <v>14</v>
@@ -9088,21 +9001,21 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B512" t="s">
         <v>1022</v>
       </c>
-      <c r="B512" t="s">
-        <v>1023</v>
-      </c>
       <c r="C512" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B513" t="s">
-        <v>1025</v>
+        <v>64</v>
       </c>
       <c r="C513" t="s">
         <v>372</v>
@@ -9110,32 +9023,32 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B514" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C514" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B515" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C515" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B516" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C516" t="s">
         <v>14</v>
@@ -9143,86 +9056,83 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B517" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C517" t="s">
-        <v>167</v>
+        <v>391</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B518" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B519" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B520" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C520" t="s">
-        <v>151</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B521" t="s">
-        <v>1041</v>
+        <v>1039</v>
+      </c>
+      <c r="C521" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B522" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B523" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C523" t="s">
-        <v>729</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B524" t="s">
-        <v>189</v>
+        <v>1045</v>
       </c>
       <c r="C524" t="s">
-        <v>14</v>
+        <v>802</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B525" t="s">
-        <v>1048</v>
+        <v>181</v>
       </c>
       <c r="C525" t="s">
         <v>14</v>
@@ -9230,10 +9140,10 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B526" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C526" t="s">
         <v>14</v>
@@ -9241,32 +9151,29 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B527" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C527" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B528" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C528" t="s">
-        <v>167</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B529" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C529" t="s">
         <v>14</v>
@@ -9274,10 +9181,10 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B530" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C530" t="s">
         <v>14</v>
@@ -9285,10 +9192,10 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B531" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C531" t="s">
         <v>11</v>
@@ -9296,10 +9203,10 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B532" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C532" t="s">
         <v>11</v>
@@ -9307,10 +9214,10 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B533" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C533" t="s">
         <v>14</v>
@@ -9318,28 +9225,17 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B534" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C534" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
-      <c r="A535" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C535" t="s">
-        <v>729</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D536"/>
+  <autoFilter ref="A1:D535"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
@@ -9404,9 +9300,9 @@
     <hyperlink ref="A62" r:id="rId61"/>
     <hyperlink ref="A63" r:id="rId62"/>
     <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A65" r:id="rId64" location="real-user-monitoring"/>
     <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66" location="real-user-monitoring"/>
+    <hyperlink ref="A67" r:id="rId66"/>
     <hyperlink ref="A68" r:id="rId67"/>
     <hyperlink ref="A69" r:id="rId68"/>
     <hyperlink ref="A70" r:id="rId69"/>
@@ -9426,11 +9322,11 @@
     <hyperlink ref="A84" r:id="rId83"/>
     <hyperlink ref="A85" r:id="rId84"/>
     <hyperlink ref="A86" r:id="rId85"/>
-    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A87" r:id="rId86" location="real-user-monitoring"/>
     <hyperlink ref="A88" r:id="rId87"/>
     <hyperlink ref="A89" r:id="rId88"/>
     <hyperlink ref="A90" r:id="rId89"/>
-    <hyperlink ref="A91" r:id="rId90" location="real-user-monitoring"/>
+    <hyperlink ref="A91" r:id="rId90"/>
     <hyperlink ref="A92" r:id="rId91"/>
     <hyperlink ref="A93" r:id="rId92"/>
     <hyperlink ref="A94" r:id="rId93"/>
@@ -9539,30 +9435,30 @@
     <hyperlink ref="A197" r:id="rId196"/>
     <hyperlink ref="A198" r:id="rId197"/>
     <hyperlink ref="A199" r:id="rId198"/>
-    <hyperlink ref="A200" r:id="rId199" location="containers"/>
-    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200" location="containers"/>
     <hyperlink ref="A202" r:id="rId201"/>
     <hyperlink ref="A203" r:id="rId202"/>
     <hyperlink ref="A204" r:id="rId203"/>
-    <hyperlink ref="A205" r:id="rId204" location="containers"/>
-    <hyperlink ref="A206" r:id="rId205"/>
-    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205" location="containers"/>
+    <hyperlink ref="A207" r:id="rId206" location="supported-database-providers"/>
     <hyperlink ref="A208" r:id="rId207"/>
     <hyperlink ref="A209" r:id="rId208"/>
     <hyperlink ref="A210" r:id="rId209"/>
     <hyperlink ref="A211" r:id="rId210"/>
     <hyperlink ref="A212" r:id="rId211"/>
     <hyperlink ref="A213" r:id="rId212"/>
-    <hyperlink ref="A214" r:id="rId213" location="containers"/>
+    <hyperlink ref="A214" r:id="rId213"/>
     <hyperlink ref="A215" r:id="rId214"/>
-    <hyperlink ref="A216" r:id="rId215" location="/esa-api-gateway/README.md"/>
+    <hyperlink ref="A216" r:id="rId215" location="containers"/>
     <hyperlink ref="A217" r:id="rId216"/>
-    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A218" r:id="rId217" location="/esa-api-gateway/README.md"/>
     <hyperlink ref="A219" r:id="rId218"/>
     <hyperlink ref="A220" r:id="rId219"/>
-    <hyperlink ref="A221" r:id="rId220" location="/esa-solution-server/README.md"/>
+    <hyperlink ref="A221" r:id="rId220"/>
     <hyperlink ref="A222" r:id="rId221"/>
-    <hyperlink ref="A223" r:id="rId222"/>
+    <hyperlink ref="A223" r:id="rId222" location="/esa-solution-server/README.md"/>
     <hyperlink ref="A224" r:id="rId223"/>
     <hyperlink ref="A225" r:id="rId224"/>
     <hyperlink ref="A226" r:id="rId225"/>
@@ -9580,9 +9476,9 @@
     <hyperlink ref="A238" r:id="rId237"/>
     <hyperlink ref="A239" r:id="rId238"/>
     <hyperlink ref="A240" r:id="rId239"/>
-    <hyperlink ref="A241" r:id="rId240" location="containers"/>
+    <hyperlink ref="A241" r:id="rId240"/>
     <hyperlink ref="A242" r:id="rId241"/>
-    <hyperlink ref="A243" r:id="rId242"/>
+    <hyperlink ref="A243" r:id="rId242" location="containers"/>
     <hyperlink ref="A244" r:id="rId243"/>
     <hyperlink ref="A245" r:id="rId244"/>
     <hyperlink ref="A246" r:id="rId245"/>
@@ -9641,7 +9537,7 @@
     <hyperlink ref="A299" r:id="rId298"/>
     <hyperlink ref="A300" r:id="rId299"/>
     <hyperlink ref="A301" r:id="rId300"/>
-    <hyperlink ref="A302" r:id="rId301" location="enhanced-insights-for-hdfs"/>
+    <hyperlink ref="A302" r:id="rId301"/>
     <hyperlink ref="A303" r:id="rId302"/>
     <hyperlink ref="A304" r:id="rId303"/>
     <hyperlink ref="A305" r:id="rId304"/>
@@ -9727,7 +9623,7 @@
     <hyperlink ref="A385" r:id="rId384"/>
     <hyperlink ref="A386" r:id="rId385"/>
     <hyperlink ref="A387" r:id="rId386"/>
-    <hyperlink ref="A388" r:id="rId387" location="expand-2438example-add-new-endpoint-page"/>
+    <hyperlink ref="A388" r:id="rId387"/>
     <hyperlink ref="A389" r:id="rId388"/>
     <hyperlink ref="A390" r:id="rId389"/>
     <hyperlink ref="A391" r:id="rId390"/>
@@ -9787,7 +9683,7 @@
     <hyperlink ref="A445" r:id="rId444"/>
     <hyperlink ref="A446" r:id="rId445"/>
     <hyperlink ref="A447" r:id="rId446"/>
-    <hyperlink ref="A448" r:id="rId447"/>
+    <hyperlink ref="A448" r:id="rId447" location="expand--special-instructions-for-rancher-distributions-to-get-the-api-url-and-the-bearer-token"/>
     <hyperlink ref="A449" r:id="rId448"/>
     <hyperlink ref="A450" r:id="rId449"/>
     <hyperlink ref="A451" r:id="rId450"/>
@@ -9874,7 +9770,6 @@
     <hyperlink ref="A532" r:id="rId531"/>
     <hyperlink ref="A533" r:id="rId532"/>
     <hyperlink ref="A534" r:id="rId533" location="cshid=Dynatrace"/>
-    <hyperlink ref="A535" r:id="rId534"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
